--- a/SSD_run_simulation/results_geometry.xlsx
+++ b/SSD_run_simulation/results_geometry.xlsx
@@ -956,7 +956,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.9952376711314259, '1.0': 0.995460861416756, '2.0': 0.9956618424311684, '3.0': 0.9958440915796523, '4.0': 0.996010534522985, '5.0': 0.9961636524537256, '6.0': 0.9963055680721744, '7.0': 0.9964381148117849, '8.0': 0.9965628927704269, '9.0': 0.9966813139664813, '10.0': 0.9967946388903979, '11.0': 0.9969040058136942, '12.0': 0.997010453911942, '13.0': 0.9971149409295106, '14.0': 0.9972183558431358, '15.0': 0.9973215267570295, '16.0': 0.9974252240789361, '17.0': 0.9975301588856198, '18.0': 0.9976369762963124, '19.0': 0.997746243650458, '20.0': 0.997858433357312, '21.0': 0.9979739004840565, '22.0': 0.9980928555170555, '23.0': 0.9982153333092219, '24.0': 0.9983411600452814, '25.0': 0.9984699211143042, '26.0': 0.9986009340125312, '27.0': 0.9987332316495172, '28.0': 0.9988655624070824, '29.0': 0.9989964135728726, '30.0': 0.9991240638085166, '31.0': 0.9992466676145784, '32.0': 0.9993623700759167, '33.0': 0.9994694438210789, '34.0': 0.9995664332212473, '35.0': 0.9996522853132013, '36.0': 0.9997264450676002, '37.0': 0.9997888962419634, '38.0': 0.999840138381402, '39.0': 0.9998811035522, '40.0': 0.9999130292401437, '41.0': 0.999937312265444, '42.0': 0.9999553698729196, '43.0': 0.9999685284935467, '44.0': 0.9999779508015776, '45.0': 0.9999846014615263, '46.0': 0.999989244484331, '47.0': 0.9999924616876076, '48.0': 0.9999946819117834, '49.0': 0.9999962129539781, '50.0': 0.9999972711547637, '51.0': 0.9999980061948728, '52.0': 0.9999985204962618, '53.0': 0.9999988836651745, '54.0': 0.9999991428576728, '55.0': 0.9999993300218224, '56.0': 0.9999994668614572, '57.0': 0.9999995681941096, '58.0': 0.9999996442042229, '59.0': 0.9999997019488946, '60.0': 0.999999746363261, '61.0': 0.9999997809329819, '62.0': 0.9999998081457957, '63.0': 0.9999998297963903, '64.0': 0.9999998471936347, '65.0': 0.999999861302524, '66.0': 0.9999998728422259, '67.0': 0.9999998823544003, '68.0': 0.9999998902512444, '69.0': 0.9999998968495935, '70.0': 0.9999999023953503, '71.0': 0.9999999070811496, '72.0': 0.9999999110592491, '73.0': 0.999999914451021, '74.0': 0.9999999173540032, '75.0': 0.9999999198471841, '76.0': 0.9999999219949944, '77.0': 0.9999999238503499, '78.0': 0.9999999254569873, '79.0': 0.9999999268512729, '80.0': 0.9999999280636123, '81.0': 0.9999999291195585, '82.0': 0.9999999300406884, '83.0': 0.9999999308453015, '84.0': 0.9999999315489789, '85.0': 0.9999999321650371, '86.0': 0.9999999327048937, '87.0': 0.999999933178369, '88.0': 0.9999999335939318, '89.0': 0.999999933958904, '90.0': 0.99999993427963, '91.0': 0.999999934561618, '92.0': 0.9999999348096593, '93.0': 0.9999999350279278, '94.0': 0.9999999352200657, '95.0': 0.9999999353892539, '96.0': 0.9999999355382752, '97.0': 0.9999999356695657, '98.0': 0.9999999357852601, '99.0': 0.9999999358872309, '100.0': 0.9999999359771212, '101.0': 0.9999999360563743, '102.0': 0.9999999361262583, '103.0': 0.999999936187888, '104.0': 0.999999936242244, '105.0': 0.9999999362901897, '106.0': 0.9999999363324841, '107.0': 0.9999999363697964, '108.0': 0.9999999364027157, '109.0': 0.9999999364317607, '110.0': 0.9999999364573887, '111.0': 0.999999936480003, '112.0': 0.9999999364999583, '113.0': 0.9999999365175664, '114.0': 0.9999999365330876, '115.0': 0.9999999365466314, '116.0': 0.9999999365572627, '117.0': 0.9999999365552974, '118.0': 0.9999999364560737, '119.0': 0.9999999355257878, '120.0': 0.9999999270271931}</t>
+          <t>{'0.0': 0.990341971607528, '1.0': 0.990129615091662, '2.0': 0.9899112940848711, '3.0': 0.9896866507169563, '4.0': 0.9894552810474512, '5.0': 0.9892167321119503, '6.0': 0.9889704988150643, '7.0': 0.9887160206271256, '8.0': 0.9884526780376273, '9.0': 0.9881797887143513, '10.0': 0.987896603313127, '11.0': 0.9876023008790413, '12.0': 0.9872959837756023, '13.0': 0.9869766720736715, '14.0': 0.9866432973268451, '15.0': 0.9862946956542125, '16.0': 0.9859296000449438, '17.0': 0.9855466317918207, '18.0': 0.9851442909524932, '19.0': 0.9847209457278085, '20.0': 0.9842748206358565, '21.0': 0.983803983348325, '22.0': 0.9833063300421985, '23.0': 0.9827795691046535, '24.0': 0.982221203012078, '25.0': 0.9816285081853764, '26.0': 0.9809985126029599, '27.0': 0.980327970930053, '28.0': 0.9796133368980211, '29.0': 0.9788507326403979, '30.0': 0.9780359146631301, '31.0': 0.9771642360954144, '32.0': 0.9762306048345535, '33.0': 0.9752294371638779, '34.0': 0.9741546063875103, '35.0': 0.9729993859903647, '36.0': 0.9717563867974333, '37.0': 0.9704174875746349, '38.0': 0.9689737584864044, '39.0': 0.9674153768056125, '40.0': 0.9657315342629846, '41.0': 0.9639103354307884, '42.0': 0.9619386865653883, '43.0': 0.959802174393233, '44.0': 0.9574849344249943, '45.0': 0.954969508535424, '46.0': 0.9522366917675475, '47.0': 0.9492653686280055, '48.0': 0.9460323395585353, '49.0': 0.9425121388238435, '50.0': 0.9386768457800343, '51.0': 0.9344958924162199, '52.0': 0.9299358712345502, '53.0': 0.9249603489926388, '54.0': 0.9195296936189392, '55.0': 0.9136009237637273, '56.0': 0.9071275929932989, '57.0': 0.9000597235814192, '58.0': 0.8923438081780342, '59.0': 0.8839229012729954, '60.0': 0.8747368261896635, '61.0': 0.8647225271202008, '62.0': 0.8538145991207486, '63.0': 0.8419460315550882, '64.0': 0.8290492015916975, '65.0': 0.8150571532434148, '66.0': 0.7999051931681074, '67.0': 0.7835328260013057, '68.0': 0.7658860383386188, '69.0': 0.7469199207374014, '70.0': 0.7266015907211744, '71.0': 0.7049133468160926, '72.0': 0.6818559451058276, '73.0': 0.6574518478385276, '74.0': 0.6317482518432616, '75.0': 0.6048196679437476, '76.0': 0.5767697974312248, '77.0': 0.5477324448271186, '78.0': 0.5178712241149966, '79.0': 0.48737786316299686, '80.0': 0.45646898988241436, '81.0': 0.4253813910469254, '82.0': 0.39436586272603685, '83.0': 0.3636799070326212, '84.0': 0.333579656670034, '85.0': 0.30431150856209255, '86.0': 0.2761040044407814, '87.0': 0.24916049851574967, '88.0': 0.2236530967946136, '89.0': 0.19971824466451987, '90.0': 0.17745419262166, '91.0': 0.15692040404753538, '92.0': 0.13813880545732327, '93.0': 0.12109663881249821, '94.0': 0.10575057242017294, '95.0': 0.09203166969922799, '96.0': 0.07985080423331814, '97.0': 0.06910413913396035, '98.0': 0.05967834846292652, '99.0': 0.05145533600633484, '100.0': 0.0443162900564808, '101.0': 0.038144992045627435, '102.0': 0.032830364825044145, '103.0': 0.028268299170074285, '104.0': 0.02436283359315239, '105.0': 0.021026783768617996, '106.0': 0.0181819261824826, '107.0': 0.01575883902591757, '108.0': 0.013696494937833814, '109.0': 0.01194168774744453, '110.0': 0.01044836113504033, '111.0': 0.009176892797502112, '112.0': 0.008093374397153241, '113.0': 0.007168915938067177, '114.0': 0.006378993535465338, '115.0': 0.005702851843460921, '116.0': 0.00512296653959432, '117.0': 0.004624567995206663, '118.0': 0.004195224316035362, '119.0': 0.0038244800454602657, '120.0': 0.003503545734651836}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.9464473130541009, '1.0': 0.9452823326933895, '2.0': 0.9440944551025429, '3.0': 0.9428818412273627, '4.0': 0.9416421064776002, '5.0': 0.9403722348279907, '6.0': 0.93906848225079, '7.0': 0.9377262690755922, '8.0': 0.9363400607950532, '9.0': 0.9349032368072958, '10.0': 0.9334079466167156, '11.0': 0.9318449531247779, '12.0': 0.930203462863867, '13.0': 0.9284709434082081, '14.0': 0.9266329288030679, '15.0': 0.924672814776198, '16.0': 0.922571646849715, '17.0': 0.9203079064010629, '18.0': 0.917857302401202, '19.0': 0.9151925801804194, '20.0': 0.912283363333348, '21.0': 0.909096050937801, '22.0': 0.9055937996946892, '23.0': 0.9017366292751315, '24.0': 0.8974816986335945, '25.0': 0.8927838103535861, '26.0': 0.8875962075684187, '27.0': 0.8818717310913788, '28.0': 0.8755643995907875, '29.0': 0.8686314586731195, '30.0': 0.8610359111276453, '31.0': 0.8527494868646615, '32.0': 0.843755936554051, '33.0': 0.8340544419303547, '34.0': 0.8236628394340243, '35.0': 0.8126202712655356, '36.0': 0.8009888339108302, '37.0': 0.7888538143411776, '38.0': 0.7763222064003108, '39.0': 0.7635193855114693, '40.0': 0.750584066635765, '41.0': 0.737661933541647, '42.0': 0.724898548969892, '43.0': 0.7124322809824623, '44.0': 0.7003879781187219, '45.0': 0.6888719955682023, '46.0': 0.6779689499927507, '47.0': 0.667740316636178, '48.0': 0.6582247367879595, '49.0': 0.6494397207772122, '50.0': 0.6413843327633832, '51.0': 0.6340424267214793, '52.0': 0.6273860496277943, '53.0': 0.6213787120922886, '54.0': 0.6159783236990474, '55.0': 0.6111396813371486, '56.0': 0.6068164728314466, '57.0': 0.6029628111747285, '58.0': 0.5995343475004375, '59.0': 0.5964890272101738, '60.0': 0.5937875579009468, '61.0': 0.5913936542162588, '62.0': 0.5892741169631011, '63.0': 0.5873987943195336, '64.0': 0.585740463343454, '65.0': 0.5842746612176727, '66.0': 0.582979488164041, '67.0': 0.5818353978418986, '68.0': 0.5808249862388009, '69.0': 0.5799327863983528, '70.0': 0.5791450736138147, '71.0': 0.5784496837536907, '72.0': 0.5778358460047364, '73.0': 0.5772940303746988, '74.0': 0.5768158096759645, '75.0': 0.5763937353222297, '76.0': 0.5760212260450325, '77.0': 0.5756924685248253, '78.0': 0.5754023288952022, '79.0': 0.5751462740923775, '80.0': 0.5749203020663125, '81.0': 0.5747208799319716, '82.0': 0.5745448892102456, '83.0': 0.5743895773821779, '84.0': 0.5742525150535149, '85.0': 0.5741315580969042, '86.0': 0.5740248142049604, '87.0': 0.5739306133482336, '88.0': 0.5738474816875998, '89.0': 0.5737741185408308, '90.0': 0.5737093760482861, '91.0': 0.5736522412231346, '92.0': 0.5736018201076323, '93.0': 0.5735573237891227, '94.0': 0.5735180560579871, '95.0': 0.5734834025150966, '96.0': 0.573452820958757, '97.0': 0.5734258329009999, '98.0': 0.5734020160806366, '99.0': 0.5733809978560279, '100.0': 0.573362449374237, '101.0': 0.5733460804253601, '102.0': 0.573331634901534, '103.0': 0.5733188867895673, '104.0': 0.5733076366344958, '105.0': 0.5732977084187171, '106.0': 0.5732889468078731, '107.0': 0.5732812147203772, '108.0': 0.5732743911825533, '109.0': 0.5732683694358257, '110.0': 0.5732630552663324, '111.0': 0.5732583655308305, '112.0': 0.5732542268558227, '113.0': 0.5732505744895474, '114.0': 0.5732473512888727, '115.0': 0.5732445068252379, '116.0': 0.5732419965956533, '117.0': 0.5732397813264154, '118.0': 0.5732378263586388, '119.0': 0.5732361011059903, '120.0': 0.5732345785761214}</t>
+          <t>{'0.0': 0.9894066428591664, '1.0': 0.9899400437277054, '2.0': 0.990450435030801, '3.0': 0.9909379803930414, '4.0': 0.9914029407321543, '5.0': 0.9918456630794493, '6.0': 0.9922665693803541, '7.0': 0.9926661454463721, '8.0': 0.9930449302031457, '9.0': 0.9934035053521275, '10.0': 0.9937424855365022, '11.0': 0.9940625090761792, '12.0': 0.9943642293123974, '13.0': 0.9946483065801316, '14.0': 0.9949154008062402, '15.0': 0.9951661647132313, '16.0': 0.9954012375925672, '17.0': 0.9956212395974122, '18.0': 0.9958267664924101, '19.0': 0.9960183847871169, '20.0': 0.9961966271697387, '21.0': 0.996361988148404, '22.0': 0.9965149197978547, '23.0': 0.9966558274996681, '24.0': 0.9967850655533776, '25.0': 0.9969029325235107, '26.0': 0.9970096661729991, '27.0': 0.9971054378158644, '28.0': 0.9971903459007445, '29.0': 0.9972644086107627, '30.0': 0.9973275552333645, '31.0': 0.99737961601483, '32.0': 0.9974203101667211, '33.0': 0.9974492316338608, '34.0': 0.9974658321635457, '35.0': 0.9974694011312102, '36.0': 0.9974590414759822, '37.0': 0.9974336409772894, '38.0': 0.9973918379573087, '39.0': 0.9973319803194594, '40.0': 0.9972520766258077, '41.0': 0.9971497376712508, '42.0': 0.997022106724609, '43.0': 0.9968657762713242, '44.0': 0.9966766887050686, '45.0': 0.99645001797345, '46.0': 0.996180028686132, '47.0': 0.9958599086467265, '48.0': 0.9954815701846607, '49.0': 0.9950354150629291, '50.0': 0.9945100571615335, '51.0': 0.9938919966472021, '52.0': 0.9931652390329965, '53.0': 0.9923108525465003, '54.0': 0.9913064577613256, '55.0': 0.9901256447786831, '56.0': 0.9887373157431929, '57.0': 0.9871049546211, '58.0': 0.9851858325637426, '59.0': 0.9829301665489671, '60.0': 0.9802802621538231, '61.0': 0.9771696890956084, '62.0': 0.9735225612901108, '63.0': 0.9692530219488172, '64.0': 0.9642650682580118, '65.0': 0.9584528877680524, '66.0': 0.951701916150693, '67.0': 0.9438908571657948, '68.0': 0.9348949209236248, '69.0': 0.9245905227246964, '70.0': 0.9128616259494067, '71.0': 0.899607792001603, '72.0': 0.8847538050055876, '73.0': 0.8682604654925705, '74.0': 0.8501358101717132, '75.0': 0.8304456539074896, '76.0': 0.8093220341188471, '77.0': 0.7869679602812221, '78.0': 0.763656932938195, '79.0': 0.7397260765902003, '80.0': 0.7155624494843541, '81.0': 0.6915830814864803, '82.0': 0.6682103809279669, '83.0': 0.6458455021107214, '84.0': 0.6248428263573829, '85.0': 0.6054887016312953, '86.0': 0.5879869697026325, '87.0': 0.5724527120153383, '88.0': 0.5589143236702716, '89.0': 0.5473227865985106, '90.0': 0.5375661185121228, '91.0': 0.529486565272216, '92.0': 0.5228981809491156, '93.0': 0.5176028872117675, '94.0': 0.5134037487027415, '95.0': 0.5101148722561639, '96.0': 0.5075679075658445, '97.0': 0.5056155281657317, '98.0': 0.5041324927727844, '99.0': 0.5030149546622527, '100.0': 0.5021786453792716, '101.0': 0.5015564552539004, '102.0': 0.5010958055033959, '103.0': 0.500756082007541, '104.0': 0.5005062944079388, '105.0': 0.5003230421348639, '106.0': 0.5001888113077658, '107.0': 0.5000905898073071, '108.0': 0.5000187674651776, '109.0': 0.499966279527126, '110.0': 0.4999279502473589, '111.0': 0.49989999652572004, '112.0': 0.49987965667597895, '113.0': 0.4998649152636184, '114.0': 0.49985430061712177, '115.0': 0.4998467366568833, '116.0': 0.49984143492961264, '117.0': 0.49983781617301287, '118.0': 0.4998354534394538, '119.0': 0.4998340308877587, '120.0': 0.4998333139251609}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.1, '1.0': 0.1, '2.0': 0.1, '3.0': 0.1, '4.0': 0.1, '5.0': 0.1, '6.0': 0.1, '7.0': 0.1, '8.0': 0.1, '9.0': 0.1, '10.0': 0.1, '11.0': 0.1, '12.0': 0.1, '13.0': 0.1, '14.0': 0.1, '15.0': 0.1, '16.0': 0.1, '17.0': 0.1, '18.0': 0.1, '19.0': 0.1, '20.0': 0.1, '21.0': 0.1, '22.0': 0.1, '23.0': 0.1, '24.0': 0.1, '25.0': 0.1, '26.0': 0.1, '27.0': 0.1, '28.0': 0.1, '29.0': 0.1, '30.0': 0.1, '31.0': 0.1, '32.0': 0.1, '33.0': 0.1, '34.0': 0.1, '35.0': 0.1, '36.0': 0.1, '37.0': 0.1, '38.0': 0.1, '39.0': 0.1, '40.0': 0.1, '41.0': 0.1, '42.0': 0.1, '43.0': 0.1, '44.0': 0.1, '45.0': 0.1, '46.0': 0.1, '47.0': 0.1, '48.0': 0.1, '49.0': 0.1, '50.0': 0.1, '51.0': 0.1, '52.0': 0.1, '53.0': 0.1, '54.0': 0.1, '55.0': 0.1, '56.0': 0.1, '57.0': 0.1, '58.0': 0.1, '59.0': 0.1, '60.0': 0.1, '61.0': 0.1, '62.0': 0.1, '63.0': 0.1, '64.0': 0.1, '65.0': 0.1, '66.0': 0.1, '67.0': 0.1, '68.0': 0.1, '69.0': 0.1, '70.0': 0.1, '71.0': 0.1, '72.0': 0.1, '73.0': 0.1, '74.0': 0.1, '75.0': 0.1, '76.0': 0.1, '77.0': 0.1, '78.0': 0.1, '79.0': 0.1, '80.0': 0.1, '81.0': 0.1, '82.0': 0.1, '83.0': 0.1, '84.0': 0.1, '85.0': 0.1, '86.0': 0.1, '87.0': 0.1, '88.0': 0.1, '89.0': 0.1, '90.0': 0.1, '91.0': 0.1, '92.0': 0.1, '93.0': 0.1, '94.0': 0.1, '95.0': 0.1, '96.0': 0.1, '97.0': 0.1, '98.0': 0.1, '99.0': 0.1, '100.0': 0.1, '101.0': 0.1, '102.0': 0.1, '103.0': 0.1, '104.0': 0.1, '105.0': 0.1, '106.0': 0.1, '107.0': 0.1, '108.0': 0.1, '109.0': 0.1, '110.0': 0.1, '111.0': 0.1, '112.0': 0.1, '113.0': 0.1, '114.0': 0.1, '115.0': 0.1, '116.0': 0.1, '117.0': 0.1, '118.0': 0.1, '119.0': 0.1, '120.0': 0.1}</t>
+          <t>{'0.0': 0.0, '1.0': 0.0, '2.0': 0.0, '3.0': 0.0, '4.0': 0.0, '5.0': 0.0, '6.0': 0.0, '7.0': 0.0, '8.0': 0.0, '9.0': 0.0, '10.0': 0.0, '11.0': 0.0, '12.0': 0.0, '13.0': 0.0, '14.0': 0.0, '15.0': 0.0, '16.0': 0.0, '17.0': 0.0, '18.0': 0.0, '19.0': 0.0, '20.0': 0.0, '21.0': 0.0, '22.0': 0.0, '23.0': 0.0, '24.0': 0.0, '25.0': 0.0, '26.0': 0.0, '27.0': 0.0, '28.0': 0.0, '29.0': 0.0, '30.0': 0.0, '31.0': 0.0, '32.0': 0.0, '33.0': 0.0, '34.0': 0.0, '35.0': 0.0, '36.0': 0.0, '37.0': 0.0, '38.0': 0.0, '39.0': 0.0, '40.0': 0.0, '41.0': 0.0, '42.0': 0.0, '43.0': 0.0, '44.0': 0.0, '45.0': 0.0, '46.0': 0.0, '47.0': 0.0, '48.0': 0.0, '49.0': 0.0, '50.0': 0.0, '51.0': 0.0, '52.0': 0.0, '53.0': 0.0, '54.0': 0.0, '55.0': 0.0, '56.0': 0.0, '57.0': 0.0, '58.0': 0.0, '59.0': 0.0, '60.0': 0.0, '61.0': 0.0, '62.0': 0.0, '63.0': 0.0, '64.0': 0.0, '65.0': 0.0, '66.0': 0.0, '67.0': 0.0, '68.0': 0.0, '69.0': 0.0, '70.0': 0.0, '71.0': 0.0, '72.0': 0.0, '73.0': 0.0, '74.0': 0.0, '75.0': 0.0, '76.0': 0.0, '77.0': 0.0, '78.0': 0.0, '79.0': 0.0, '80.0': 0.0, '81.0': 0.0, '82.0': 0.0, '83.0': 0.0, '84.0': 0.0, '85.0': 0.0, '86.0': 0.0, '87.0': 0.0, '88.0': 0.0, '89.0': 0.0, '90.0': 0.0, '91.0': 0.0, '92.0': 0.0, '93.0': 0.0, '94.0': 0.0, '95.0': 0.0, '96.0': 0.0, '97.0': 0.0, '98.0': 0.0, '99.0': 0.0, '100.0': 0.0, '101.0': 0.0, '102.0': 0.0, '103.0': 0.0, '104.0': 0.0, '105.0': 0.0, '106.0': 0.0, '107.0': 0.0, '108.0': 0.0, '109.0': 0.0, '110.0': 0.0, '111.0': 0.0, '112.0': 0.0, '113.0': 0.0, '114.0': 0.0, '115.0': 0.0, '116.0': 0.0, '117.0': 0.0, '118.0': 0.0, '119.0': 0.0, '120.0': 0.0}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'0.0': 22.321548302091763, '1.0': 22.32177707836682, '2.0': 22.321973698906135, '3.0': 22.322144300437202, '4.0': 22.322293712832213, '5.0': 22.322425773655368, '6.0': 22.322543560491976, '7.0': 22.3226495639491, '8.0': 22.322745817378543, '9.0': 22.322833994668752, '10.0': 22.322915484185486, '11.0': 22.322991444653628, '12.0': 22.323062847158827, '13.0': 22.323130506306207, '14.0': 22.32319510276863, '15.0': 22.32325719890123, '16.0': 22.32331724873465, '17.0': 22.323375603451172, '18.0': 22.323432513374172, '19.0': 22.3234881275469, '20.0': 22.32354249212672, '21.0': 22.323595549052182, '22.0': 22.32364713671035, '23.0': 22.323696994570607, '24.0': 22.323744773851928, '25.0': 22.323790056110724, '26.0': 22.323832381016015, '27.0': 22.323871283382108, '28.0': 22.32390633772244, '29.0': 22.323937206333582, '30.0': 22.323963684658604, '31.0': 22.32398573614177, '32.0': 22.324003508833584, '33.0': 22.324017328291912, '34.0': 22.324027665845595, '35.0': 22.324035087048866, '36.0': 22.32404019028581, '37.0': 22.324043547937173, '38.0': 22.324045661134825, '39.0': 22.32404693439264, '40.0': 22.32404767032706, '41.0': 22.32404807972122, '42.0': 22.324048299930766, '43.0': 22.324048415146503, '44.0': 22.3240484742083, '45.0': 22.32404850412046, '46.0': 22.32404851922634, '47.0': 22.324048526907546, '48.0': 22.32404853087848, '49.0': 22.32404853298408, '50.0': 22.324048534137546, '51.0': 22.324048534793555, '52.0': 22.324048535181774, '53.0': 22.3240485354208, '54.0': 22.324048535573628, '55.0': 22.324048535674777, '56.0': 22.324048535743845, '57.0': 22.324048535792336, '58.0': 22.324048535827224, '59.0': 22.324048535852874, '60.0': 22.324048535872105, '61.0': 22.324048535886774, '62.0': 22.324048535898132, '63.0': 22.324048535907057, '64.0': 22.32404853591415, '65.0': 22.324048535919854, '66.0': 22.324048535924486, '67.0': 22.324048535928284, '68.0': 22.32404853593142, '69.0': 22.324048535934033, '70.0': 22.32404853593622, '71.0': 22.32404853593806, '72.0': 22.32404853593962, '73.0': 22.32404853594095, '74.0': 22.324048535942083, '75.0': 22.324048535943056, '76.0': 22.324048535943895, '77.0': 22.324048535944616, '78.0': 22.32404853594524, '79.0': 22.32404853594578, '80.0': 22.324048535946254, '81.0': 22.324048535946662, '82.0': 22.324048535947018, '83.0': 22.32404853594733, '84.0': 22.324048535947604, '85.0': 22.324048535947842, '86.0': 22.32404853594805, '87.0': 22.324048535948233, '88.0': 22.324048535948396, '89.0': 22.324048535948535, '90.0': 22.32404853594866, '91.0': 22.32404853594877, '92.0': 22.324048535948865, '93.0': 22.32404853594895, '94.0': 22.324048535949025, '95.0': 22.32404853594909, '96.0': 22.32404853594915, '97.0': 22.3240485359492, '98.0': 22.32404853594924, '99.0': 22.32404853594928, '100.0': 22.324048535949316, '101.0': 22.324048535949345, '102.0': 22.324048535949373, '103.0': 22.324048535949398, '104.0': 22.32404853594942, '105.0': 22.324048535949437, '106.0': 22.32404853594945, '107.0': 22.32404853594947, '108.0': 22.32404853594948, '109.0': 22.324048535949494, '110.0': 22.3240485359495, '111.0': 22.32404853594951, '112.0': 22.32404853594952, '113.0': 22.324048535949526, '114.0': 22.324048535949533, '115.0': 22.324048535949537, '116.0': 22.32404853594954, '117.0': 22.32404853594954, '118.0': 22.3240485359495, '119.0': 22.324048535949142, '120.0': 22.32404853594585}</t>
+          <t>{'0.0': 0.0, '1.0': 0.0, '2.0': 0.0, '3.0': 0.0, '4.0': 0.0, '5.0': 0.0, '6.0': 0.0, '7.0': 0.0, '8.0': 0.0, '9.0': 0.0, '10.0': 0.0, '11.0': 0.0, '12.0': 0.0, '13.0': 0.0, '14.0': 0.0, '15.0': 0.0, '16.0': 0.0, '17.0': 0.0, '18.0': 0.0, '19.0': 0.0, '20.0': 0.0, '21.0': 0.0, '22.0': 0.0, '23.0': 0.0, '24.0': 0.0, '25.0': 0.0, '26.0': 0.0, '27.0': 0.0, '28.0': 0.0, '29.0': 0.0, '30.0': 0.0, '31.0': 0.0, '32.0': 0.0, '33.0': 0.0, '34.0': 0.0, '35.0': 0.0, '36.0': 0.0, '37.0': 0.0, '38.0': 0.0, '39.0': 0.0, '40.0': 0.0, '41.0': 0.0, '42.0': 0.0, '43.0': 0.0, '44.0': 0.0, '45.0': 0.0, '46.0': 0.0, '47.0': 0.0, '48.0': 0.0, '49.0': 0.0, '50.0': 0.0, '51.0': 0.0, '52.0': 0.0, '53.0': 0.0, '54.0': 0.0, '55.0': 0.0, '56.0': 0.0, '57.0': 0.0, '58.0': 0.0, '59.0': 0.0, '60.0': 0.0, '61.0': 0.0, '62.0': 0.0, '63.0': 0.0, '64.0': 0.0, '65.0': 0.0, '66.0': 0.0, '67.0': 0.0, '68.0': 0.0, '69.0': 0.0, '70.0': 0.0, '71.0': 0.0, '72.0': 0.0, '73.0': 0.0, '74.0': 0.0, '75.0': 0.0, '76.0': 0.0, '77.0': 0.0, '78.0': 0.0, '79.0': -0.0, '80.0': -0.0, '81.0': -0.0, '82.0': -0.0, '83.0': -0.0, '84.0': -0.0, '85.0': -0.0, '86.0': -0.0, '87.0': -0.0, '88.0': -0.0, '89.0': -0.0, '90.0': -0.0, '91.0': -0.0, '92.0': -0.0, '93.0': -0.0, '94.0': -0.0, '95.0': -0.0, '96.0': -0.0, '97.0': -0.0, '98.0': -0.0, '99.0': -0.0, '100.0': -0.0, '101.0': -0.0, '102.0': -0.0, '103.0': -0.0, '104.0': -0.0, '105.0': -0.0, '106.0': -0.0, '107.0': -0.0, '108.0': -0.0, '109.0': -0.0, '110.0': -0.0, '111.0': -0.0, '112.0': -0.0, '113.0': -0.0, '114.0': -0.0, '115.0': -0.0, '116.0': -0.0, '117.0': -0.0, '118.0': -0.0, '119.0': -0.0, '120.0': -0.0}</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1036,22 +1036,22 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'0.0': -47.996704353019176, '1.0': -47.996704353019176, '2.0': -47.996704353019176, '3.0': -47.996704353019176, '4.0': -47.996704353019176, '5.0': -47.996704353019176, '6.0': -47.996704353019176, '7.0': -47.996704353019176, '8.0': -47.996704353019176, '9.0': -47.996704353019176, '10.0': -47.996704353019176, '11.0': -47.996704353019176, '12.0': -47.996704353019176, '13.0': -47.996704353019176, '14.0': -47.996704353019176, '15.0': -47.996704353019176, '16.0': -47.996704353019176, '17.0': -47.996704353019176, '18.0': -47.996704353019176, '19.0': -47.996704353019176, '20.0': -47.996704353019176, '21.0': -47.996704353019176, '22.0': -47.996704353019176, '23.0': -47.996704353019176, '24.0': -47.996704353019176, '25.0': -47.996704353019176, '26.0': -47.996704353019176, '27.0': -47.996704353019176, '28.0': -47.996704353019176, '29.0': -47.996704353019176, '30.0': -47.996704353019176, '31.0': -47.996704353019176, '32.0': -47.996704353019176, '33.0': -47.996704353019176, '34.0': -47.996704353019176, '35.0': -47.996704353019176, '36.0': -47.996704353019176, '37.0': -47.996704353019176, '38.0': -47.996704353019176, '39.0': -47.996704353019176, '40.0': -47.996704353019176, '41.0': -47.996704353019176, '42.0': -47.996704353019176, '43.0': -47.996704353019176, '44.0': -47.996704353019176, '45.0': -47.996704353019176, '46.0': -47.996704353019176, '47.0': -47.996704353019176, '48.0': -47.996704353019176, '49.0': -47.996704353019176, '50.0': -47.996704353019176, '51.0': -47.996704353019176, '52.0': -47.996704353019176, '53.0': -47.996704353019176, '54.0': -47.996704353019176, '55.0': -47.996704353019176, '56.0': -47.996704353019176, '57.0': -47.996704353019176, '58.0': -47.996704353019176, '59.0': -47.996704353019176, '60.0': -47.996704353019176, '61.0': -47.996704353019176, '62.0': -47.996704353019176, '63.0': -47.996704353019176, '64.0': -47.996704353019176, '65.0': -47.996704353019176, '66.0': -47.996704353019176, '67.0': -47.996704353019176, '68.0': -47.996704353019176, '69.0': -47.996704353019176, '70.0': -47.996704353019176, '71.0': -47.996704353019176, '72.0': -47.996704353019176, '73.0': -47.996704353019176, '74.0': -47.996704353019176, '75.0': -47.996704353019176, '76.0': -47.996704353019176, '77.0': -47.996704353019176, '78.0': -47.996704353019176, '79.0': -47.996704353019176, '80.0': -47.996704353019176, '81.0': -47.996704353019176, '82.0': -47.996704353019176, '83.0': -47.996704353019176, '84.0': -47.996704353019176, '85.0': -47.996704353019176, '86.0': -47.996704353019176, '87.0': -47.996704353019176, '88.0': -47.996704353019176, '89.0': -47.996704353019176, '90.0': -47.996704353019176, '91.0': -47.996704353019176, '92.0': -47.996704353019176, '93.0': -47.996704353019176, '94.0': -47.996704353019176, '95.0': -47.996704353019176, '96.0': -47.996704353019176, '97.0': -47.996704353019176, '98.0': -47.996704353019176, '99.0': -47.996704353019176, '100.0': -47.996704353019176, '101.0': -47.996704353019176, '102.0': -47.996704353019176, '103.0': -47.996704353019176, '104.0': -47.996704353019176, '105.0': -47.996704353019176, '106.0': -47.996704353019176, '107.0': -47.996704353019176, '108.0': -47.996704353019176, '109.0': -47.996704353019176, '110.0': -47.996704353019176, '111.0': -47.996704353019176, '112.0': -47.996704353019176, '113.0': -47.996704353019176, '114.0': -47.996704353019176, '115.0': -47.996704353019176, '116.0': -47.996704353019176, '117.0': -47.996704353019176, '118.0': -47.996704353019176, '119.0': -47.996704353019176, '120.0': -47.996704353019176}</t>
+          <t>{'0.0': 47.996704353019176, '1.0': 47.996704353019176, '2.0': 47.996704353019176, '3.0': 47.996704353019176, '4.0': 47.996704353019176, '5.0': 47.996704353019176, '6.0': 47.996704353019176, '7.0': 47.996704353019176, '8.0': 47.996704353019176, '9.0': 47.996704353019176, '10.0': 47.996704353019176, '11.0': 47.996704353019176, '12.0': 47.996704353019176, '13.0': 47.996704353019176, '14.0': 47.996704353019176, '15.0': 47.996704353019176, '16.0': 47.996704353019176, '17.0': 47.996704353019176, '18.0': 47.996704353019176, '19.0': 47.996704353019176, '20.0': 47.996704353019176, '21.0': 47.996704353019176, '22.0': 47.996704353019176, '23.0': 47.996704353019176, '24.0': 47.996704353019176, '25.0': 47.996704353019176, '26.0': 47.996704353019176, '27.0': 47.996704353019176, '28.0': 47.996704353019176, '29.0': 47.996704353019176, '30.0': 47.996704353019176, '31.0': 47.996704353019176, '32.0': 47.996704353019176, '33.0': 47.996704353019176, '34.0': 47.996704353019176, '35.0': 47.996704353019176, '36.0': 47.996704353019176, '37.0': 47.996704353019176, '38.0': 47.996704353019176, '39.0': 47.996704353019176, '40.0': 47.996704353019176, '41.0': 47.996704353019176, '42.0': 47.996704353019176, '43.0': 47.996704353019176, '44.0': 47.996704353019176, '45.0': 47.996704353019176, '46.0': 47.996704353019176, '47.0': 47.996704353019176, '48.0': 47.996704353019176, '49.0': 47.996704353019176, '50.0': 47.996704353019176, '51.0': 47.996704353019176, '52.0': 47.996704353019176, '53.0': 47.996704353019176, '54.0': 47.996704353019176, '55.0': 47.996704353019176, '56.0': 47.996704353019176, '57.0': 47.996704353019176, '58.0': 47.996704353019176, '59.0': 47.996704353019176, '60.0': 47.996704353019176, '61.0': 47.996704353019176, '62.0': 47.996704353019176, '63.0': 47.996704353019176, '64.0': 47.996704353019176, '65.0': 47.996704353019176, '66.0': 47.996704353019176, '67.0': 47.996704353019176, '68.0': 47.996704353019176, '69.0': 47.996704353019176, '70.0': 47.996704353019176, '71.0': 47.996704353019176, '72.0': 47.996704353019176, '73.0': 47.996704353019176, '74.0': 47.996704353019176, '75.0': 47.996704353019176, '76.0': 47.996704353019176, '77.0': 47.996704353019176, '78.0': 47.996704353019176, '79.0': 47.996704353019176, '80.0': 47.996704353019176, '81.0': 47.996704353019176, '82.0': 47.996704353019176, '83.0': 47.996704353019176, '84.0': 47.996704353019176, '85.0': 47.996704353019176, '86.0': 47.996704353019176, '87.0': 47.996704353019176, '88.0': 47.996704353019176, '89.0': 47.996704353019176, '90.0': 47.996704353019176, '91.0': 47.996704353019176, '92.0': 47.996704353019176, '93.0': 47.996704353019176, '94.0': 47.996704353019176, '95.0': 47.996704353019176, '96.0': 47.996704353019176, '97.0': 47.996704353019176, '98.0': 47.996704353019176, '99.0': 47.996704353019176, '100.0': 47.996704353019176, '101.0': 47.996704353019176, '102.0': 47.996704353019176, '103.0': 47.996704353019176, '104.0': 47.996704353019176, '105.0': 47.996704353019176, '106.0': 47.996704353019176, '107.0': 47.996704353019176, '108.0': 47.996704353019176, '109.0': 47.996704353019176, '110.0': 47.996704353019176, '111.0': 47.996704353019176, '112.0': 47.996704353019176, '113.0': 47.996704353019176, '114.0': 47.996704353019176, '115.0': 47.996704353019176, '116.0': 47.996704353019176, '117.0': 47.996704353019176, '118.0': 47.996704353019176, '119.0': 47.996704353019176, '120.0': 47.996704353019176}</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.8646159625667071, '1.0': 0.8709966445407196, '2.0': 0.8770910452985512, '3.0': 0.8829106000755766, '4.0': 0.8884664297014772, '5.0': 0.8937693333896614, '6.0': 0.8988297838838659, '7.0': 0.9036579246786898, '8.0': 0.9082635690573446, '9.0': 0.9126562007143965, '10.0': 0.9168449757538258, '11.0': 0.9208387258734645, '12.0': 0.9246459625658785, '13.0': 0.9282748821831812, '14.0': 0.9317333717291747, '15.0': 0.9350290152567345, '16.0': 0.9381691007615905, '17.0': 0.9411606274756805, '18.0': 0.9440103134741867, '19.0': 0.9467246035202703, '20.0': 0.9493096770804879, '21.0': 0.9517714564519859, '22.0': 0.9541156149498797, '23.0': 0.9563475851098284, '24.0': 0.9584725668667359, '25.0': 0.9604955356758521, '26.0': 0.9624212505473141, '27.0': 0.9642542619694515, '28.0': 0.9659989196999997, '29.0': 0.9676593804077719, '30.0': 0.9692396151503744, '31.0': 0.970743416676243, '32.0': 0.9721744065416623, '33.0': 0.97353604203554, '34.0': 0.974831622906563, '35.0': 0.9760642978889971, '36.0': 0.9772370710248184, '37.0': 0.9783528077811116, '38.0': 0.9794142409627513, '39.0': 0.9804239764213214, '40.0': 0.9813844985620263, '41.0': 0.9822981756510405, '42.0': 0.983167264926319, '43.0': 0.9839939175153851, '44.0': 0.9847801831640135, '45.0': 0.9855280147800631, '46.0': 0.9862392727969769, '47.0': 0.986915729361681, '48.0': 0.9875590723517709, '49.0': 0.9881709092269861, '50.0': 0.9887527707200588, '51.0': 0.9893061143720525, '52.0': 0.9898323279173293, '53.0': 0.990332732523266, '54.0': 0.9908085858898061, '55.0': 0.9912610852138808, '56.0': 0.9916913700236645, '57.0': 0.9921005248875432, '58.0': 0.992489582002585, '59.0': 0.9928595236671947, '60.0': 0.993211284642526, '61.0': 0.9935457544071072, '62.0': 0.9938637793090147, '63.0': 0.9941661646198041, '64.0': 0.994453676494284, '65.0': 0.9947270438400836, '66.0': 0.9949869601008441, '67.0': 0.9952340849567272, '68.0': 0.9954690459458104, '69.0': 0.9956924400098127, '70.0': 0.995904834967462, '71.0': 0.996106770918701, '72.0': 0.9962987615828021, '73.0': 0.99648129557334, '74.0': 0.9966548376128639, '75.0': 0.9968198296899886, '76.0': 0.9969766921615195, '77.0': 0.9971258248021164, '78.0': 0.9972676078039004, '79.0': 0.9974024027283037, '80.0': 0.9975305534123676, '81.0': 0.9976523868315987, '82.0': 0.9977682139214032, '83.0': 0.9978783303590303, '84.0': 0.9979830173078725, '85.0': 0.9980825421258884, '86.0': 0.9981771590398358, '87.0': 0.9982671097869273, '88.0': 0.9983526242254477, '89.0': 0.9984339209158062, '90.0': 0.9985112076734233, '91.0': 0.9985846820947968, '92.0': 0.9986545320580215, '93.0': 0.9987209361989848, '94.0': 0.9987840643644027, '95.0': 0.9988440780428025, '96.0': 0.9989011307745143, '97.0': 0.9989553685416775, '98.0': 0.9990069301392264, '99.0': 0.9990559475277678, '100.0': 0.9991025461692298, '101.0': 0.9991468453461085, '102.0': 0.9991889584651095, '103.0': 0.9992289933459378, '104.0': 0.9992670524959574, '105.0': 0.9993032333714036, '106.0': 0.9993376286258033, '107.0': 0.9993703263462244, '108.0': 0.999401410277943, '109.0': 0.9994309600380983, '110.0': 0.9994590513188646, '111.0': 0.9994857560806572, '112.0': 0.9995111427358531, '113.0': 0.9995352763234945, '114.0': 0.9995582186754106, '115.0': 0.9995800285741802, '116.0': 0.9996007619033322, '117.0': 0.9996204717901651, '118.0': 0.9996392087415448, '119.0': 0.9996570207730258, '120.0': 0.9996739535316226}</t>
+          <t>{'0.0': 0.8646159625667071, '1.0': 0.8620273254378237, '2.0': 0.8593919332447293, '3.0': 0.8567090539589379, '4.0': 0.8539779488795459, '5.0': 0.851197872801867, '6.0': 0.8483680742003248, '7.0': 0.8454877954262512, '8.0': 0.842556272921253, '9.0': 0.839572737446838, '10.0': 0.8365364143310143, '11.0': 0.8334465237325962, '12.0': 0.8303022809239851, '13.0': 0.8271028965932044, '14.0': 0.8238475771660096, '15.0': 0.8205355251489063, '16.0': 0.8171659394939454, '17.0': 0.8137380159861912, '18.0': 0.8102509476547797, '19.0': 0.80670392520852, '20.0': 0.8030961374970172, '21.0': 0.7994267719983253, '22.0': 0.7956950153341671, '23.0': 0.7919000538137906, '24.0': 0.7880410740075598, '25.0': 0.7841172633514092, '26.0': 0.7801278107833234, '27.0': 0.7760719074130327, '28.0': 0.771948747226149, '29.0': 0.7677575278239971, '30.0': 0.7634974512004267, '31.0': 0.7591677245569264, '32.0': 0.7547675611573879, '33.0': 0.7502961812239028, '34.0': 0.7457528128750058, '35.0': 0.7411366931078075, '36.0': 0.7364470688254933, '37.0': 0.7316831979116913, '38.0': 0.7268443503532459, '39.0': 0.7219298094129578, '40.0': 0.7169388728538845, '41.0': 0.7118708542168153, '42.0': 0.706725084152568, '43.0': 0.7015009118107722, '44.0': 0.696197706286831, '45.0': 0.6908148581287715, '46.0': 0.6853517809057145, '47.0': 0.679807912839712, '48.0': 0.6741827185027118, '49.0': 0.6684756905804251, '50.0': 0.6626863517048773, '51.0': 0.6568142563574321, '52.0': 0.6508589928440788, '53.0': 0.6448201853447707, '54.0': 0.6386974960385994, '55.0': 0.6324906273065767, '56.0': 0.6261993240137831, '57.0': 0.6198233758726195, '58.0': 0.6133626198888733, '59.0': 0.6068169428922788, '60.0': 0.6001862841532118, '61.0': 0.5934706380871115, '62.0': 0.5866700570481699, '63.0': 0.5797846542137682, '64.0': 0.5728146065610649, '65.0': 0.565760157937064, '66.0': 0.5586216222233993, '67.0': 0.5513993865969682, '68.0': 0.5440939148874391, '69.0': 0.536705751032527, '70.0': 0.5292355226317994, '71.0': 0.5216839445996151, '72.0': 0.5140518229176392, '73.0': 0.5063400584871909, '74.0': 0.49854965108148264, '75.0': 0.49068170339759365, '76.0': 0.4827374252077841, '77.0': 0.4747181376095046, '78.0': 0.46662527737317694, '79.0': 0.4584604013865275, '80.0': 0.45022519119393506, '81.0': 0.4419214576289081, '82.0': 0.43355114553744056, '83.0': 0.4251163385895964, '84.0': 0.4166192641762508, '85.0': 0.40806229838746244, '86.0': 0.3994479710684648, '87.0': 0.39077897094875624, '88.0': 0.3820581508392057, '89.0': 0.37328853289152253, '90.0': 0.36447331391380583, '91.0': 0.35561587073523554, '92.0': 0.3467197656122706, '93.0': 0.3377887516679789, '94.0': 0.32882677835534335, '95.0': 0.3198379969345647, '96.0': 0.3108267659535122, '97.0': 0.30179765671955794, '98.0': 0.292755458750062, '99.0': 0.28370518518777205, '100.0': 0.274652078166326, '101.0': 0.265601614109938, '102.0': 0.2565595089501818, '103.0': 0.24753172324155548, '104.0': 0.2385244671562433, '105.0': 0.22954420533715464, '106.0': 0.22059766158693572, '107.0': 0.21169182336920161, '108.0': 0.20283394609674227, '109.0': 0.19403155717989556, '110.0': 0.18529245980667086, '111.0': 0.17662473642454257, '112.0': 0.16803675189210476, '113.0': 0.15953715626701614, '114.0': 0.15113488719482793, '115.0': 0.1428391718614263, '116.0': 0.13465952846989365, '117.0': 0.12660576720063704, '118.0': 0.11868799061163088, '119.0': 0.11091659343358728, '120.0': 0.10330226171280676}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.4464753135129448, '1.0': 0.44530777115866504, '2.0': 0.44411769167622395, '3.0': 0.4429031672881413, '4.0': 0.441661759315948, '5.0': 0.44039040875870517, '6.0': 0.4390853371237581, '7.0': 0.4377419368491756, '8.0': 0.43635465065674617, '9.0': 0.4349168391992422, '10.0': 0.4334206364331875, '11.0': 0.4318567922838521, '12.0': 0.43021450240873715, '13.0': 0.42848122525956156, '14.0': 0.42664248725895026, '15.0': 0.4246816778370168, '16.0': 0.42257983743133143, '17.0': 0.4203154434865579, '18.0': 0.41786420217036413, '19.0': 0.41519885714394844, '20.0': 0.41228903148504203, '21.0': 0.40910112492166995, '22.0': 0.4055982959645955, '23.0': 0.40174056720253803, '24.0': 0.39748510149585325, '25.0': 0.3927867061140671, '26.0': 0.38759862934559386, '27.0': 0.38187371721318875, '28.0': 0.37556599315006234, '29.0': 0.3686327065445245, '30.0': 0.36103686247661415, '31.0': 0.35275019126600415, '32.0': 0.3437564419246065, '33.0': 0.3340547925411418, '34.0': 0.3236630742777983, '35.0': 0.31262042300158766, '36.0': 0.3009889284973364, '37.0': 0.28885387132640195, '38.0': 0.2763222397204991, '39.0': 0.26351940457284373, '40.0': 0.25058407745564126, '41.0': 0.2376619397768468, '42.0': 0.22489855273903428, '43.0': 0.21243228346133977, '44.0': 0.20038797993618487, '45.0': 0.1888719970506885, '46.0': 0.17796895130607085, '47.0': 0.16774031786347876, '48.0': 0.15822473797079098, '49.0': 0.1494397219364638, '50.0': 0.14138433390971752, '51.0': 0.13404242786046708, '52.0': 0.12738605076243464, '53.0': 0.121378713224252, '54.0': 0.1159783248292994, '55.0': 0.11113968246626785, '56.0': 0.10681647395979232, '57.0': 0.10296281230253126, '58.0': 0.09953434862784957, '59.0': 0.09648902833729864, '60.0': 0.09378755902785632, '61.0': 0.09139365534300392, '62.0': 0.08927411808971897, '63.0': 0.08739879544605156, '64.0': 0.08574046446989267, '65.0': 0.08427466234404735, '66.0': 0.08297948929036386, '67.0': 0.0818353989681789, '68.0': 0.08082498736504598, '69.0': 0.07993278752456875, '70.0': 0.07914507474000618, '71.0': 0.07844968487986151, '72.0': 0.07783584713088973, '73.0': 0.0772940315008373, '74.0': 0.07681581080209024, '75.0': 0.0763937364483446, '76.0': 0.07602122717113799, '77.0': 0.07569246965092269, '78.0': 0.0754023300212926, '79.0': 0.0751462752184619, '80.0': 0.07492030319239157, '81.0': 0.07472088105804617, '82.0': 0.07454489033631603, '83.0': 0.07438957850824487, '84.0': 0.07425251617957893, '85.0': 0.07413155922296544, '86.0': 0.0740248153310194, '87.0': 0.0739306144742905, '88.0': 0.07384748281365497, '89.0': 0.07377411966688432, '90.0': 0.07370937717433829, '91.0': 0.0736522423491856, '92.0': 0.07360182123368217, '93.0': 0.07355732491517164, '94.0': 0.07351805718403517, '95.0': 0.07348340364114386, '96.0': 0.07345282208480378, '97.0': 0.07342583402704603, '98.0': 0.07340201720668221, '99.0': 0.07338099898207309, '100.0': 0.07336245050028173, '101.0': 0.07334608155140457, '102.0': 0.0733316360275782, '103.0': 0.07331888791561117, '104.0': 0.07330763776053945, '105.0': 0.07329770954476045, '106.0': 0.07328894793391638, '107.0': 0.07328121584642022, '108.0': 0.07327439230859631, '109.0': 0.07326837056186855, '110.0': 0.07326305639237507, '111.0': 0.0732583666568731, '112.0': 0.0732542279818652, '113.0': 0.07325057561558987, '114.0': 0.07324735241491517, '115.0': 0.07324450795128018, '116.0': 0.0732419977216956, '117.0': 0.07323978245245763, '118.0': 0.0732378274846816, '119.0': 0.07323610223203711, '120.0': 0.07323457970220498}</t>
+          <t>{'0.0': 0.48952175173169066, '1.0': 0.49006026881259235, '2.0': 0.49057603597177346, '3.0': 0.49106923557199633, '4.0': 0.4915401495452102, '5.0': 0.4919891484843103, '6.0': 0.49241668074589906, '7.0': 0.49282326174028324, '8.0': 0.49320946355916706, '9.0': 0.4935759050653027, '10.0': 0.49392324254264863, '11.0': 0.49425216098108515, '12.0': 0.4945633660470051, '13.0': 0.49485757677054465, '14.0': 0.4951355189620935, '15.0': 0.4953979193551523, '16.0': 0.49564550045959044, '17.0': 0.49587897609883236, '18.0': 0.4960990475963113, '19.0': 0.49630640057048037, '20.0': 0.4965017022935383, '21.0': 0.49668559956656566, '22.0': 0.49685871706272666, '23.0': 0.49702165609033755, '24.0': 0.4971749937286981, '25.0': 0.4973192822914255, '26.0': 0.49745504907442917, '27.0': 0.4975827963484515, '28.0': 0.4977030015591435, '29.0': 0.4978161177008129, '30.0': 0.49792257383318717, '31.0': 0.4980227757137018, '32.0': 0.49811710652087815, '33.0': 0.4982059276472758, '34.0': 0.4982895795432353, '35.0': 0.49836838259516847, '36.0': 0.49844263802448197, '37.0': 0.49851262879533564, '38.0': 0.49857862052134494, '39.0': 0.4986408623630394, '40.0': 0.4986995879093957, '41.0': 0.4987550160380898, '42.0': 0.49880735175027113, '43.0': 0.49885678697665803, '44.0': 0.49890350135261585, '45.0': 0.4989476629606113, '46.0': 0.49898942903905086, '47.0': 0.49902894665703057, '48.0': 0.4990663533549522, '49.0': 0.4991017777513057, '50.0': 0.49913534011620597, '51.0': 0.49916715291248837, '52.0': 0.4991973213053429, '53.0': 0.499225943641597, '54.0': 0.4992531118998479, '55.0': 0.4992789121127107, '56.0': 0.49930342476248213, '57.0': 0.49932672515154164, '58.0': 0.49934888374880426, '59.0': 0.49936996651353194, '60.0': 0.4993900351977776, '61.0': 0.4994091476287096, '62.0': 0.4994273579720172, '63.0': 0.49944471697755677, '64.0': 0.4994612722083478, '65.0': 0.49947706825397864, '66.0': 0.4994921469294288, '67.0': 0.49950654746026313, '68.0': 0.4995203066551023, '69.0': 0.49953345906621993, '70.0': 0.4995460371390721, '71.0': 0.49955807135151065, '72.0': 0.4995695903433911, '73.0': 0.4995806210372361, '74.0': 0.4995911887505762, '75.0': 0.4996013173005487, '76.0': 0.4996110291012946, '77.0': 0.49962034525466037, '78.0': 0.49962928563467524, '79.0': 0.4996378689662422, '80.0': 0.4996461128984505, '81.0': 0.49965403407289233, '82.0': 0.4996616481873324, '83.0': 0.4996689700550627, '84.0': 0.4996760136602455, '85.0': 0.4996827922095277, '86.0': 0.4996893181801908, '87.0': 0.4996956033650791, '88.0': 0.49970165891453455, '89.0': 0.49970749537554704, '90.0': 0.49971312272831603, '91.0': 0.4997185504204045, '92.0': 0.49972378739865375, '93.0': 0.4997288421390139, '94.0': 0.49973372267443583, '95.0': 0.4997384366209583, '96.0': 0.4997429912021142, '97.0': 0.49974739327177364, '98.0': 0.4997516493355282, '99.0': 0.4997557655707182, '100.0': 0.49975974784519483, '101.0': 0.4997636017349021, '102.0': 0.49976733254036, '103.0': 0.49977094530212096, '104.0': 0.49977444481527067, '105.0': 0.4997778356430339, '106.0': 0.49978112212954895, '107.0': 0.49978430841186205, '108.0': 0.499787398431195, '109.0': 0.49979039594353414, '110.0': 0.49979330452958304, '111.0': 0.49979612760412306, '112.0': 0.49979886842481736, '113.0': 0.4998015301004962, '114.0': 0.4998041155989559, '115.0': 0.49980662775430296, '116.0': 0.4998090692738719, '117.0': 0.499811442744744, '118.0': 0.49981375063989153, '119.0': 0.4998159953239727, '120.0': 0.4998181790587961}</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>{'0.0': 5434.999778979444, '1.0': 5299.124784504958, '2.0': 5166.646664892334, '3.0': 5037.480498270026, '4.0': 4911.543485813275, '5.0': 4788.754898667943, '6.0': 4669.036026201245, '7.0': 4552.310125546213, '8.0': 4438.502372407558, '9.0': 4327.539813097369, '10.0': 4219.351317769935, '11.0': 4113.867534825687, '12.0': 4011.0208464550446, '13.0': 3910.7453252936684, '14.0': 3812.9766921613264, '15.0': 3717.6522748572934, '16.0': 3624.710967985861, '17.0': 3534.0931937862147, '18.0': 3445.740863941559, '19.0': 3359.5973423430205, '20.0': 3275.6074087844445, '21.0': 3193.7172235648336, '22.0': 3113.8742929757127, '23.0': 3036.02743565132, '24.0': 2960.1267497600365, '25.0': 2886.123581016036, '26.0': 2813.9704914906347, '27.0': 2743.621229203369, '28.0': 2675.0306984732847, '29.0': 2608.1549310114524, '30.0': 2542.951057736166, '31.0': 2479.377281292762, '32.0': 2417.3928492604427, '33.0': 2356.9580280289315, '34.0': 2298.0340773282082, '35.0': 2240.583225395003, '36.0': 2184.568644760128, '37.0': 2129.9544286411247, '38.0': 2076.7055679250966, '39.0': 2024.787928726969, '40.0': 1974.1682305087947, '41.0': 1924.8140247460751, '42.0': 1876.6936741274233, '43.0': 1829.7763322742376, '44.0': 1784.0319239673818, '45.0': 1739.4311258681971, '46.0': 1695.945347721492, '47.0': 1653.546714028455, '48.0': 1612.2080461777437, '49.0': 1571.9028450233, '50.0': 1532.6052738977176, '51.0': 1494.2901420502747, '52.0': 1456.9328884990177, '53.0': 1420.5095662865424, '54.0': 1384.9968271293787, '55.0': 1350.3719064511442, '56.0': 1316.6126087898656, '57.0': 1283.697293570119, '58.0': 1251.604861230866, '59.0': 1220.3147397000944, '60.0': 1189.806871207592, '61.0': 1160.0616994274021, '62.0': 1131.0601569417172, '63.0': 1102.7836530181742, '64.0': 1075.2140616927197, '65.0': 1048.3337101504019, '66.0': 1022.1253673966418, '67.0': 996.5722332117257, '68.0': 971.6579273814325, '69.0': 947.3664791968966, '70.0': 923.6823172169742, '71.0': 900.5902592865498, '72.0': 878.0755028043859, '73.0': 856.1236152342763, '74.0': 834.7205248534194, '75.0': 813.8525117320839, '76.0': 793.5061989387818, '77.0': 773.6685439653123, '78.0': 754.3268303661795, '79.0': 735.4686596070251, '80.0': 717.0819431168494, '81.0': 699.1548945389281, '82.0': 681.6760221754549, '83.0': 664.6341216210685, '84.0': 648.0182685805419, '85.0': 631.8178118660284, '86.0': 616.0223665693776, '87.0': 600.6218074051432, '88.0': 585.6062622200146, '89.0': 570.9661056645142, '90.0': 556.6919530229014, '91.0': 542.7746541973288, '92.0': 529.2052878423956, '93.0': 515.9751556463357, '94.0': 503.07577675517734, '95.0': 490.4988823362979, '96.0': 478.23641027789046, '97.0': 466.2805000209432, '98.0': 454.62348752041953, '99.0': 443.257900332409, '100.0': 432.17645282409876, '101.0': 421.3720415034963, '102.0': 410.8377404659089, '103.0': 400.5667969542612, '104.0': 390.55262703040466, '105.0': 380.7888113546445, '106.0': 371.26909107077836, '107.0': 361.9873637940089, '108.0': 352.9376796991587, '109.0': 344.1142377066797, '110.0': 335.51138176401275, '111.0': 327.1235972199124, '112.0': 318.94550728941465, '113.0': 310.9718696071793, '114.0': 303.1975728669998, '115.0': 295.6176335453248, '116.0': 288.22719270669165, '117.0': 281.02151288902434, '118.0': 273.99597506679874, '119.0': 267.1460756901287, '120.0': 260.46742379787554}</t>
+          <t>{'0.0': -2173.9999115917776, '1.0': -2195.739910707696, '2.0': -2217.6973098147723, '3.0': -2239.87428291292, '4.0': -2262.2730257420494, '5.0': -2284.89575599947, '6.0': -2307.744713559465, '7.0': -2330.822160695059, '8.0': -2354.13038230201, '9.0': -2377.67168612503, '10.0': -2401.44840298628, '11.0': -2425.462887016143, '12.0': -2449.7175158863047, '13.0': -2474.2146910451675, '14.0': -2498.9568379556194, '15.0': -2523.9464063351757, '16.0': -2549.185870398527, '17.0': -2574.677729102513, '18.0': -2600.4245063935377, '19.0': -2626.4287514574735, '20.0': -2652.6930389720483, '21.0': -2679.2199693617686, '22.0': -2706.0121690553865, '23.0': -2733.0722907459403, '24.0': -2760.4030136533997, '25.0': -2788.0070437899335, '26.0': -2815.887114227833, '27.0': -2844.0459853701113, '28.0': -2872.4864452238126, '29.0': -2901.2113096760504, '30.0': -2930.223422772811, '31.0': -2959.5256570005395, '32.0': -2989.120913570545, '33.0': -3019.0121227062505, '34.0': -3049.202243933313, '35.0': -3079.694266372647, '36.0': -3110.491209036373, '37.0': -3141.596121126737, '38.0': -3173.0120823380043, '39.0': -3204.742203161384, '40.0': -3236.7896251929983, '41.0': -3269.157521444928, '42.0': -3301.8490966593777, '43.0': -3334.8675876259717, '44.0': -3368.2162635022314, '45.0': -3401.898426137254, '46.0': -3435.917410398627, '47.0': -3470.276584502613, '48.0': -3504.979350347639, '49.0': -3540.0291438511154, '50.0': -3575.429435289627, '51.0': -3611.1837296425233, '52.0': -3647.2955669389485, '53.0': -3683.7685226083377, '54.0': -3720.606207834421, '55.0': -3757.8122699127657, '56.0': -3795.390392611893, '57.0': -3833.3442965380123, '58.0': -3871.6777395033923, '59.0': -3910.3945168984264, '60.0': -3949.498462067411, '61.0': -3988.9934466880845, '62.0': -4028.8833811549657, '63.0': -4069.172214966515, '64.0': -4109.863937116181, '65.0': -4150.962576487342, '66.0': -4192.4722022522155, '67.0': -4234.396924274737, '68.0': -4276.740893517484, '69.0': -4319.508302452659, '70.0': -4362.703385477186, '71.0': -4406.330419331958, '72.0': -4450.393723525278, '73.0': -4494.897660760531, '74.0': -4539.846637368137, '75.0': -4585.245103741818, '76.0': -4631.097554779236, '77.0': -4677.4085303270285, '78.0': -4724.182615630299, '79.0': -4771.424441786602, '80.0': -4819.138686204467, '81.0': -4867.330073066512, '82.0': -4916.003373797177, '83.0': -4965.163407535149, '84.0': -5014.815041610501, '85.0': -5064.963192026606, '86.0': -5115.612823946872, '87.0': -5166.76895218634, '88.0': -5218.436641708204, '89.0': -5270.621008125287, '90.0': -5323.327218206539, '91.0': -5376.560490388604, '92.0': -5430.32609529249, '93.0': -5484.629356245415, '94.0': -5539.475649807869, '95.0': -5594.870406305948, '96.0': -5650.819110369007, '97.0': -5707.3273014726965, '98.0': -5764.400574487423, '99.0': -5822.044580232297, '100.0': -5880.265026034621, '101.0': -5939.067676294968, '102.0': -5998.4583530579175, '103.0': -6058.442936588497, '104.0': -6119.027365954382, '105.0': -6180.217639613926, '106.0': -6242.0198160100645, '107.0': -6304.440014170165, '108.0': -6367.484414311866, '109.0': -6431.159258454984, '110.0': -6495.470851039535, '111.0': -6560.42555954993, '112.0': -6626.02981514543, '113.0': -6692.290113296884, '114.0': -6759.213014429852, '115.0': -6826.805144574151, '116.0': -6895.073196019893, '117.0': -6964.023927980091, '118.0': -7033.664167259893, '119.0': -7104.000808932491, '120.0': -7175.040817021816}</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.23987774583108087, '1.0': 0.23388080218530383, '2.0': 0.22803378213067121, '3.0': 0.22233293757740444, '4.0': 0.21677461413796933, '5.0': 0.21135524878452008, '6.0': 0.2060713675649071, '7.0': 0.20091958337578444, '8.0': 0.19589659379138982, '9.0': 0.1909991789466051, '10.0': 0.18622419947293997, '11.0': 0.18156859448611648, '12.0': 0.17702937962396356, '13.0': 0.17260364513336446, '14.0': 0.16828855400503037, '15.0': 0.1640813401549046, '16.0': 0.159979306651032, '17.0': 0.15597982398475618, '18.0': 0.15208032838513727, '19.0': 0.14827832017550885, '20.0': 0.1445713621711211, '21.0': 0.14095707811684308, '22.0': 0.137433151163922, '23.0': 0.13399732238482392, '24.0': 0.13064738932520334, '25.0': 0.12738120459207328, '26.0': 0.12419667447727141, '27.0': 0.12109175761533963, '28.0': 0.11806446367495613, '29.0': 0.11511285208308221, '30.0': 0.11223503078100515, '31.0': 0.10942915501148003, '32.0': 0.10669342613619301, '33.0': 0.10402609048278819, '34.0': 0.10142543822071848, '35.0': 0.09888980226520051, '36.0': 0.09641755720857051, '37.0': 0.09400711827835623, '38.0': 0.09165694032139732, '39.0': 0.0893655168133624, '40.0': 0.08713137889302833, '41.0': 0.08495309442070262, '42.0': 0.08282926706018506, '43.0': 0.08075853538368044, '44.0': 0.07873957199908842, '45.0': 0.0767710826991112, '46.0': 0.07485180563163342, '47.0': 0.0729805104908426, '48.0': 0.07115599772857154, '49.0': 0.06937709778535725, '50.0': 0.06764267034072331, '51.0': 0.06595160358220523, '52.0': 0.06430281349265009, '53.0': 0.06269524315533385, '54.0': 0.0611278620764505, '55.0': 0.059599665524539235, '56.0': 0.05810967388642575, '57.0': 0.056656932039265105, '58.0': 0.05524050873828348, '59.0': 0.05385949601982639, '60.0': 0.05251300861933074, '61.0': 0.05120018340384747, '62.0': 0.049920178818751285, '63.0': 0.04867217434828249, '64.0': 0.04745536998957543, '65.0': 0.04626898573983605, '66.0': 0.045112261096340145, '67.0': 0.04398445456893164, '68.0': 0.042884843204708346, '69.0': 0.04181272212459063, '70.0': 0.04076740407147587, '71.0': 0.03974821896968897, '72.0': 0.03875451349544674, '73.0': 0.03778565065806057, '74.0': 0.03684100939160906, '75.0': 0.035919984156818824, '76.0': 0.03502198455289836, '77.0': 0.0341464349390759, '78.0': 0.033292774065599, '79.0': 0.032460454713959024, '80.0': 0.03164894334611005, '81.0': 0.0308577197624573, '82.0': 0.030086276768395866, '83.0': 0.02933411984918597, '84.0': 0.02860076685295632, '85.0': 0.027885747681632413, '86.0': 0.027188603989591602, '87.0': 0.02650888888985181, '88.0': 0.025846166667605516, '89.0': 0.02520001250091538, '90.0': 0.024570012188392495, '91.0': 0.02395576188368268, '92.0': 0.02335686783659062, '93.0': 0.022772946140675848, '94.0': 0.022203622487158955, '95.0': 0.02164853192497998, '96.0': 0.02110731862685548, '97.0': 0.020579635661184092, '98.0': 0.02006514476965449, '99.0': 0.019563516150413126, '100.0': 0.019074428246652796, '101.0': 0.01859756754048647, '102.0': 0.018132628351974312, '103.0': 0.017679312643174953, '104.0': 0.01723732982709558, '105.0': 0.01680639658141819, '106.0': 0.016386236666882735, '107.0': 0.015976580750210665, '108.0': 0.015577166231455398, '109.0': 0.015187737075669014, '110.0': 0.01480804364877729, '111.0': 0.014437842557557859, '112.0': 0.014076896493618913, '113.0': 0.013724974081278441, '114.0': 0.013381849729246479, '115.0': 0.013047303486015314, '116.0': 0.012721120898864933, '117.0': 0.01240309287639331, '118.0': 0.012093015554483473, '119.0': 0.01179069016562139, '120.0': 0.011495922911480853}</t>
+          <t>{'0.0': 0.23987774583108087, '1.0': 0.24227652328939167, '2.0': 0.2446992885222856, '3.0': 0.24714628140750844, '4.0': 0.24961774422158353, '5.0': 0.25211392166379937, '6.0': 0.25463506088043736, '7.0': 0.2571814114892418, '8.0': 0.25975322560413416, '9.0': 0.26235075786017553, '10.0': 0.2649742654387772, '11.0': 0.267624008093165, '12.0': 0.27030024817409665, '13.0': 0.27300325065583764, '14.0': 0.27573328316239604, '15.0': 0.27849061599402, '16.0': 0.2812755221539602, '17.0': 0.2840882773754998, '18.0': 0.2869291601492548, '19.0': 0.28979845175074737, '20.0': 0.2926964362682548, '21.0': 0.29562340063093734, '22.0': 0.29857963463724674, '23.0': 0.30156543098361926, '24.0': 0.3045810852934554, '25.0': 0.30762689614639, '26.0': 0.3107031651078539, '27.0': 0.3138101967589324, '28.0': 0.31694829872652175, '29.0': 0.32011778171378696, '30.0': 0.3233189595309248, '31.0': 0.3265521491262341, '32.0': 0.32981767061749645, '33.0': 0.3331158473236714, '34.0': 0.3364470057969081, '35.0': 0.33981147585487725, '36.0': 0.343209590613426, '37.0': 0.34664168651956023, '38.0': 0.35010810338475584, '39.0': 0.3536091844186034, '40.0': 0.35714527626278947, '41.0': 0.36071672902541735, '42.0': 0.3643238963156715, '43.0': 0.3679671352788283, '44.0': 0.3716468066316166, '45.0': 0.37536327469793274, '46.0': 0.3791169074449121, '47.0': 0.3829080765193612, '48.0': 0.3867371572845548, '49.0': 0.3906045288574004, '50.0': 0.3945105741459744, '51.0': 0.39845567988743413, '52.0': 0.4024402366863085, '53.0': 0.4064646390531716, '54.0': 0.41052928544370326, '55.0': 0.4146345782981403, '56.0': 0.4187809240811217, '57.0': 0.42296873332193297, '58.0': 0.4271984206551523, '59.0': 0.4314704048617038, '60.0': 0.43578510891032085, '61.0': 0.44014295999942404, '62.0': 0.44454438959941833, '63.0': 0.4489898334954125, '64.0': 0.4534797318303666, '65.0': 0.4580145291486703, '66.0': 0.46259467444015695, '67.0': 0.46722062118455854, '68.0': 0.4718928273964041, '69.0': 0.4766117556703682, '70.0': 0.4813778732270719, '71.0': 0.4861916519593426, '72.0': 0.491053568478936, '73.0': 0.4959641041637254, '74.0': 0.5009237452053626, '75.0': 0.5059329826574163, '76.0': 0.5109923124839905, '77.0': 0.5161022356088304, '78.0': 0.5212632579649187, '79.0': 0.5264758905445679, '80.0': 0.5317406494500135, '81.0': 0.5370580559445136, '82.0': 0.5424286365039588, '83.0': 0.5478529228689983, '84.0': 0.5533314520976884, '85.0': 0.5588647666186652, '86.0': 0.564453414284852, '87.0': 0.5700979484277005, '88.0': 0.5757989279119774, '89.0': 0.5815569171910973, '90.0': 0.5873724863630082, '91.0': 0.5932462112266382, '92.0': 0.5991786733389046, '93.0': 0.6051704600722937, '94.0': 0.6112221646730166, '95.0': 0.6173343863197467, '96.0': 0.6235077301829443, '97.0': 0.6297428074847736, '98.0': 0.6360402355596214, '99.0': 0.6424006379152176, '100.0': 0.6488246442943697, '101.0': 0.6553128907373135, '102.0': 0.6618660196446866, '103.0': 0.6684846798411336, '104.0': 0.6751695266395449, '105.0': 0.6819212219059403, '106.0': 0.6887404341249996, '107.0': 0.6956278384662496, '108.0': 0.7025841168509122, '109.0': 0.7096099580194212, '110.0': 0.7167060575996155, '111.0': 0.7238731181756116, '112.0': 0.7311118493573677, '113.0': 0.7384229678509414, '114.0': 0.7458071975294508, '115.0': 0.7532652695047453, '116.0': 0.7607979221997928, '117.0': 0.7684059014217907, '118.0': 0.7760899604360085, '119.0': 0.7838508600403687, '120.0': 0.7916893686407723}</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>{'0.0': 8.216653212000354, '1.0': 8.211490421850522, '2.0': 8.20611290473319, '3.0': 8.200505530519509, '4.0': 8.19464971224052, '5.0': 8.1885226713926, '6.0': 8.182096572917123, '7.0': 8.175337509999617, '8.0': 8.168204314359302, '9.0': 8.160647162264798, '10.0': 8.152605939920791, '11.0': 8.144008323955084, '12.0': 8.134767523384886, '13.0': 8.124779618655017, '14.0': 8.113920421316584, '15.0': 8.102041765178475, '16.0': 8.088967127368383, '17.0': 8.074486467549733, '18.0': 8.058350168631273, '19.0': 8.04026196749754, '20.0': 8.01987078681352, '21.0': 7.996761429222384, '22.0': 7.9704441875564, '23.0': 7.940343577576502, '24.0': 7.905786635542871, '25.0': 7.865991565308164, '26.0': 7.820057988302877, '27.0': 7.766960650293778, '28.0': 7.705549146407389, '29.0': 7.63455696351351, '30.0': 7.5526237524974595, '31.0': 7.458334982948984, '32.0': 7.35028266038793, '33.0': 7.2271492244084, '34.0': 7.087813798766404, '35.0': 6.931475601441825, '36.0': 6.757783989794294, '37.0': 6.566959367757206, '38.0': 6.359885602544863, '39.0': 6.138154407087133, '40.0': 5.904046526157465, '41.0': 5.660443464848913, '42.0': 5.410675271617227, '43.0': 5.158321609281707, '44.0': 4.90699178574363, '45.0': 4.660112264772178, '46.0': 4.420746927876407, '47.0': 4.191467389630142, '48.0': 3.9742805552914273, '49.0': 3.7706110659164622, '50.0': 3.5813292640397916, '51.0': 3.4068116405016657, '52.0': 3.2470201534874117, '53.0': 3.1015884724433813, '54.0': 2.9699060401017388, '55.0': 2.8511939617842423, '56.0': 2.7445695185261307, '57.0': 2.649098262105413, '58.0': 2.5638341232851967, '59.0': 2.487848828502033, '60.0': 2.4202523154159845, '61.0': 2.3602059123589023, '62.0': 2.3069299278325333, '63.0': 2.2597070793809806, '64.0': 2.217882940981917, '65.0': 2.1808643437366535, '66.0': 2.1481164467014073, '67.0': 2.1191590114991796, '68.0': 2.093562266773914, '69.0': 2.070942633534137, '70.0': 2.0509584952025737, '71.0': 2.0333061315859413, '72.0': 2.0177158891861935, '73.0': 2.0039486271281706, '74.0': 1.9917924550624642, '75.0': 1.981059764010306, '76.0': 1.9715845411640245, '77.0': 1.9632199535675727, '78.0': 1.9558361822100256, '79.0': 1.9493184865181317, '80.0': 1.9435654789182053, '81.0': 1.9384875896154075, '82.0': 1.9340057027049928, '83.0': 1.930049945972127, '84.0': 1.9265586181123922, '85.0': 1.923477238517125, '86.0': 1.920757706156113, '87.0': 1.9183575554161576, '88.0': 1.9162392979962908, '89.0': 1.9143698411080334, '90.0': 1.9127199732788098, '91.0': 1.9112639100092543, '92.0': 1.9099788923945755, '93.0': 1.9088448325927547, '94.0': 1.9078440007136883, '95.0': 1.9069607483208066, '96.0': 1.9061812642870348, '97.0': 1.9054933592359813, '98.0': 1.904886275234377, '99.0': 1.9043505177871303, '100.0': 1.9038777075284055, '101.0': 1.9034604493050502, '102.0': 1.903092216616807, '103.0': 1.9027672496148504, '104.0': 1.9024804650704317, '105.0': 1.9022273769104137, '106.0': 1.9020040260810258, '107.0': 1.9018069186457083, '108.0': 1.9016329711511697, '109.0': 1.9014794624089193, '110.0': 1.9013439909392993, '111.0': 1.9012244374134653, '112.0': 1.9011189315065868, '113.0': 1.9010258226443868, '114.0': 1.9009436541858722, '115.0': 1.9008711406387515, '116.0': 1.9008071475513753, '117.0': 1.9007506737669573, '118.0': 1.9007008357625061, '119.0': 1.9006568538275366, '120.0': 1.9006180398661419}</t>
+          <t>{'0.0': 8.329717159351832, '1.0': 8.330170241526025, '2.0': 8.330581879157721, '3.0': 8.330955089803703, '4.0': 8.331292804551781, '5.0': 8.33159784582886, '6.0': 8.331872910148672, '7.0': 8.33212055539646, '8.0': 8.332343192192097, '9.0': 8.33254307884256, '10.0': 8.332722319385464, '11.0': 8.332882864234103, '12.0': 8.33302651295649, '13.0': 8.333154918753388, '14.0': 8.333269594239033, '15.0': 8.333371918171055, '16.0': 8.333463142820058, '17.0': 8.33354440171249, '18.0': 8.333616717521702, '19.0': 8.333681009919768, '20.0': 8.333738103236483, '21.0': 8.333788733800935, '22.0': 8.333833556865379, '23.0': 8.333873153030115, '24.0': 8.333908034101858, '25.0': 8.333938648326429, '26.0': 8.333965384939072, '27.0': 8.333988577972066, '28.0': 8.334008509248497, '29.0': 8.334025410472172, '30.0': 8.3340394642947, '31.0': 8.334050804199261, '32.0': 8.334059512982886, '33.0': 8.334065619539933, '34.0': 8.334069093541748, '35.0': 8.334069837461056, '36.0': 8.334067675190578, '37.0': 8.334062336234028, '38.0': 8.334053434077083, '39.0': 8.334040436838267, '40.0': 8.33402262760245, '41.0': 8.333999050879356, '42.0': 8.33396844030435, '43.0': 8.33392912086579, '44.0': 8.333878876404818, '45.0': 8.33381476961314, '46.0': 8.333732896870073, '47.0': 8.333628053482713, '48.0': 8.333493275495078, '49.0': 8.333319211218887, '50.0': 8.33309325766301, '51.0': 8.332798372295594, '52.0': 8.332411436682245, '53.0': 8.331901002430415, '54.0': 8.33122418767472, '55.0': 8.3303224094141, '56.0': 8.32911552811803, '57.0': 8.32749384088146, '58.0': 8.32530718394239, '59.0': 8.322350193995172, '60.0': 8.318342537345398, '61.0': 8.312902667403138, '62.0': 8.30551345876041, '63.0': 8.295477971628292, '64.0': 8.281863758845159, '65.0': 8.263434744780975, '66.0': 8.238571067888826, '67.0': 8.205179743198281, '68.0': 8.160602939743336, '69.0': 8.101536336958285, '70.0': 8.023977324529541, '71.0': 7.923230931654643, '72.0': 7.794008376799474, '73.0': 7.630655662677184, '74.0': 7.427543112597519, '75.0': 7.179626440081008, '76.0': 6.883153381263622, '77.0': 6.536440122529812, '78.0': 6.140589999468905, '79.0': 5.69999245432178, '80.0': 5.2224445415008995, '81.0': 4.718793494212394, '82.0': 4.202100796337801, '83.0': 3.686446922214961, '84.0': 3.1855894120878756, '85.0': 2.7117198091095793, '86.0': 2.2745265525630867, '87.0': 1.8806801357803808, '88.0': 1.533750666192901, '89.0': 1.2344820357052357, '90.0': 0.9813007865174853, '91.0': 0.7709318082710649, '92.0': 0.5990148989250971, '93.0': 0.46065032077503226, '94.0': 0.35083547646570806, '95.0': 0.2647819847751365, '96.0': 0.1981207286032176, '97.0': 0.14701263572885032, '98.0': 0.10818692034902916, '99.0': 0.07892828954785842, '100.0': 0.057031946611750706, '101.0': 0.040741431678169404, '102.0': 0.02868034961328475, '103.0': 0.019785410835286538, '104.0': 0.013245237707183105, '105.0': 0.00844714947463592, '106.0': 0.004932586286359979, '107.0': 0.002360854022684594, '108.0': 0.0004803304219150306, '109.0': -0.0008939607079039062, '110.0': -0.0018975358232028838, '111.0': -0.002629447796142123, '112.0': -0.0031620058360126864, '113.0': -0.003547980049627759, '114.0': -0.003825903200063241, '115.0': -0.0040239502695031, '116.0': -0.00416276532213442, '117.0': -0.0042575151760415484, '118.0': -0.0043193785957834855, '119.0': -0.004356625246812069, '120.0': -0.00437539746839388}</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.8655163772332393, '1.0': 0.8671469725754511, '2.0': 0.8686666696999087, '3.0': 0.8700902815075677, '4.0': 0.8714312364071647, '5.0': 0.8727018000984813, '6.0': 0.873913281853221, '7.0': 0.8750762267626051, '8.0': 0.8762005953712348, '9.0': 0.8772959320066792, '10.0': 0.8783715229426327, '11.0': 0.8794365452951475, '12.0': 0.8805002072360436, '13.0': 0.8815718796988886, '14.0': 0.8826612192282068, '15.0': 0.8837782809523542, '16.0': 0.8849336198088792, '17.0': 0.8861383770776633, '18.0': 0.8874043479399641, '19.0': 0.8887440241452174, '20.0': 0.8901706039148656, '21.0': 0.8916979589644357, '22.0': 0.8933405460695628, '23.0': 0.8951132481344374, '24.0': 0.897031127597098, '25.0': 0.8991090737964732, '26.0': 0.9013613264687406, '27.0': 0.9038008609558797, '28.0': 0.9064386283412844, '29.0': 0.9092826569515271, '30.0': 0.9123370415018742, '31.0': 0.9156008726732545, '32.0': 0.9190671913921084, '33.0': 0.9227220843098651, '34.0': 0.926544062793576, '35.0': 0.9305038776072506, '36.0': 0.9345649054067469, '37.0': 0.9386841941905399, '38.0': 0.9428141730789017, '39.0': 0.9469049276948808, '40.0': 0.9509068368429355, '41.0': 0.9547732858597833, '42.0': 0.9584631410898421, '43.0': 0.9619427006403871, '44.0': 0.9651869234642906, '45.0': 0.968179859890132, '46.0': 0.9709143311824597, '47.0': 0.9733910048807198, '48.0': 0.97561706887597, '49.0': 0.9776047172861903, '50.0': 0.9793696342000818, '51.0': 0.9809296126530652, '52.0': 0.9823033914044199, '53.0': 0.9835097429369238, '54.0': 0.9845668089582867, '55.0': 0.9854916561221664, '56.0': 0.9863000131069287, '57.0': 0.9870061475209875, '58.0': 0.9876228440760347, '59.0': 0.9881614513383473, '60.0': 0.9886319711703649, '61.0': 0.9890431714998841, '62.0': 0.9894027086843685, '63.0': 0.9897172502572413, '64.0': 0.9899925922742584, '65.0': 0.9902337679625083, '66.0': 0.9904451460949534, '67.0': 0.9906305186500507, '68.0': 0.9907931780258813, '69.0': 0.9909359844879987, '70.0': 0.9910614247367381, '71.0': 0.9911716625540584, '72.0': 0.9912685824825044, '73.0': 0.9913538274341137, '74.0': 0.9914288310480535, '75.0': 0.9914948455271734, '76.0': 0.991552965594528, '77.0': 0.9916041491264607, '78.0': 0.9916492349417051, '79.0': 0.9916889581572766, '80.0': 0.9917239634617677, '81.0': 0.9917548166046588, '82.0': 0.9917820143556492, '83.0': 0.9918059931500052, '84.0': 0.9918271366036766, '85.0': 0.9918457820546122, '86.0': 0.9918622262636411, '87.0': 0.9918767303887878, '88.0': 0.9918895243304074, '89.0': 0.9919008105306045, '90.0': 0.991910767298592, '91.0': 0.9919195517236431, '92.0': 0.9919273022287817, '93.0': 0.99193414081111, '94.0': 0.9919401750084921, '95.0': 0.9919454996270188, '96.0': 0.9919501982591451, '97.0': 0.9919543446184895, '98.0': 0.9919580037139321, '99.0': 0.9919612328827441, '100.0': 0.9919640826999858, '101.0': 0.9919665977792226, '102.0': 0.9919688174777453, '103.0': 0.9919707765178272, '104.0': 0.9919725055341292, '105.0': 0.9919740315561271, '106.0': 0.9919753784333425, '107.0': 0.991976567210214, '108.0': 0.9919776164566173, '109.0': 0.9919785425593081, '110.0': 0.9919793599788749, '111.0': 0.991980081475814, '112.0': 0.9919807183051962, '113.0': 0.9919812803477172, '114.0': 0.9919817758761873, '115.0': 0.9919822083525123, '116.0': 0.991982547873525, '117.0': 0.9919824851083998, '118.0': 0.9919793180286121, '119.0': 0.991949804219684, '120.0': 0.9916940104999085}</t>
+          <t>{'0.0': 0.8389254486814001, '1.0': 0.8380248662574159, '2.0': 0.8371135938358888, '3.0': 0.8361908085074193, '4.0': 0.8352555708687651, '5.0': 0.8343068260003991, '6.0': 0.8333434046671648, '7.0': 0.8323640246560536, '8.0': 0.8313672921714698, '9.0': 0.8303517032157494, '10.0': 0.8293156448908254, '11.0': 0.8282573965653999, '12.0': 0.8271751308605605, '13.0': 0.8260669144151583, '14.0': 0.8249307084003089, '15.0': 0.8237643687598785, '16.0': 0.8225656461607196, '17.0': 0.8213321856426156, '18.0': 0.8200615259633596, '19.0': 0.8187510986391299, '20.0': 0.8173982266843162, '21.0': 0.8160001230582727, '22.0': 0.8145538888291174, '23.0': 0.8130565110667695, '24.0': 0.811504860478926, '25.0': 0.809895688804746, '26.0': 0.8082256259816604, '27.0': 0.8064911771010596, '28.0': 0.8046887191687198, '29.0': 0.8028144976857607, '30.0': 0.8008646230658449, '31.0': 0.7988350669042837, '32.0': 0.7967216581148796, '33.0': 0.7945200789508436, '34.0': 0.7922258609271676, '35.0': 0.7898343806636063, '36.0': 0.787340855670208, '37.0': 0.7847403401013967, '38.0': 0.782027720510318, '39.0': 0.7791977116429204, '40.0': 0.7762448523215028, '41.0': 0.7731635014807647, '42.0': 0.7699478344363005, '43.0': 0.7665918394866535, '44.0': 0.7630893149761387, '45.0': 0.7594338669773627, '46.0': 0.755618907790406, '47.0': 0.7516376555006302, '48.0': 0.7474831348895408, '49.0': 0.7431481800534813, '50.0': 0.7386254391532111, '51.0': 0.7339073817933808, '52.0': 0.7289863096137973, '53.0': 0.7238543707627599, '54.0': 0.718503579014442, '55.0': 0.7129258383841633, '56.0': 0.7071129741831674, '57.0': 0.7010567715326573, '58.0': 0.6947490224185339, '59.0': 0.6881815824052054, '60.0': 0.6813464381294967, '61.0': 0.6742357866532481, '62.0': 0.6668421276542488, '63.0': 0.6591583692677507, '64.0': 0.6511779481437342, '65.0': 0.6428949639483647, '66.0': 0.6343043281044888, '67.0': 0.6254019260322714, '68.0': 0.6161847915194324, '69.0': 0.6066512911301913, '70.0': 0.596801315770433, '71.0': 0.5866364756905362, '72.0': 0.5761602943631552, '73.0': 0.5653783958668047, '74.0': 0.5542986796910632, '75.0': 0.5429314763149848, '76.0': 0.5312896765581565, '77.0': 0.5193888276224772, '78.0': 0.5072471889828966, '79.0': 0.49488574188379997, '80.0': 0.4823281471720566, '81.0': 0.4696006475412184, '82.0': 0.4567319119402051, '83.0': 0.44375282185193177, '84.0': 0.4306962012843658, '85.0': 0.41759649452806963, '86.0': 0.4044893978955702, '87.0': 0.3914114536388061, '88.0': 0.37839961591680976, '89.0': 0.3654907999484331, '90.0': 0.3527214262519513, '91.0': 0.3401269720960813, '92.0': 0.3277415419544419, '93.0': 0.3155974678955435, '94.0': 0.30372494951636364, '95.0': 0.29215174133203053, '96.0': 0.28090289358007653, '97.0': 0.27000055030814485, '98.0': 0.2594638065115233, '99.0': 0.2493086240840566, '100.0': 0.23954780453750438, '101.0': 0.23019101490208824, '102.0': 0.22124486199068824, '103.0': 0.21271300931134887, '104.0': 0.20459633034444724, '105.0': 0.19689309163955296, '106.0': 0.1895991591957559, '107.0': 0.18270822182178306, '108.0': 0.17621202557809226, '109.0': 0.17010061393205586, '110.0': 0.16436256886254516, '111.0': 0.1589852487911295, '112.0': 0.1539550198603772, '113.0': 0.14925747770008171, '114.0': 0.14487765740190287, '115.0': 0.14080022995106625, '116.0': 0.13700968383522807, '117.0': 0.13349049096476637, '118.0': 0.13022725639808622, '119.0': 0.12720485167457954, '120.0': 0.1244085318222396}</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>{'0.0': -0.215, '1.0': -0.215, '2.0': -0.215, '3.0': -0.215, '4.0': -0.215, '5.0': -0.215, '6.0': -0.215, '7.0': -0.215, '8.0': -0.215, '9.0': -0.215, '10.0': -0.215, '11.0': -0.215, '12.0': -0.215, '13.0': -0.215, '14.0': -0.215, '15.0': -0.215, '16.0': -0.215, '17.0': -0.215, '18.0': -0.215, '19.0': -0.215, '20.0': -0.215, '21.0': -0.215, '22.0': -0.215, '23.0': -0.215, '24.0': -0.215, '25.0': -0.215, '26.0': -0.215, '27.0': -0.215, '28.0': -0.215, '29.0': -0.215, '30.0': -0.215, '31.0': -0.215, '32.0': -0.215, '33.0': -0.215, '34.0': -0.215, '35.0': -0.215, '36.0': -0.215, '37.0': -0.215, '38.0': -0.215, '39.0': -0.215, '40.0': -0.215, '41.0': -0.215, '42.0': -0.215, '43.0': -0.215, '44.0': -0.215, '45.0': -0.215, '46.0': -0.215, '47.0': -0.215, '48.0': -0.215, '49.0': -0.215, '50.0': -0.215, '51.0': -0.215, '52.0': -0.215, '53.0': -0.215, '54.0': -0.215, '55.0': -0.215, '56.0': -0.215, '57.0': -0.215, '58.0': -0.215, '59.0': -0.215, '60.0': -0.215, '61.0': -0.215, '62.0': -0.215, '63.0': -0.215, '64.0': -0.215, '65.0': -0.215, '66.0': -0.215, '67.0': -0.215, '68.0': -0.215, '69.0': -0.215, '70.0': -0.215, '71.0': -0.215, '72.0': -0.215, '73.0': -0.215, '74.0': -0.215, '75.0': -0.215, '76.0': -0.215, '77.0': -0.215, '78.0': -0.215, '79.0': -0.215, '80.0': -0.215, '81.0': -0.215, '82.0': -0.215, '83.0': -0.215, '84.0': -0.215, '85.0': -0.215, '86.0': -0.215, '87.0': -0.215, '88.0': -0.215, '89.0': -0.215, '90.0': -0.215, '91.0': -0.215, '92.0': -0.215, '93.0': -0.215, '94.0': -0.215, '95.0': -0.215, '96.0': -0.215, '97.0': -0.215, '98.0': -0.215, '99.0': -0.215, '100.0': -0.215, '101.0': -0.215, '102.0': -0.215, '103.0': -0.215, '104.0': -0.215, '105.0': -0.215, '106.0': -0.215, '107.0': -0.215, '108.0': -0.215, '109.0': -0.215, '110.0': -0.215, '111.0': -0.215, '112.0': -0.215, '113.0': -0.215, '114.0': -0.215, '115.0': -0.215, '116.0': -0.215, '117.0': -0.215, '118.0': -0.215, '119.0': -0.215, '120.0': -0.215}</t>
+          <t>{'0.0': 0.215, '1.0': 0.215, '2.0': 0.215, '3.0': 0.215, '4.0': 0.215, '5.0': 0.215, '6.0': 0.215, '7.0': 0.215, '8.0': 0.215, '9.0': 0.215, '10.0': 0.215, '11.0': 0.215, '12.0': 0.215, '13.0': 0.215, '14.0': 0.215, '15.0': 0.215, '16.0': 0.215, '17.0': 0.215, '18.0': 0.215, '19.0': 0.215, '20.0': 0.215, '21.0': 0.215, '22.0': 0.215, '23.0': 0.215, '24.0': 0.215, '25.0': 0.215, '26.0': 0.215, '27.0': 0.215, '28.0': 0.215, '29.0': 0.215, '30.0': 0.215, '31.0': 0.215, '32.0': 0.215, '33.0': 0.215, '34.0': 0.215, '35.0': 0.215, '36.0': 0.215, '37.0': 0.215, '38.0': 0.215, '39.0': 0.215, '40.0': 0.215, '41.0': 0.215, '42.0': 0.215, '43.0': 0.215, '44.0': 0.215, '45.0': 0.215, '46.0': 0.215, '47.0': 0.215, '48.0': 0.215, '49.0': 0.215, '50.0': 0.215, '51.0': 0.215, '52.0': 0.215, '53.0': 0.215, '54.0': 0.215, '55.0': 0.215, '56.0': 0.215, '57.0': 0.215, '58.0': 0.215, '59.0': 0.215, '60.0': 0.215, '61.0': 0.215, '62.0': 0.215, '63.0': 0.215, '64.0': 0.215, '65.0': 0.215, '66.0': 0.215, '67.0': 0.215, '68.0': 0.215, '69.0': 0.215, '70.0': 0.215, '71.0': 0.215, '72.0': 0.215, '73.0': 0.215, '74.0': 0.215, '75.0': 0.215, '76.0': 0.215, '77.0': 0.215, '78.0': 0.215, '79.0': 0.215, '80.0': 0.215, '81.0': 0.215, '82.0': 0.215, '83.0': 0.215, '84.0': 0.215, '85.0': 0.215, '86.0': 0.215, '87.0': 0.215, '88.0': 0.215, '89.0': 0.215, '90.0': 0.215, '91.0': 0.215, '92.0': 0.215, '93.0': 0.215, '94.0': 0.215, '95.0': 0.215, '96.0': 0.215, '97.0': 0.215, '98.0': 0.215, '99.0': 0.215, '100.0': 0.215, '101.0': 0.215, '102.0': 0.215, '103.0': 0.215, '104.0': 0.215, '105.0': 0.215, '106.0': 0.215, '107.0': 0.215, '108.0': 0.215, '109.0': 0.215, '110.0': 0.215, '111.0': 0.215, '112.0': 0.215, '113.0': 0.215, '114.0': 0.215, '115.0': 0.215, '116.0': 0.215, '117.0': 0.215, '118.0': 0.215, '119.0': 0.215, '120.0': 0.215}</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1121,27 +1121,27 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>{'0.0': 26.793186902517164, '1.0': 26.578186902517164, '2.0': 26.36318690251716, '3.0': 26.148186902517157, '4.0': 25.933186902517157, '5.0': 25.718186902517154, '6.0': 25.503186902517154, '7.0': 25.28818690251715, '8.0': 25.07318690251715, '9.0': 24.858186902517147, '10.0': 24.643186902517147, '11.0': 24.428186902517144, '12.0': 24.21318690251714, '13.0': 23.99818690251714, '14.0': 23.783186902517137, '15.0': 23.568186902517137, '16.0': 23.353186902517134, '17.0': 23.138186902517134, '18.0': 22.92318690251713, '19.0': 22.708186902517127, '20.0': 22.493186902517127, '21.0': 22.278186902517124, '22.0': 22.063186902517124, '23.0': 21.84818690251712, '24.0': 21.63318690251712, '25.0': 21.418186902517117, '26.0': 21.203186902517114, '27.0': 20.988186902517114, '28.0': 20.77318690251711, '29.0': 20.55818690251711, '30.0': 20.343186902517107, '31.0': 20.128186902517108, '32.0': 19.913186902517104, '33.0': 19.6981869025171, '34.0': 19.4831869025171, '35.0': 19.268186902517098, '36.0': 19.053186902517098, '37.0': 18.838186902517094, '38.0': 18.623186902517094, '39.0': 18.408186902517095, '40.0': 18.193186902517095, '41.0': 17.978186902517095, '42.0': 17.763186902517095, '43.0': 17.548186902517095, '44.0': 17.333186902517095, '45.0': 17.118186902517095, '46.0': 16.903186902517096, '47.0': 16.688186902517096, '48.0': 16.473186902517096, '49.0': 16.258186902517096, '50.0': 16.043186902517093, '51.0': 15.828186902517093, '52.0': 15.613186902517093, '53.0': 15.398186902517093, '54.0': 15.183186902517093, '55.0': 14.968186902517095, '56.0': 14.753186902517095, '57.0': 14.538186902517095, '58.0': 14.323186902517095, '59.0': 14.108186902517096, '60.0': 13.893186902517096, '61.0': 13.678186902517096, '62.0': 13.463186902517096, '63.0': 13.248186902517096, '64.0': 13.033186902517096, '65.0': 12.818186902517096, '66.0': 12.603186902517097, '67.0': 12.388186902517097, '68.0': 12.173186902517097, '69.0': 11.958186902517097, '70.0': 11.743186902517097, '71.0': 11.528186902517097, '72.0': 11.313186902517097, '73.0': 11.098186902517098, '74.0': 10.883186902517098, '75.0': 10.668186902517098, '76.0': 10.453186902517098, '77.0': 10.238186902517098, '78.0': 10.023186902517098, '79.0': 9.808186902517098, '80.0': 9.593186902517099, '81.0': 9.378186902517099, '82.0': 9.163186902517099, '83.0': 8.948186902517099, '84.0': 8.7331869025171, '85.0': 8.5181869025171, '86.0': 8.3031869025171, '87.0': 8.0881869025171, '88.0': 7.8731869025171, '89.0': 7.6581869025171, '90.0': 7.4431869025171, '91.0': 7.2281869025171, '92.0': 7.0131869025171, '93.0': 6.7981869025171004, '94.0': 6.583186902517101, '95.0': 6.368186902517101, '96.0': 6.153186902517101, '97.0': 5.938186902517101, '98.0': 5.723186902517101, '99.0': 5.508186902517101, '100.0': 5.2931869025171014, '101.0': 5.078186902517102, '102.0': 4.863186902517102, '103.0': 4.648186902517102, '104.0': 4.433186902517102, '105.0': 4.218186902517102, '106.0': 4.003186902517103, '107.0': 3.7881869025171033, '108.0': 3.5731869025171035, '109.0': 3.3581869025171036, '110.0': 3.1431869025171038, '111.0': 2.928186902517104, '112.0': 2.713186902517104, '113.0': 2.498186902517104, '114.0': 2.2831869025171043, '115.0': 2.068186902517104, '116.0': 1.853186902517104, '117.0': 1.6381869025171039, '118.0': 1.4231869025171038, '119.0': 1.2081869025171037, '120.0': 0.9931869025171037}</t>
+          <t>{'0.0': 26.793186902517164, '1.0': 27.008186902517167, '2.0': 27.223186902517167, '3.0': 27.43818690251717, '4.0': 27.65318690251717, '5.0': 27.868186902517174, '6.0': 28.083186902517177, '7.0': 28.298186902517177, '8.0': 28.51318690251718, '9.0': 28.72818690251718, '10.0': 28.943186902517184, '11.0': 29.158186902517183, '12.0': 29.373186902517187, '13.0': 29.58818690251719, '14.0': 29.80318690251719, '15.0': 30.018186902517193, '16.0': 30.233186902517193, '17.0': 30.448186902517197, '18.0': 30.663186902517197, '19.0': 30.8781869025172, '20.0': 31.093186902517203, '21.0': 31.308186902517203, '22.0': 31.523186902517207, '23.0': 31.738186902517207, '24.0': 31.95318690251721, '25.0': 32.16818690251721, '26.0': 32.38318690251721, '27.0': 32.59818690251721, '28.0': 32.81318690251722, '29.0': 33.02818690251722, '30.0': 33.24318690251722, '31.0': 33.45818690251722, '32.0': 33.67318690251722, '33.0': 33.888186902517226, '34.0': 34.10318690251723, '35.0': 34.31818690251723, '36.0': 34.53318690251723, '37.0': 34.74818690251723, '38.0': 34.963186902517236, '39.0': 35.17818690251724, '40.0': 35.393186902517236, '41.0': 35.60818690251724, '42.0': 35.82318690251724, '43.0': 36.038186902517246, '44.0': 36.25318690251725, '45.0': 36.468186902517246, '46.0': 36.68318690251725, '47.0': 36.89818690251725, '48.0': 37.113186902517256, '49.0': 37.32818690251725, '50.0': 37.543186902517256, '51.0': 37.75818690251726, '52.0': 37.97318690251726, '53.0': 38.188186902517266, '54.0': 38.40318690251726, '55.0': 38.618186902517266, '56.0': 38.83318690251727, '57.0': 39.04818690251727, '58.0': 39.263186902517276, '59.0': 39.47818690251727, '60.0': 39.693186902517276, '61.0': 39.90818690251728, '62.0': 40.12318690251728, '63.0': 40.33818690251728, '64.0': 40.55318690251728, '65.0': 40.768186902517286, '66.0': 40.98318690251729, '67.0': 41.19818690251729, '68.0': 41.41318690251729, '69.0': 41.62818690251729, '70.0': 41.843186902517296, '71.0': 42.0581869025173, '72.0': 42.273186902517295, '73.0': 42.4881869025173, '74.0': 42.7031869025173, '75.0': 42.918186902517306, '76.0': 43.13318690251731, '77.0': 43.348186902517305, '78.0': 43.56318690251731, '79.0': 43.77818690251731, '80.0': 43.993186902517316, '81.0': 44.20818690251732, '82.0': 44.423186902517315, '83.0': 44.63818690251732, '84.0': 44.85318690251732, '85.0': 45.068186902517326, '86.0': 45.28318690251732, '87.0': 45.498186902517325, '88.0': 45.71318690251733, '89.0': 45.92818690251733, '90.0': 46.143186902517336, '91.0': 46.35818690251733, '92.0': 46.573186902517335, '93.0': 46.78818690251734, '94.0': 47.00318690251734, '95.0': 47.218186902517346, '96.0': 47.43318690251734, '97.0': 47.648186902517345, '98.0': 47.86318690251735, '99.0': 48.07818690251735, '100.0': 48.29318690251735, '101.0': 48.50818690251735, '102.0': 48.723186902517355, '103.0': 48.93818690251736, '104.0': 49.15318690251736, '105.0': 49.36818690251736, '106.0': 49.58318690251736, '107.0': 49.798186902517365, '108.0': 50.01318690251737, '109.0': 50.228186902517365, '110.0': 50.44318690251737, '111.0': 50.65818690251737, '112.0': 50.873186902517375, '113.0': 51.08818690251738, '114.0': 51.303186902517375, '115.0': 51.51818690251738, '116.0': 51.73318690251738, '117.0': 51.948186902517385, '118.0': 52.16318690251739, '119.0': 52.378186902517385, '120.0': 52.59318690251739}</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.48764478939966993, '1.0': 0.488557265269964, '2.0': 0.489419790873835, '3.0': 0.49023214878107846, '4.0': 0.49099477140153935, '5.0': 0.4917086087573215, '6.0': 0.49237501447662435, '7.0': 0.49299564842488613, '8.0': 0.4935723943221217, '9.0': 0.4941072907034401, '10.0': 0.49460247363949517, '11.0': 0.4950601297271439, '12.0': 0.49548245797428836, '13.0': 0.4958716393266873, '14.0': 0.49622981271116895, '15.0': 0.49655905659406996, '16.0': 0.4968613751724499, '17.0': 0.4971386884265358, '18.0': 0.4973928253637482, '19.0': 0.49762551987701154, '20.0': 0.49783840872283996, '21.0': 0.49803303119819275, '22.0': 0.49821083015983775, '23.0': 0.4983731540865663, '24.0': 0.4985212599337863, '25.0': 0.49865631657249543, '26.0': 0.4987794086411218, '27.0': 0.4988915406698971, '28.0': 0.49899364136393165, '29.0': 0.499086567953589, '30.0': 0.4991711105396354, '31.0': 0.49924799637645384, '32.0': 0.49931789404978644, '33.0': 0.4993814175163872, '34.0': 0.4994391299819534, '35.0': 0.4994915476010585, '36.0': 0.4995391429887772, '37.0': 0.4995823485384925, '38.0': 0.49962155954419946, '39.0': 0.4996571371286264, '40.0': 0.4996894109808171, '41.0': 0.4997186819085827, '42.0': 0.4997452242125333, '43.0': 0.4997692878893182, '44.0': 0.4997911006723192, '45.0': 0.49981086991840873, '46.0': 0.4998287843495489, '47.0': 0.4998450156580224, '48.0': 0.4998597199839732, '49.0': 0.49987303927373333, '50.0': 0.4998851025271356, '51.0': 0.4998960269416912, '52.0': 0.4999059189611502, '53.0': 0.49991487523558215, '54.0': 0.49992298349972175, '55.0': 0.49993032337592747, '56.0': 0.4999369671077051, '57.0': 0.49994298022936223, '58.0': 0.4999484221769833, '59.0': 0.49995334684554926, '60.0': 0.4999578030966828, '61.0': 0.49996183522116516, '62.0': 0.49996548336005964, '63.0': 0.4999687838879815, '64.0': 0.49997176976177693, '65.0': 0.49997447083761115, '66.0': 0.49997691415922885, '67.0': 0.4999791242199184, '68.0': 0.4999811232005057, '69.0': 0.4999829311855081, '70.0': 0.4999845663593972, '71.0': 0.49998604518475787, '72.0': 0.4999873825639695, '73.0': 0.4999885919859056, '74.0': 0.49998968565900564, '75.0': 0.49999067463196545, '76.0': 0.49999156890317376, '77.0': 0.4999923775199284, '78.0': 0.4999931086683702, '79.0': 0.4999937697549906, '80.0': 0.4999943674804912, '81.0': 0.4999949079067024, '82.0': 0.4999953965172071, '83.0': 0.4999958382722518, '84.0': 0.4999962376584807, '85.0': 0.49999659873397295, '86.0': 0.4999969251690236, '87.0': 0.49999722028306637, '88.0': 0.4999974870781005, '89.0': 0.4999977282689486, '90.0': 0.49999794631064565, '91.0': 0.4999981434232268, '92.0': 0.49999832161416113, '93.0': 0.4999984826986523, '94.0': 0.49999862831800856, '95.0': 0.4999987599562634, '96.0': 0.4999988789552138, '97.0': 0.499998986528025, '98.0': 0.4999990837715385, '99.0': 0.49999917167740526, '100.0': 0.49999925114215704, '101.0': 0.4999993229763152, '102.0': 0.49999938791263077, '103.0': 0.49999944661353524, '104.0': 0.4999994996778806, '105.0': 0.49999954764703386, '106.0': 0.49999959101038893, '107.0': 0.49999963021035126, '108.0': 0.49999966564684406, '109.0': 0.4999996976813849, '110.0': 0.4999997266407702, '111.0': 0.49999975282040754, '112.0': 0.4999997764873283, '113.0': 0.49999979788291204, '114.0': 0.4999998172253489, '115.0': 0.49999983471186626, '116.0': 0.49999985052074203, '117.0': 0.4999998648131246, '118.0': 0.4999998777346777, '119.0': 0.49999988941706847, '120.0': 0.4999998999793117}</t>
+          <t>{'0.0': 0.48764478939966993, '1.0': 0.4872726896437424, '2.0': 0.4868931219691486, '3.0': 0.4865062119832628, '4.0': 0.4861121120608557, '5.0': 0.4857110032601241, '6.0': 0.4853030973172566, '7.0': 0.48488863871817256, '8.0': 0.48446790684538577, '9.0': 0.48404121819715795, '10.0': 0.4836089286752292, '11.0': 0.4831714359364384, '12.0': 0.4827291818024585, '13.0': 0.4822826547206727, '14.0': 0.4818323922678963, '15.0': 0.4813789836872019, '16.0': 0.48092307244651405, '17.0': 0.4804653588059328, '18.0': 0.4800066023788577, '19.0': 0.47954762466998735, '20.0': 0.4790893115710932, '21.0': 0.4786326157931502, '22.0': 0.4781785592109455, '23.0': 0.47772823509366075, '24.0': 0.47728281019217916, '25.0': 0.47684352665096874, '26.0': 0.47641170370939323, '27.0': 0.4759887391541848, '28.0': 0.47557611048162457, '29.0': 0.4751753757247254, '30.0': 0.4747881738974473, '31.0': 0.4744162250047229, '32.0': 0.47406132956388175, '33.0': 0.4737253675800019, '34.0': 0.4734102969148249, '35.0': 0.473118150986248, '36.0': 0.4728510357331085, '37.0': 0.47261112577811365, '38.0': 0.47240065972043666, '39.0': 0.47222193448880545, '40.0': 0.4720772986859906, '41.0': 0.47196914485657127, '42.0': 0.47189990061187526, '43.0': 0.47187201854919003, '44.0': 0.47188796490690077, '45.0': 0.47195020690326317, '46.0': 0.4720611987142509, '47.0': 0.4722233660554659, '48.0': 0.4724390893446482, '49.0': 0.4727106854349805, '50.0': 0.4730403879253059, '51.0': 0.4734303260716679, '52.0': 0.4738825023452896, '53.0': 0.4743987687053247, '54.0': 0.47498080168037704, '55.0': 0.4756300763808736, '56.0': 0.47634783959475235, '57.0': 0.4771350821513991, '58.0': 0.47799251077304716, '59.0': 0.4789205196685955, '60.0': 0.47991916216149677, '61.0': 0.48098812268051166, '62.0': 0.4821266894789403, '63.0': 0.4833337284837515, '64.0': 0.48460765870982553, '65.0': 0.48594642970537694, '66.0': 0.48734750152139367, '67.0': 0.48880782771944814, '68.0': 0.4903238419472615, '69.0': 0.4918914486186614, '70.0': 0.49350601823279483, '71.0': 0.49516238785538114, '72.0': 0.4968548672612749, '73.0': 0.49857725120159985, '74.0': 0.5003228382093654, '75.0': 0.5020844562941557, '76.0': 0.5038544957988474, '77.0': 0.5056249495994144, '78.0': 0.5073874607230328, '79.0': 0.5091333773408658, '80.0': 0.5108538149612905, '81.0': 0.5125397255088247, '82.0': 0.51418197282587, '83.0': 0.5157714139814672, '84.0': 0.5172989856167863, '85.0': 0.5187557944047405, '86.0': 0.5201332105549255, '87.0': 0.5214229631592695, '88.0': 0.5226172360526968, '89.0': 0.5237087627611026, '90.0': 0.5246909190301402, '91.0': 0.5255578113766033, '92.0': 0.5263043600828727, '93.0': 0.526926375066651, '94.0': 0.5274206231049974, '95.0': 0.5277848849744128, '96.0': 0.5280180011874227, '97.0': 0.5281199051596219, '98.0': 0.5280916428273164, '99.0': 0.5279353779513424, '100.0': 0.5276543825831607, '101.0': 0.5272530124295601, '102.0': 0.5267366671263971, '103.0': 0.5261117357130759, '104.0': 0.5253855278810904, '105.0': 0.5245661918448035, '106.0': 0.5236626199438211, '107.0': 0.5226843433272209, '108.0': 0.5216414172845536, '109.0': 0.5205442989716862, '110.0': 0.5194037194270061, '111.0': 0.5182305518820325, '112.0': 0.5170356784381304, '113.0': 0.5158298572070026, '114.0': 0.5146235919973646, '115.0': 0.5134270065752585, '116.0': 0.5122497254334597, '117.0': 0.5111007628798907, '118.0': 0.5099884221001939, '119.0': 0.5089202056705018, '120.0': 0.507902738798242}</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.08996526999361343, '1.0': 0.08475305694487162, '2.0': 0.07986088372806, '3.0': 0.07526856630610251, '4.0': 0.07095710331129515, '5.0': 0.06690863265201058, '6.0': 0.06310638440429703, '7.0': 0.05953463128357628, '8.0': 0.05617863776321266, '9.0': 0.05302460870880191, '10.0': 0.05005963822680462, '11.0': 0.04727165928079663, '12.0': 0.04464939450537542, '13.0': 0.04218230854402563, '14.0': 0.03986056215056985, '15.0': 0.037674968221976135, '16.0': 0.035616949871221215, '17.0': 0.03367850060081151, '18.0': 0.031852146598805586, '19.0': 0.030130911148354228, '20.0': 0.028508281117613665, '21.0': 0.026978175478314825, '22.0': 0.025534915787350343, '23.0': 0.02417319855565439, '24.0': 0.022888069421723306, '25.0': 0.021674899042752854, '26.0': 0.020529360614073233, '27.0': 0.019447408926906856, '28.0': 0.018425260875125082, '29.0': 0.017459377323329917, '30.0': 0.016546446251004654, '31.0': 0.0156833670904562, '32.0': 0.014867236179651022, '33.0': 0.014095333254693282, '34.0': 0.01336510891049908, '35.0': 0.0126741729620993, '36.0': 0.012020283642889207, '37.0': 0.011401337579981408, '38.0': 0.010815360490568832, '39.0': 0.010260498546839747, '40.0': 0.00973501036047994, '41.0': 0.009237259541138881, '42.0': 0.008765707786412807, '43.0': 0.008318908463905178, '44.0': 0.007895500648762294, '45.0': 0.007494203582749159, '46.0': 0.007113811523430075, '47.0': 0.006753188954357031, '48.0': 0.006411266129351972, '49.0': 0.0060870349259981305, '50.0': 0.005779544985347468, '51.0': 0.005487900116602773, '52.0': 0.005211254947161265, '53.0': 0.004948811799909747, '54.0': 0.004699817781056548, '55.0': 0.004463562063072024, '56.0': 0.004239373348499387, '57.0': 0.004026617501494273, '58.0': 0.0038246953349654056, '59.0': 0.003633040542121324, '60.0': 0.0034511177620893674, '61.0': 0.0032784207700649326, '62.0': 0.0031144707831803897, '63.0': 0.002958814873954385, '64.0': 0.002811024483802105, '65.0': 0.0026706940296570003, '66.0': 0.002537439597278035, '67.0': 0.0024108977153017574, '68.0': 0.0022907242045410725, '69.0': 0.002176593097443058, '70.0': 0.0020681956229950116, '71.0': 0.0019652392527151896, '72.0': 0.0018674468036840586, '73.0': 0.0017745555948671388, '74.0': 0.0016863166532514184, '75.0': 0.0016024939665681692, '76.0': 0.0015228637796053102, '77.0': 0.0014472139313256027, '78.0': 0.0013753432302032464, '79.0': 0.0013070608653730775, '80.0': 0.0012421858513529949, '81.0': 0.0011805465042568353, '82.0': 0.0011219799475553072, '83.0': 0.001066331645577262, '84.0': 0.00101345496306407, '85.0': 0.00096321074920383, '86.0': 0.0009154669446769514, '87.0': 0.0008700982103412858, '88.0': 0.0008269855762757239, '89.0': 0.0007860161099835505, '90.0': 0.0007470826026351463, '91.0': 0.0007100832723018202, '92.0': 0.0006749214831977823, '93.0': 0.0006415054800112396, '94.0': 0.0006097481364620294, '95.0': 0.0005795667172774077, '96.0': 0.0005508826528278221, '97.0': 0.0005236213257101552, '98.0': 0.000497711868610945, '99.0': 0.0004730869728208631, '100.0': 0.0004496827068103948, '101.0': 0.00042743834431252514, '102.0': 0.0004062962013895721, '103.0': 0.0003862014819933368, '104.0': 0.00036710213155680127, '105.0': 0.00034894869818072327, '106.0': 0.0003316942010064827, '107.0': 0.0003152940053870179, '108.0': 0.0002997057044927254, '109.0': 0.00028488900700776587, '110.0': 0.00027080563059286855, '111.0': 0.00025741920080887826, '112.0': 0.00024469515521149954, '113.0': 0.0002326006523453994, '114.0': 0.00022110448537940308, '115.0': 0.0002101770001397274, '116.0': 0.00019979001731124102, '117.0': 0.00018991675858906487, '118.0': 0.00018053177657548214, '119.0': 0.00017161088822723047, '120.0': 0.00016313111166957328}</t>
+          <t>{'0.0': 0.08996526999361343, '1.0': 0.0921059989917282, '2.0': 0.09430080673093899, '3.0': 0.0965510753534797, '4.0': 0.09885821733346653, '5.0': 0.10122367563423734, '6.0': 0.10364892382040986, '7.0': 0.10613546612044494, '8.0': 0.10868483743525623, '9.0': 0.1112986032881545, '10.0': 0.11397835971115047, '11.0': 0.11672573306237757, '12.0': 0.11954237976911314, '13.0': 0.1224299859906039, '14.0': 0.12539026719461027, '15.0': 0.1284249676412963, '16.0': 0.13153585976779894, '17.0': 0.1347247434665168, '18.0': 0.13799344524986212, '19.0': 0.14134381729392723, '20.0': 0.14477773635322924, '21.0': 0.1482971025384057, '22.0': 0.1519038379484674, '23.0': 0.1555998851489347, '24.0': 0.1593872054869461, '25.0': 0.16326777723417477, '26.0': 0.16724359354818646, '27.0': 0.1713166602426665, '28.0': 0.17548899335678847, '29.0': 0.17976261651385492, '30.0': 0.18413955805925175, '31.0': 0.18862184796769724, '32.0': 0.19321151450976778, '33.0': 0.19791058066772543, '34.0': 0.20272106029078152, '35.0': 0.20764495398010874, '36.0': 0.2126842446941603, '37.0': 0.21784089306518925, '38.0': 0.22311683241828026, '39.0': 0.22851396348472416, '40.0': 0.2340341488021942, '41.0': 0.23967920679491747, '42.0': 0.2454509055279042, '43.0': 0.25135095613028813, '44.0': 0.2573810058839767, '45.0': 0.2635426309750921, '46.0': 0.26983732890714174, '47.0': 0.2762665105764629, '48.0': 0.28283149201229896, '49.0': 0.28953348578582644, '50.0': 0.29637359209463826, '51.0': 0.30335278953155353, '52.0': 0.31047192554919784, '53.0': 0.3177317066345841, '54.0': 0.32513268821091523, '55.0': 0.33267526428703287, '56.0': 0.34035965687835124, '57.0': 0.3481859052267374, '58.0': 0.35615385485061823, '59.0': 0.36426314646060903, '60.0': 0.37251320478014616, '61.0': 0.3809032273149747, '62.0': 0.38943217311982636, '63.0': 0.3980987516152569, '64.0': 0.406901411512325, '65.0': 0.4158383299075638, '66.0': 0.42490740161549906, '67.0': 0.4341062288107428, '68.0': 0.44343211105639896, '69.0': 0.452882035800102, '70.0': 0.46245266942341046, '71.0': 0.4721403489344352, '72.0': 0.4819410743974165, '73.0': 0.4918505021964054, '74.0': 0.5018639392331754, '75.0': 0.5119763381618934, '76.0': 0.5221822937648357, '77.0': 0.5324760405744559, '78.0': 0.5428514518472735, '79.0': 0.5533020399943098, '80.0': 0.5638209585709966, '81.0': 0.5744010059265756, '82.0': 0.5850346306088713, '83.0': 0.5957139386148849, '84.0': 0.6064307025708315, '85.0': 0.6171763729169601, '86.0': 0.6279420911627025, '87.0': 0.6387187052663132, '88.0': 0.6494967871802213, '89.0': 0.6602666525887062, '90.0': 0.6710183828483447, '91.0': 0.6817418491239049, '92.0': 0.6924267386930735, '93.0': 0.7030625833726825, '94.0': 0.7136387899970371, '95.0': 0.7241446728557079, '96.0': 0.7345694879738796, '97.0': 0.7449024690932671, '98.0': 0.7551328651859726, '99.0': 0.7652499793076557, '100.0': 0.7752432085704339, '101.0': 0.7851020849902226, '102.0': 0.7948163169381885, '103.0': 0.8043758309019713, '104.0': 0.8137708132396682, '105.0': 0.8229917515887095, '106.0': 0.8320294755730238, '107.0': 0.8408751964356975, '108.0': 0.8495205452110266, '109.0': 0.8579576090397605, '110.0': 0.8661789652247878, '111.0': 0.8741777126217009, '112.0': 0.8819474999598694, '113.0': 0.8894825506949227, '114.0': 0.8967776840030065, '115.0': 0.9038283315407578, '116.0': 0.910630549612592, '117.0': 0.917181026408362, '118.0': 0.9234770839994618, '119.0': 0.9295166748096311, '120.0': 0.9352983723075436}</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.7878021202248422, '1.0': 0.7854094555334636, '2.0': 0.7829935498581877, '3.0': 0.7805510951546755, '4.0': 0.7780778503462746, '5.0': 0.7755685101410912, '6.0': 0.7730165635514481, '7.0': 0.7704141422923435, '8.0': 0.7677518595170609, '9.0': 0.7650186397233378, '10.0': 0.7622015411595935, '11.0': 0.7592855727108967, '12.0': 0.7562535080885513, '13.0': 0.7530857012318712, '14.0': 0.7497599082081361, '15.0': 0.7462511226222341, '16.0': 0.742531433675112, '17.0': 0.7385699185843034, '18.0': 0.7343325841226803, '19.0': 0.729782375524149, '20.0': 0.7248792748604108, '21.0': 0.7195805150210496, '22.0': 0.713840939293426, '23.0': 0.7076135397070474, '24.0': 0.7008502090055913, '25.0': 0.6935027402935605, '26.0': 0.6855241037663048, '27.0': 0.6768700199811242, '28.0': 0.667500832373622, '29.0': 0.6573836570008457, '30.0': 0.6464947544282308, '31.0': 0.6348220282765242, '32.0': 0.6223675101843795, '33.0': 0.6091496471783978, '34.0': 0.5952051723711673, '35.0': 0.5805903228082241, '36.0': 0.5653811783878564, '37.0': 0.5496729398704482, '38.0': 0.5335780437401165, '39.0': 0.5172231214947761, '40.0': 0.5007449373863669, '41.0': 0.4842855620652641, '42.0': 0.4679871380438806, '43.0': 0.45198664738727545, '44.0': 0.4364110915687855, '45.0': 0.42137343807770505, '46.0': 0.4069695892725862, '47.0': 0.39327650522973046, '48.0': 0.38035148592847934, '49.0': 0.368232508651558, '50.0': 0.35693943730807315, '51.0': 0.3464758769826559, '52.0': 0.33683143760188217, '53.0': 0.32798418831203346, '54.0': 0.3199031196935108, '55.0': 0.31255047499681393, '56.0': 0.30588385648429284, '57.0': 0.2998580533704191, '58.0': 0.2944265708280974, '59.0': 0.28954286409756613, '60.0': 0.2851612982989863, '61.0': 0.2812378642979654, '62.0': 0.2777306854092324, '63.0': 0.27460035034697516, '64.0': 0.27181010595287297, '65.0': 0.2693259399015131, '66.0': 0.2671165795717752, '67.0': 0.2651534291137763, '68.0': 0.26341046277038294, '69.0': 0.2618640889199546, '70.0': 0.26049299617957344, '71.0': 0.259277990264567, '72.0': 0.2582018281183771, '73.0': 0.25724905406222986, '74.0': 0.25640584131223887, '75.0': 0.2556598411166242, '76.0': 0.25500004092452655, '77.0': 0.254416632362867, '78.0': 0.2539008893275205, '79.0': 0.253445056154914, '80.0': 0.25304224560123245, '81.0': 0.2526863461952487, '82.0': 0.2523719384286334, '83.0': 0.2520942191895117, '84.0': 0.2518489338193248, '85.0': 0.2516323151706925, '86.0': 0.2514410290579226, '87.0': 0.2512721255168462, '88.0': 0.2511229953227232, '89.0': 0.25099133125113754, '90.0': 0.2508750936049231, '91.0': 0.250772479568638, '92.0': 0.250681895989901, '93.0': 0.25060193522322316, '94.0': 0.25053135370638663, '95.0': 0.2504690529716176, '96.0': 0.2504140628236582, '97.0': 0.2503655264443112, '98.0': 0.25032268720816286, '99.0': 0.2502848770170387, '100.0': 0.250251505981463, '101.0': 0.2502220532960877, '102.0': 0.2501960591728777, '103.0': 0.2501731177109463, '104.0': 0.2501528705954655, '105.0': 0.25013500153015744, '106.0': 0.2501192313186835, '107.0': 0.25010531351984744, '108.0': 0.25009303061010757, '109.0': 0.2500821905944989, '110.0': 0.25007262401382524, '111.0': 0.2500641813019977, '112.0': 0.2500567304527068, '113.0': 0.2500501549593442, '114.0': 0.250044351996273, '115.0': 0.25003923081324286, '116.0': 0.25003471131803046, '117.0': 0.25003072282528416, '118.0': 0.2500272029521209, '119.0': 0.2500240966432833, '120.0': 0.25002135531068825}</t>
+          <t>{'0.0': 0.9075172799762731, '1.0': 0.9099416026874203, '2.0': 0.9123246028969807, '3.0': 0.91466392831692, '4.0': 0.9169575061168369, '5.0': 0.9192035383506698, '6.0': 0.9214004951399459, '7.0': 0.9235471059022647, '8.0': 0.9256423489174821, '9.0': 0.9276854395211349, '10.0': 0.9296758172059341, '11.0': 0.9316131318986784, '12.0': 0.9334972296626614, '13.0': 0.9353281380555367, '14.0': 0.9371060513505727, '15.0': 0.9388313158060617, '16.0': 0.9405044151440938, '17.0': 0.9421259563765497, '18.0': 0.9436966560935414, '19.0': 0.9452173273080078, '20.0': 0.9466888669300911, '21.0': 0.9481122439264581, '22.0': 0.9494884882030548, '23.0': 0.9508186802349324, '24.0': 0.9521039414537789, '25.0': 0.9533454253925904, '26.0': 0.954544309577442, '27.0': 0.9557017881484628, '28.0': 0.9568190651857709, '29.0': 0.9578973487111296, '30.0': 0.9589378453323296, '31.0': 0.9599417554946054, '32.0': 0.9609102693016633, '33.0': 0.9618445628679643, '34.0': 0.9627457951636513, '35.0': 0.9636151053138406, '36.0': 0.9644536103147747, '37.0': 0.9652624031304939, '38.0': 0.9660425511351197, '39.0': 0.9667950948674978, '40.0': 0.9675210470667505, '41.0': 0.9682213919591828, '42.0': 0.9688970847689373, '43.0': 0.9695490514267491, '44.0': 0.9701781884530944, '45.0': 0.9707853629939291, '46.0': 0.9713714129890453, '47.0': 0.9719371474548382, '48.0': 0.9724833468649554, '49.0': 0.9730107636138741, '50.0': 0.9735201225499461, '51.0': 0.9740121215658282, '52.0': 0.9744874322355083, '53.0': 0.9749467004883206, '54.0': 0.9753905473114404, '55.0': 0.9758195694733494, '56.0': 0.9762343402616729, '57.0': 0.9766354102296289, '58.0': 0.9770233079460735, '59.0': 0.9773985407448137, '60.0': 0.9777615954694656, '61.0': 0.97811293921069, '62.0': 0.9784530200331231, '63.0': 0.9787822676897614, '64.0': 0.9791010943219486, '65.0': 0.9794098951434531, '66.0': 0.9797090491074338, '67.0': 0.9799989195553536, '68.0': 0.9802798548471394, '69.0': 0.980552188972088, '70.0': 0.9808162421401934, '71.0': 0.9810723213537313, '72.0': 0.9813207209590602, '73.0': 0.9815617231787133, '74.0': 0.9817955986239579, '75.0': 0.9820226067880687, '76.0': 0.9822429965206342, '77.0': 0.9824570064832738, '78.0': 0.9826648655871811, '79.0': 0.9828667934129484, '80.0': 0.9830630006131568, '81.0': 0.9832536892982344, '82.0': 0.9834390534061005, '83.0': 0.9836192790561257, '84.0': 0.9837945448879395, '85.0': 0.9839650223856222, '86.0': 0.9841308761878136, '87.0': 0.9842922643842664, '88.0': 0.9844493387993682, '89.0': 0.9846022452631431, '90.0': 0.9847511238702369, '91.0': 0.9848961092273771, '92.0': 0.9850373306897875, '93.0': 0.9851749125870186, '94.0': 0.9853089744386516, '95.0': 0.9854396311603077, '96.0': 0.9855669932603879, '97.0': 0.9856911670279502, '98.0': 0.9858122547121186, '99.0': 0.9859303546933997, '100.0': 0.9860455616472728, '101.0': 0.9861579667004027, '102.0': 0.98626765757981, '103.0': 0.9863747187553207, '104.0': 0.9864792315756019, '105.0': 0.9865812743980824, '106.0': 0.9866809227130353, '107.0': 0.9867782492620965, '108.0': 0.9868733241514744, '109.0': 0.9869662149601006, '110.0': 0.9870569868429522, '111.0': 0.9871457026297745, '112.0': 0.9872324229194168, '113.0': 0.9873172061699853, '114.0': 0.9874001087850088, '115.0': 0.9874811851958032, '116.0': 0.9875604879402118, '117.0': 0.9876380677378895, '118.0': 0.9877139735622932, '119.0': 0.9877882527095309, '120.0': 0.9878609508642151}</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.14047043508423146, '1.0': 0.13953008760028193, '2.0': 0.1386609896801997, '3.0': 0.1378521522976211, '4.0': 0.13709381506900462, '5.0': 0.1363772513259275, '6.0': 0.13569459050090124, '7.0': 0.13503865641600377, '8.0': 0.13440282009438323, '9.0': 0.13378086580907328, '10.0': 0.13316686923460033, '11.0': 0.13255508677043285, '12.0': 0.13193985536012245, '13.0': 0.13131550243738357, '14.0': 0.13067626599375418, '15.0': 0.13001622518649072, '16.0': 0.12932924239437754, '17.0': 0.12860891818527107, '18.0': 0.12784856127934754, '19.0': 0.12704117626367112, '20.0': 0.12617947250957132, '21.0': 0.12525589841561835, '22.0': 0.12426270566774979, '23.0': 0.12319204855973502, '24.0': 0.12203612339514479, '25.0': 0.12078735239819068, '26.0': 0.11943861516602279, '27.0': 0.11798352826550172, '28.0': 0.11641676992189344, '29.0': 0.11473444178666332, '30.0': 0.11293445362762854, '31.0': 0.11101690986684615, '32.0': 0.10898446996084382, '33.0': 0.10684264878719263, '34.0': 0.10460001984098037, '35.0': 0.10226828457423749, '36.0': 0.09986217679495961, '37.0': 0.097399182232703, '38.0': 0.09489906978397572, '39.0': 0.09238325102291485, '40.0': 0.0898740055965354, '41.0': 0.0873936285846158, '42.0': 0.08496356811553031, '43.0': 0.08260362462633201, '44.0': 0.0803312760163183, '45.0': 0.07816117670073264, '46.0': 0.07610485641096852, '47.0': 0.0741706208532259, '48.0': 0.0723636352929684, '49.0': 0.07068615687756517, '50.0': 0.06913787341765258, '51.0': 0.06771630511414876, '52.0': 0.06641722985033464, '53.0': 0.06523510014330493, '54.0': 0.06416342868878837, '55.0': 0.06319512807525673, '56.0': 0.062322797682838736, '57.0': 0.06153895654456615, '58.0': 0.06083622496312239, '59.0': 0.060207460133726, '60.0': 0.059645852235457174, '61.0': 0.05914498775906309, '62.0': 0.058698886547673856, '63.0': 0.05830201838774659, '64.0': 0.05794930418576303, '65.0': 0.057636105927368564, '66.0': 0.05735820881761979, '67.0': 0.05711179828609336, '68.0': 0.05689343392670543, '69.0': 0.05670002193152024, '70.0': 0.05652878716391182, '71.0': 0.056377245688002765, '72.0': 0.056243178315573794, '73.0': 0.0561246055360175, '74.0': 0.056019764047856725, '75.0': 0.05592708500185115, '76.0': 0.05584517398733905, '77.0': 0.055772792738291575, '78.0': 0.05570884249804353, '79.0': 0.05565234895739509, '80.0': 0.05560244866632332, '81.0': 0.05555837681223028, '82.0': 0.055519456255456436, '83.0': 0.05548508771415731, '84.0': 0.055454740994422824, '85.0': 0.055427947166848755, '86.0': 0.0554042915970225, '87.0': 0.05538340774410252, '88.0': 0.05536497164852431, '89.0': 0.05534869703663633, '90.0': 0.05533433097660669, '91.0': 0.05532165002613496, '92.0': 0.0553104568183162, '93.0': 0.05530057703738872, '94.0': 0.055291856741055946, '95.0': 0.05528415999060682, '96.0': 0.05527736675418186, '97.0': 0.0552713710522692, '98.0': 0.05526607931788554, '99.0': 0.05526140894692851, '100.0': 0.05525728701691333, '101.0': 0.05525364915473715, '102.0': 0.05525043853629954, '103.0': 0.055247605002745837, '104.0': 0.055245104279835734, '105.0': 0.05524289728847611, '106.0': 0.055240949535832674, '107.0': 0.05523923057764548, '108.0': 0.055237713543460076, '109.0': 0.0552363747174367, '110.0': 0.05523519316825515, '111.0': 0.05523415042237998, '112.0': 0.055233230175620616, '113.0': 0.055232418038506, '114.0': 0.05523170131152144, '115.0': 0.055231068786718775, '116.0': 0.05523051057270201, '117.0': 0.05523001794100139, '118.0': 0.055229583197811905, '119.0': 0.05522919963443277, '120.0': 0.055228862081789086}</t>
+          <t>{'0.0': 0.161881842173944, '1.0': 0.16255429650270195, '2.0': 0.16323415171050792, '3.0': 0.1639218504024296, '4.0': 0.164617934961975, '5.0': 0.1653230493051843, '6.0': 0.1660379403099323, '7.0': 0.16676345897416525, '8.0': 0.1675005613576029, '9.0': 0.1682503093609308, '10.0': 0.16901387139486346, '11.0': 0.16979252298886302, '12.0': 0.1705876473859409, '13.0': 0.17140073616604456, '14.0': 0.17223338993620482, '15.0': 0.1730873191210668, '16.0': 0.17396434488278759, '17.0': 0.17486640019469823, '18.0': 0.17579553108869028, '19.0': 0.17675389809210995, '20.0': 0.17774377786609322, '21.0': 0.1787675650538135, '22.0': 0.1798277743441011, '23.0': 0.18092704275334884, '24.0': 0.1820681321266, '25.0': 0.18325393185720892, '26.0': 0.18448746182352882, '27.0': 0.18577187554068755, '28.0': 0.18711046352570268, '29.0': 0.18850665687493504, '30.0': 0.18996403105420337, '31.0': 0.19148630990374352, '32.0': 0.1930773698625808, '33.0': 0.19474124441973784, '34.0': 0.19648212880292135, '35.0': 0.19830438491882943, '36.0': 0.2002125465627785, '37.0': 0.20221132491872415, '38.0': 0.20430561437357966, '39.0': 0.20650049867149853, '40.0': 0.20880125743383685, '41.0': 0.2112133730679122, '42.0': 0.21374253808126054, '43.0': 0.21639466280630196, '44.0': 0.21917588352116657, '45.0': 0.2220925709233701, '46.0': 0.22515133887087369, '47.0': 0.2283590532458505, '48.0': 0.2317228407153941, '49.0': 0.23525009705457145, '50.0': 0.23894849455381081, '51.0': 0.24282598784665366, '52.0': 0.2468908172565453, '53.0': 0.2511515084630971, '54.0': 0.25561686691960167, '55.0': 0.26029596500592045, '56.0': 0.26519811936812565, '57.0': 0.2703328552771506, '58.0': 0.2757098541398964, '59.0': 0.28133887953687964, '60.0': 0.2872296763777065, '61.0': 0.2933918370214949, '62.0': 0.29983462759846485, '63.0': 0.30656676742665684, '64.0': 0.31359615452625195, '65.0': 0.32092953102501004, '66.0': 0.3285720839976858, '67.0': 0.33652698029173594, '68.0': 0.3447948384525019, '69.0': 0.3533731471932598, '70.0': 0.3622556480200967, '71.0': 0.3714317094085107, '72.0': 0.380885730734208, '73.0': 0.39059662488045005, '74.0': 0.40053743742676645, '75.0': 0.41067516543782406, '76.0': 0.4209708377443843, '77.0': 0.4313799090646482, '78.0': 0.4418530009871911, '79.0': 0.45233699384988846, '80.0': 0.4627764370717225, '81.0': 0.47311520592260364, '82.0': 0.4832982962642338, '83.0': 0.4932736224145384, '84.0': 0.5029936730752341, '85.0': 0.5124168897567238, '86.0': 0.5215086610702393, '87.0': 0.5302418702602257, '88.0': 0.5385969848023527, '89.0': 0.5465617267570302, '90.0': 0.5541304026063513, '91.0': 0.5613029959681809, '92.0': 0.5680841340218259, '93.0': 0.5744820304306633, '94.0': 0.5805074883142617, '95.0': 0.5861730218148051, '96.0': 0.5914921291274206, '97.0': 0.5964787273579336, '98.0': 0.6011467424051046, '99.0': 0.6055098358480284, '100.0': 0.6095812450183372, '101.0': 0.6133737108819676, '102.0': 0.616899469692427, '103.0': 0.6201702873742875, '104.0': 0.6231975192962528, '105.0': 0.6259921818526787, '106.0': 0.6285650257178511, '107.0': 0.6309266035975641, '108.0': 0.6330873277366923, '109.0': 0.6350575143804372, '110.0': 0.6368474138932456, '111.0': 0.6384672263827847, '112.0': 0.6399271035218924, '113.0': 0.6412371378647919, '114.0': 0.6424073413610176, '115.0': 0.6434476150189075, '116.0': 0.6443677117908864, '117.0': 0.6451771947706098, '118.0': 0.6458853927289083, '119.0': 0.6465013548897717, '120.0': 0.6470338066751924}</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>{'0.0': 41.990595857926294, '1.0': 41.99042849269041, '2.0': 41.99025751238551, '3.0': 41.99008284959743, '4.0': 41.989904431203456, '5.0': 41.98972217675774, '6.0': 41.98953599660893, '7.0': 41.98934578972218, '8.0': 41.98915144117657, '9.0': 41.988952819307265, '10.0': 41.988749772461304, '11.0': 41.988542125334796, '12.0': 41.98832967486029, '13.0': 41.988112185614014, '14.0': 41.98788938471659, '15.0': 41.987660956206646, '16.0': 41.98742653487708, '17.0': 41.98718569957922, '18.0': 41.986937966023575, '19.0': 41.986682779139635, '20.0': 41.98641950510441, '21.0': 41.986147423214625, '22.0': 41.98586571786413, '23.0': 41.98557347100086, '24.0': 41.985269655579316, '25.0': 41.98495313069554, '26.0': 41.9846226392876, '27.0': 41.98427680949382, '28.0': 41.98391416095862, '29.0': 41.983533117524146, '30.0': 41.983132027786894, '31.0': 41.982709194859346, '32.0': 41.98226291627555, '33.0': 41.98179153424229, '34.0': 41.98129349532852, '35.0': 41.98076741724229, '36.0': 41.980212158713755, '37.0': 41.9796268869574, '38.0': 41.97901113610118, '39.0': 41.97836484974214, '40.0': 41.97768840171167, '41.0': 41.97698259126318, '42.0': 41.97624861195726, '43.0': 41.975487996937154, '44.0': 41.9747025463281, '45.0': 41.973894244495774, '46.0': 41.97306517548556, '47.0': 41.972217444148164, '48.0': 41.97135310859651, '49.0': 41.97047412728077, '50.0': 41.969582321658905, '51.0': 41.96867935357579, '52.0': 41.967766715235655, '53.0': 41.966845729061866, '54.0': 41.96591755466344, '55.0': 41.96498320039817, '56.0': 41.96404353747206, '57.0': 41.963099315014865, '58.0': 41.96215117503975, '59.0': 41.961199666586786, '60.0': 41.960245258653444, '61.0': 41.9592883517337, '62.0': 41.95832928793415, '63.0': 41.9573683597275, '64.0': 41.95640581745461, '65.0': 41.95544187571013, '66.0': 41.95447671875196, '67.0': 41.95351050506983, '68.0': 41.952543371237084, '69.0': 41.95157543515595, '70.0': 41.950606798792414, '71.0': 41.94963755048292, '72.0': 41.94866776688264, '73.0': 41.94769751461396, '74.0': 41.94672685166408, '75.0': 41.945755828572764, '76.0': 41.944784489443855, '77.0': 41.94381287280908, '78.0': 41.9428410123673, '79.0': 41.94186893761878, '80.0': 41.940896674410574, '81.0': 41.93992424540661, '82.0': 41.93895167049365, '83.0': 41.93797896713258, '84.0': 41.93700615066304, '85.0': 41.9360332345679, '86.0': 41.93506023070342, '87.0': 41.93408714949965, '88.0': 41.93311400013531, '89.0': 41.93214079069049, '90.0': 41.93116752828017, '91.0': 41.9301942191711, '92.0': 41.92922086888414, '93.0': 41.928247482283986, '94.0': 41.92727406365797, '95.0': 41.92630061678512, '96.0': 41.92532714499692, '97.0': 41.924353651230625, '98.0': 41.92338013807627, '99.0': 41.922406607817855, '100.0': 41.92143306246971, '101.0': 41.92045950380849, '102.0': 41.91948593340128, '103.0': 41.91851235263044, '104.0': 41.91753876271539, '105.0': 41.916565164731914, '106.0': 41.91559155962911, '107.0': 41.91461794824429, '108.0': 41.91364433131625, '109.0': 41.9126707094968, '110.0': 41.911697083361084, '111.0': 41.91072345341656, '112.0': 41.909749820111, '113.0': 41.90877618383952, '114.0': 41.90780254495076, '115.0': 41.90682890375237, '116.0': 41.905855260515814, '117.0': 41.90488161548065, '118.0': 41.90390796885828, '119.0': 41.902934320835236, '120.0': 41.90196067157613}</t>
+          <t>{'0.0': 41.990595857926294, '1.0': 41.99056294153292, '2.0': 41.99053171606896, '3.0': 41.99050211018409, '4.0': 41.99047405308588, '5.0': 41.990447474854065, '6.0': 41.99042230672048, '7.0': 41.99039848131482, '8.0': 41.99037593287645, '9.0': 41.99035459743367, '10.0': 41.990334412951704, '11.0': 41.99031531945118, '12.0': 41.990297259099165, '13.0': 41.99028017627489, '14.0': 41.99026401761237, '15.0': 41.99024873202231, '16.0': 41.99023427069549, '17.0': 41.99022058708995, '18.0': 41.99020763690409, '19.0': 41.990195378037704, '20.0': 41.990183770542956, '21.0': 41.990172776566965, '22.0': 41.99016236028769, '23.0': 41.99015248784462, '24.0': 41.99014312726549, '25.0': 41.99013424839032, '26.0': 41.99012582279368, '27.0': 41.99011782370623, '28.0': 41.99011022593612, '29.0': 41.990103005791134, '30.0': 41.99009614100188, '31.0': 41.99008961064664, '32.0': 41.99008339507823, '33.0': 41.990077475853084, '34.0': 41.99007183566284, '35.0': 41.99006645826857, '36.0': 41.99006132843776, '37.0': 41.99005643188414, '38.0': 41.9900517552103, '39.0': 41.99004728585324, '40.0': 41.99004301203266, '41.0': 41.99003892270205, '42.0': 41.9900350075025, '43.0': 41.99003125671909, '44.0': 41.99002766123986, '45.0': 41.99002421251712, '46.0': 41.990020902531256, '47.0': 41.9900177237566, '48.0': 41.9900146691295, '49.0': 41.990011732018374, '50.0': 41.99000890619572, '51.0': 41.99000618581184, '52.0': 41.99000356537037, '53.0': 41.99000103970531, '54.0': 41.98999860395962, '55.0': 41.98999625356521, '56.0': 41.989993984224284, '57.0': 41.98999179189185, '58.0': 41.98998967275952, '59.0': 41.98998762324027, '60.0': 41.989985639954284, '61.0': 41.98998371971575, '62.0': 41.98998185952054, '63.0': 41.98998005653467, '64.0': 41.98997830808358, '65.0': 41.98997661164216, '66.0': 41.989974964825386, '67.0': 41.98997336537955, '68.0': 41.98997181117422, '69.0': 41.9899703001946, '70.0': 41.98996883053441, '71.0': 41.989967400389325, '72.0': 41.98996600805077, '73.0': 41.98996465190013, '74.0': 41.98996333040337, '75.0': 41.98996204210601, '76.0': 41.98996078562838, '77.0': 41.989959559661216, '78.0': 41.989958362961566, '79.0': 41.989957194348904, '80.0': 41.98995605270153, '81.0': 41.98995493695319, '82.0': 41.98995384608993, '83.0': 41.989952779147075, '84.0': 41.98995173520652, '85.0': 41.989950713394066, '86.0': 41.98994971287702, '87.0': 41.9899487328619, '88.0': 41.98994777259224, '89.0': 41.98994683134662, '90.0': 41.98994590843676, '91.0': 41.98994500320573, '92.0': 41.989944115026276, '93.0': 41.98994324329926, '94.0': 41.989942387452146, '95.0': 41.98994154693768, '96.0': 41.989940721232486, '97.0': 41.98993990983592, '98.0': 41.98993911226885, '99.0': 41.98993832807258, '100.0': 41.98993755680783, '101.0': 41.989936798053755, '102.0': 41.989936051407014, '103.0': 41.98993531648093, '104.0': 41.98993459290466, '105.0': 41.989933880322425, '106.0': 41.989933178392775, '107.0': 41.98993248678792, '108.0': 41.98993180519305, '109.0': 41.98993113330576, '110.0': 41.98993047083541, '111.0': 41.98992981750265, '112.0': 41.989929173038824, '113.0': 41.98992853718554, '114.0': 41.989927909694146, '115.0': 41.989927290325326, '116.0': 41.98992667884866, '117.0': 41.98992607504225, '118.0': 41.989925478692314, '119.0': 41.989924889592835, '120.0': 41.98992430754524}</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>{'0.0': -0.03736269649253652, '1.0': -0.03816972625267422, '2.0': -0.0389918055854549, '3.0': -0.039830208869406546, '4.0': -0.0406865709214653, '5.0': -0.041562946786996825, '6.0': -0.042461877716866867, '7.0': -0.04338646365281666, '8.0': -0.04434044250563263, '9.0': -0.045328276444506044, '10.0': -0.046355245304943886, '11.0': -0.04742754704448977, '12.0': -0.04855240489948628, '13.0': -0.04973818048018215, '14.0': -0.05099449142964914, '15.0': -0.05233233139131697, '16.0': -0.05376418878833054, '17.0': -0.05530415920322573, '18.0': -0.05696804382915106, '19.0': -0.05877342340628571, '20.0': -0.060739693133084555, '21.0': -0.06288803917369115, '22.0': -0.06524133160207843, '23.0': -0.06782390216546523, '24.0': -0.0706611686851703, '25.0': -0.07377906231612108, '26.0': -0.0772032110156431, '27.0': -0.0809578350145202, '28.0': -0.08506432125566983, '29.0': -0.08953946761891465, '30.0': -0.09439342797373568, '31.0': -0.09962744765370789, '32.0': -0.1052315538961344, '33.0': -0.11118244884010318, '34.0': -0.11744192730862288, '35.0': -0.12395618341267836, '36.0': -0.130656350959359, '37.0': -0.13746052000464265, '38.0': -0.14427728047483818, '39.0': -0.15101058664530462, '40.0': -0.15756546709386596, '41.0': -0.16385389649950727, '42.0': -0.16980006626321656, '43.0': -0.17534437519283774, '44.0': -0.18044569336704186, '45.0': -0.18508176824039785, '46.0': -0.18924795521698062, '47.0': -0.19295468806757038, '48.0': -0.19622421555054625, '49.0': -0.1990871198739621, '50.0': -0.2015790331420932, '51.0': -0.20373782601198107, '52.0': -0.20560140044874894, '53.0': -0.20720610320709779, '54.0': -0.20858569967902849, '55.0': -0.20977080770389886, '56.0': -0.21078867963405765, '57.0': -0.21166322823536735, '58.0': -0.21241520886705859, '59.0': -0.21306249027244933, '60.0': -0.21362036521126532, '61.0': -0.21410186810516513, '62.0': -0.2145180792524061, '63.0': -0.21487840418116666, '64.0': -0.21519082289857128, '65.0': -0.21546210779369862, '66.0': -0.21569801136259326, '67.0': -0.2159034262329431, '68.0': -0.21608252055195848, '69.0': -0.2162388519356113, '70.0': -0.2163754630492552, '71.0': -0.2164949616237118, '72.0': -0.21659958738653748, '73.0': -0.21669126805327263, '74.0': -0.2167716662049961, '75.0': -0.2168422185900151, '76.0': -0.21690416913429686, '77.0': -0.21695859672772466, '78.0': -0.2170064386692339, '79.0': -0.21704851049989207, '80.0': -0.2170855228251371, '81.0': -0.2171180956218394, '82.0': -0.21714677043904737, '83.0': -0.21717202083006215, '84.0': -0.2171942612951468, '85.0': -0.21721385496639858, '86.0': -0.21723112022718166, '87.0': -0.21724633642643099, '88.0': -0.21725974882179477, '89.0': -0.21727157286391013, '90.0': -0.2172819979162334, '91.0': -0.21729119049007417, '92.0': -0.2172992970622283, '93.0': -0.2173064465324192, '94.0': -0.21731275236925232, '95.0': -0.21731831448627212, '96.0': -0.21732322088373326, '97.0': -0.21732754908665813, '98.0': -0.21733136740549436, '99.0': -0.21733473604207199, '100.0': -0.21733770806048452, '101.0': -0.21734033023989607, '102.0': -0.21734264382402718, '103.0': -0.21734468518014832, '104.0': -0.21734648637874815, '105.0': -0.21734807570361608, '106.0': -0.21734947810083968, '107.0': -0.21735071557414945, '108.0': -0.21735180753311176, '109.0': -0.21735277109986528, '110.0': -0.21735362137939207, '111.0': -0.21735437169770067, '112.0': -0.21735503381176602, '113.0': -0.21735561809460022, '114.0': -0.21735613369842127, '115.0': -0.21735658869852761, '116.0': -0.2173569902201726, '117.0': -0.21735734455045708, '118.0': -0.2173576572370166, '119.0': -0.21735793317506846, '120.0': -0.21735817668419544}</t>
+          <t>{'0.0': -0.007348271632418759, '1.0': -0.006970787731471546, '2.0': -0.00660923210606944, '3.0': -0.006263480221073609, '4.0': -0.005933337372777603, '5.0': -0.0056185463555485145, '6.0': -0.005318795124054175, '7.0': -0.005033724326309183, '8.0': -0.004762934601033773, '9.0': -0.004505993551365924, '10.0': -0.0042624423251620535, '11.0': -0.00403180174946139, '12.0': -0.003813577982766862, '13.0': -0.003607267663323525, '14.0': -0.0034123625443863463, '15.0': -0.003228353618469703, '16.0': -0.003054734741756172, '17.0': -0.0028910057772737596, '18.0': -0.00273667528122507, '19.0': -0.002591262761114586, '20.0': -0.0024543005372374776, '21.0': -0.0023253352408189256, '22.0': -0.0022039289828285355, '23.0': -0.0020896602273904217, '24.0': -0.0019821244029276522, '25.0': -0.0018809342828901357, '26.0': -0.001785720166218524, '27.0': -0.0016961298857312722, '28.0': -0.0016118286704864704, '29.0': -0.0015324988859304715, '30.0': -0.0014578396733941727, '31.0': -0.0013875665082696313, '32.0': -0.0013214106940475255, '33.0': -0.0012591188073432476, '34.0': -0.0012004521071201967, '35.0': -0.0011451859195291505, '36.0': -0.0010931090081459972, '37.0': -0.0010440229379057215, '38.0': -0.0009977414396818882, '39.0': -0.0009540897812746552, '40.0': -0.0009129041495014926, '41.0': -0.0008740310471592528, '42.0': -0.0008373267078072546, '43.0': -0.0008026565306282465, '44.0': -0.0007698945370090439, '45.0': -0.0007389228499744413, '46.0': -0.0007096311971753019, '47.0': -0.0006819164377647967, '48.0': -0.0006556821131985603, '49.0': -0.0006308380217489524, '50.0': -0.0006072998163261143, '51.0': -0.0005849886250399337, '52.0': -0.0005638306938213389, '53.0': -0.0005437570503219648, '54.0': -0.0005247031882515441, '55.0': -0.0005066087712693785, '56.0': -0.0004894173555141833, '57.0': -0.0004730761298489409, '58.0': -0.00045753567289789866, '59.0': -0.0004427497259620836, '60.0': -0.00042867498091707915, '61.0': -0.00041527088221916537, '62.0': -0.0004024994421799745, '63.0': -0.0003903250686939634, '64.0': -0.0003787144046430241, '65.0': -0.0003676361782330596, '66.0': -0.00035706106355876794, '67.0': -0.0003469615507249785, '68.0': -0.0003373118248905416, '69.0': -0.0003280876536408084, '70.0': -0.00031926628211911655, '71.0': -0.0003108263353950741, '72.0': -0.00030274772756824493, '73.0': -0.0002950115771446949, '74.0': -0.00028760012825081757, '75.0': -0.0002804966772750245, '76.0': -0.00027368550456278063, '77.0': -0.00026715181080473415, '78.0': -0.00026088165779100024, '79.0': -0.0002548619132234912, '80.0': -0.0002490801993009843, '81.0': -0.00024352484480589452, '82.0': -0.0002381848404518537, '83.0': -0.0002330497972573447, '84.0': -0.00022810990773145662, '85.0': -0.00022335590967586868, '86.0': -0.00021877905241609282, '87.0': -0.0002143710652926508, '88.0': -0.0002101241282498004, '89.0': -0.00020603084438004587, '90.0': -0.0002020842142814779, '91.0': -0.00019827761210481506, '92.0': -0.00019460476317098457, '93.0': -0.00019105972305058811, '94.0': -0.00018763685800135706, '95.0': -0.0001843308266739776, '96.0': -0.0001811365629940873, '97.0': -0.00017804926014252235, '98.0': -0.00017506435555787476, '99.0': -0.000172177516890577, '100.0': -0.00016938462884486641, '101.0': -0.00016668178084775965, '102.0': -0.00016406525548872682, '103.0': -0.0001615315176806947, '104.0': -0.00015907720448864605, '105.0': -0.00015669911558913497, '106.0': -0.00015439420431015676, '107.0': -0.00015215956921865758, '108.0': -0.00014999244621999417, '109.0': -0.0001478902011300849, '110.0': -0.0001458503226956655, '111.0': -0.00014387041602953834, '112.0': -0.00014194819643642618, '113.0': -0.0001400814836016726, '114.0': -0.0001382681961217715, '115.0': -0.00013650634635392348, '116.0': -0.0001347940355641975, '117.0': -0.00013312944935585743, '118.0': -0.00013151085336000882, '119.0': -0.00012993658917171235, '120.0': -0.00012840507051748665}</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.025, '1.0': 0.025, '2.0': 0.025, '3.0': 0.025, '4.0': 0.025, '5.0': 0.025, '6.0': 0.025, '7.0': 0.025, '8.0': 0.025, '9.0': 0.025, '10.0': 0.025, '11.0': 0.025, '12.0': 0.025, '13.0': 0.025, '14.0': 0.025, '15.0': 0.025, '16.0': 0.025, '17.0': 0.025, '18.0': 0.025, '19.0': 0.025, '20.0': 0.025, '21.0': 0.025, '22.0': 0.025, '23.0': 0.025, '24.0': 0.025, '25.0': 0.025, '26.0': 0.025, '27.0': 0.025, '28.0': 0.025, '29.0': 0.025, '30.0': 0.025, '31.0': 0.025, '32.0': 0.025, '33.0': 0.025, '34.0': 0.025, '35.0': 0.025, '36.0': 0.025, '37.0': 0.025, '38.0': 0.025, '39.0': 0.025, '40.0': 0.025, '41.0': 0.025, '42.0': 0.025, '43.0': 0.025, '44.0': 0.025, '45.0': 0.025, '46.0': 0.025, '47.0': 0.025, '48.0': 0.025, '49.0': 0.025, '50.0': 0.025, '51.0': 0.025, '52.0': 0.025, '53.0': 0.025, '54.0': 0.025, '55.0': 0.025, '56.0': 0.025, '57.0': 0.025, '58.0': 0.025, '59.0': 0.025, '60.0': 0.025, '61.0': 0.025, '62.0': 0.025, '63.0': 0.025, '64.0': 0.025, '65.0': 0.025, '66.0': 0.025, '67.0': 0.025, '68.0': 0.025, '69.0': 0.025, '70.0': 0.025, '71.0': 0.025, '72.0': 0.025, '73.0': 0.025, '74.0': 0.025, '75.0': 0.025, '76.0': 0.025, '77.0': 0.025, '78.0': 0.025, '79.0': 0.025, '80.0': 0.025, '81.0': 0.025, '82.0': 0.025, '83.0': 0.025, '84.0': 0.025, '85.0': 0.025, '86.0': 0.025, '87.0': 0.025, '88.0': 0.025, '89.0': 0.025, '90.0': 0.025, '91.0': 0.025, '92.0': 0.025, '93.0': 0.025, '94.0': 0.025, '95.0': 0.025, '96.0': 0.025, '97.0': 0.025, '98.0': 0.025, '99.0': 0.025, '100.0': 0.025, '101.0': 0.025, '102.0': 0.025, '103.0': 0.025, '104.0': 0.025, '105.0': 0.025, '106.0': 0.025, '107.0': 0.025, '108.0': 0.025, '109.0': 0.025, '110.0': 0.025, '111.0': 0.025, '112.0': 0.025, '113.0': 0.025, '114.0': 0.025, '115.0': 0.025, '116.0': 0.025, '117.0': 0.025, '118.0': 0.025, '119.0': 0.025, '120.0': 0.025}</t>
+          <t>{'0.0': -0.01, '1.0': -0.01, '2.0': -0.01, '3.0': -0.01, '4.0': -0.01, '5.0': -0.01, '6.0': -0.01, '7.0': -0.01, '8.0': -0.01, '9.0': -0.01, '10.0': -0.01, '11.0': -0.01, '12.0': -0.01, '13.0': -0.01, '14.0': -0.01, '15.0': -0.01, '16.0': -0.01, '17.0': -0.01, '18.0': -0.01, '19.0': -0.01, '20.0': -0.01, '21.0': -0.01, '22.0': -0.01, '23.0': -0.01, '24.0': -0.01, '25.0': -0.01, '26.0': -0.01, '27.0': -0.01, '28.0': -0.01, '29.0': -0.01, '30.0': -0.01, '31.0': -0.01, '32.0': -0.01, '33.0': -0.01, '34.0': -0.01, '35.0': -0.01, '36.0': -0.01, '37.0': -0.01, '38.0': -0.01, '39.0': -0.01, '40.0': -0.01, '41.0': -0.01, '42.0': -0.01, '43.0': -0.01, '44.0': -0.01, '45.0': -0.01, '46.0': -0.01, '47.0': -0.01, '48.0': -0.01, '49.0': -0.01, '50.0': -0.01, '51.0': -0.01, '52.0': -0.01, '53.0': -0.01, '54.0': -0.01, '55.0': -0.01, '56.0': -0.01, '57.0': -0.01, '58.0': -0.01, '59.0': -0.01, '60.0': -0.01, '61.0': -0.01, '62.0': -0.01, '63.0': -0.01, '64.0': -0.01, '65.0': -0.01, '66.0': -0.01, '67.0': -0.01, '68.0': -0.01, '69.0': -0.01, '70.0': -0.01, '71.0': -0.01, '72.0': -0.01, '73.0': -0.01, '74.0': -0.01, '75.0': -0.01, '76.0': -0.01, '77.0': -0.01, '78.0': -0.01, '79.0': -0.01, '80.0': -0.01, '81.0': -0.01, '82.0': -0.01, '83.0': -0.01, '84.0': -0.01, '85.0': -0.01, '86.0': -0.01, '87.0': -0.01, '88.0': -0.01, '89.0': -0.01, '90.0': -0.01, '91.0': -0.01, '92.0': -0.01, '93.0': -0.01, '94.0': -0.01, '95.0': -0.01, '96.0': -0.01, '97.0': -0.01, '98.0': -0.01, '99.0': -0.01, '100.0': -0.01, '101.0': -0.01, '102.0': -0.01, '103.0': -0.01, '104.0': -0.01, '105.0': -0.01, '106.0': -0.01, '107.0': -0.01, '108.0': -0.01, '109.0': -0.01, '110.0': -0.01, '111.0': -0.01, '112.0': -0.01, '113.0': -0.01, '114.0': -0.01, '115.0': -0.01, '116.0': -0.01, '117.0': -0.01, '118.0': -0.01, '119.0': -0.01, '120.0': -0.01}</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.5748518607243742, '1.0': 0.5765885090150049, '2.0': 0.5782787610705303, '3.0': 0.5799317397255594, '4.0': 0.5815562288700118, '5.0': 0.58316084056838, '6.0': 0.5847541817847677, '7.0': 0.5863450212151919, '8.0': 0.5879424567995252, '9.0': 0.5895560844680018, '10.0': 0.5911961685690331, '11.0': 0.592873814215507, '12.0': 0.5946011414559571, '13.0': 0.596391460694544, '14.0': 0.5982594481073796, '15.0': 0.6002213188769685, '16.0': 0.602294994822336, '17.0': 0.6045002613580909, '18.0': 0.6068589065804819, '19.0': 0.6093948325612615, '20.0': 0.6121341255550087, '21.0': 0.6151050677588199, '22.0': 0.6183380685551592, '23.0': 0.621865488013612, '24.0': 0.6257213202442298, '25.0': 0.6299406997239435, '26.0': 0.6345591911172931, '27.0': 0.6396118240314808, '28.0': 0.6451318407088695, '29.0': 0.6511491393012753, '30.0': 0.6576884204172686, '31.0': 0.6647670815758799, '32.0': 0.672392952644256, '33.0': 0.6805620218031074, '34.0': 0.6892563585183911, '35.0': 0.6984424855955074, '36.0': 0.7080704718993345, '37.0': 0.7180739962373236, '38.0': 0.7283715617999464, '39.0': 0.738868920259695, '40.0': 0.7494626095819816, '41.0': 0.76004434714843, '42.0': 0.7705058844001724, '43.0': 0.7807438527339727, '44.0': 0.7906641318437667, '45.0': 0.8001853507568244, '46.0': 0.8092412688837175, '47.0': 0.8177819473383734, '48.0': 0.825773775172434, '49.0': 0.8331985339774992, '50.0': 0.8400517535543434, '51.0': 0.8463406306317374, '52.0': 0.8520817616652009, '53.0': 0.8572988941992059, '54.0': 0.8620208438851796, '55.0': 0.8662796677217319, '56.0': 0.8701091358446287, '57.0': 0.8735435075954976, '58.0': 0.8766165929353112, '59.0': 0.879361065988588, '60.0': 0.881807991247448, '61.0': 0.8839865222878194, '62.0': 0.8859237356318689, '63.0': 0.8876445669934536, '64.0': 0.8891718224196121, '65.0': 0.8905262420615789, '66.0': 0.8917265990626457, '67.0': 0.8927898201485884, '68.0': 0.8937311179025895, '69.0': 0.8945641274361702, '70.0': 0.8953010423075152, '71.0': 0.8959527461805985, '72.0': 0.8965289379543079, '73.0': 0.897038249003421, '74.0': 0.8974883518342777, '75.0': 0.897886059926224, '76.0': 0.8982374188528119, '77.0': 0.8985477889915462, '78.0': 0.8988219202665245, '79.0': 0.8990640194465915, '80.0': 0.8992778105591914, '81.0': 0.8994665889893301, '82.0': 0.8996332698230609, '83.0': 0.8997804309723582, '84.0': 0.8999103515879733, '85.0': 0.9000250462322872, '86.0': 0.9001262952477337, '87.0': 0.9002156717196874, '88.0': 0.9002945653969477, '89.0': 0.9003642038987774, '90.0': 0.9004256715053243, '91.0': 0.9004799257983974, '92.0': 0.9005278123920557, '93.0': 0.900570077967312, '94.0': 0.900607381802365, '95.0': 0.9006403059690554, '96.0': 0.900669364347561, '97.0': 0.9006950105945369, '98.0': 0.9007176451848395, '99.0': 0.9007376216334984, '100.0': 0.9007552519925521, '101.0': 0.9007708117066278, '102.0': 0.9007845439015878, '103.0': 0.9007966631720599, '104.0': 0.9008073589261095, '105.0': 0.9008167983386122, '106.0': 0.9008251289589233, '107.0': 0.9008324810131799, '108.0': 0.9008389694368764, '109.0': 0.9008446956691935, '110.0': 0.9008497492365825, '111.0': 0.9008542091472201, '112.0': 0.9008581450923908, '113.0': 0.9008616182534941, '114.0': 0.9008646798386029, '115.0': 0.9008673511121507, '116.0': 0.9008694454152616, '117.0': 0.9008690344919168, '118.0': 0.9008492789989759, '119.0': 0.9006655112909947, '120.0': 0.8990864950217791}</t>
+          <t>{'0.0': 0.5234000408088527, '1.0': 0.5222875445483155, '2.0': 0.521185137104968, '3.0': 0.5200927444954173, '4.0': 0.5190101462061594, '5.0': 0.5179369807121956, '6.0': 0.516872751530818, '7.0': 0.5158168336528972, '8.0': 0.5147684802064167, '9.0': 0.5137268292213386, '10.0': 0.5126909103804846, '11.0': 0.5116596516573482, '12.0': 0.5106318857581208, '13.0': 0.5096063563012437, '14.0': 0.5085817236831722, '15.0': 0.5075565705934749, '16.0': 0.5065294071557218, '17.0': 0.5054986756827125, '18.0': 0.5044627550454279, '19.0': 0.5034199646646353, '20.0': 0.5023685681423848, '21.0': 0.5013067765577772, '22.0': 0.5002327514574357, '23.0': 0.49914460757618623, '24.0': 0.498040415327652, '25.0': 0.49691820310790247, '26.0': 0.4957759594580713, '27.0': 0.4946116351340676, '28.0': 0.4934231451332509, '29.0': 0.49220837072927687, '30.0': 0.4909651615673385, '31.0': 0.4896913378727599, '32.0': 0.4883846928263924, '33.0': 0.4870429951605393, '34.0': 0.48566399202921323, '35.0': 0.48424541220639566, '36.0': 0.4827849696656231, '37.0': 0.4812803675936377, '38.0': 0.4797293028899723, '39.0': 0.47812947120315946, '40.0': 0.47647857255268483, '41.0': 0.47477431758381267, '42.0': 0.4730144344998928, '43.0': 0.47119667671366694, '44.0': 0.46931883125532303, '45.0': 0.46737872797052793, '46.0': 0.46537424953630635, '47.0': 0.4633033423163474, '48.0': 0.46116402807001133, '49.0': 0.45895441652091823, '50.0': 0.4566727187814352, '51.0': 0.4543172616185938, '52.0': 0.4518865025349132, '53.0': 0.4493790456242502, '54.0': 0.44679365814814676, '55.0': 0.44412928776222116, '56.0': 0.4413850803050102, '57.0': 0.4385603980434133, '58.0': 0.43565483824965556, '59.0': 0.43266825196465764, '60.0': 0.4296007627821221, '61.0': 0.426452785466791, '62.0': 0.4232250441995774, '63.0': 0.41991859022199246, '64.0': 0.4165348186329742, '65.0': 0.41307548407337435, '66.0': 0.4095427150175471, '67.0': 0.40593902637832097, '68.0': 0.4022673301217641, '69.0': 0.3985309435822355, '70.0': 0.39473359516692186, '71.0': 0.3908794271430409, '72.0': 0.38697299521076495, '73.0': 0.38301926458124236, '74.0': 0.37902360230233156, '75.0': 0.3749917656051762, '76.0': 0.3709298860827451, '77.0': 0.3668444495569794, '78.0': 0.3627422715440898, '79.0': 0.35863046828742784, '80.0': 0.35451642339364875, '81.0': 0.35040775017968384, '82.0': 0.3463122499142819, '83.0': 0.3422378662171647, '84.0': 0.3381926359596099, '85.0': 0.33418463709070206, '86.0': 0.3302219338916197, '87.0': 0.32631252023406077, '88.0': 0.32246426148607266, '89.0': 0.31868483576701345, '90.0': 0.3149816753010176, '91.0': 0.3113619086532575, '92.0': 0.30783230465378236, '93.0': 0.30439921881838383, '94.0': 0.3010685430637873, '95.0': 0.2978456594849307, '96.0': 0.29473539891510436, '97.0': 0.29174200492574004, '98.0': 0.28886910384263376, '99.0': 0.28611968126090254, '100.0': 0.2834960654339932, '101.0': 0.28099991779505906, '102.0': 0.27863223074480686, '103.0': 0.27639333271159, '104.0': 0.2742829003603734, '105.0': 0.27229997770054115, '106.0': 0.27044300172164093, '107.0': 0.26870983407417476, '108.0': 0.26709779821224944, '109.0': 0.2656037213287622, '110.0': 0.26422398034376315, '111.0': 0.26295455115419314, '112.0': 0.2617910603192115, '113.0': 0.26072883834015037, '114.0': 0.25976297369749674, '115.0': 0.25888836682845345, '116.0': 0.25809978326629957, '117.0': 0.2573919052152925, '118.0': 0.2567593809002347, '119.0': 0.25619687110580736, '120.0': 0.25569909240497085}</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.575612586336766, '1.0': 0.5760070996348962, '2.0': 0.5764280471128048, '3.0': 0.5768778150620695, '4.0': 0.5773585752866451, '5.0': 0.5778724338421198, '6.0': 0.5784215666282543, '7.0': 0.5790083440952611, '8.0': 0.5796354469086267, '9.0': 0.5803059740148995, '10.0': 0.5810235441427953, '11.0': 0.5817923913421812, '12.0': 0.5826174546899044, '13.0': 0.5835044617571125, '14.0': 0.5844600048181077, '15.0': 0.5854916080663363, '16.0': 0.5866077832709599, '17.0': 0.5878180703444995, '18.0': 0.5891330581943987, '19.0': 0.5905643800113105, '20.0': 0.5921246758420535, '21.0': 0.5938275139801834, '22.0': 0.5956872615076663, '23.0': 0.597718893428065, '24.0': 0.5999377295125341, '25.0': 0.6023590885821483, '26.0': 0.6049978518881749, '27.0': 0.6078679309691535, '28.0': 0.6109816412596848, '29.0': 0.6143489910456675, '30.0': 0.617976906051677, '31.0': 0.6218684225055516, '32.0': 0.6260218948789588, '33.0': 0.6304302769683121, '34.0': 0.635080544363436, '35.0': 0.6399533302004232, '36.0': 0.6450228421033559, '37.0': 0.6502571147255386, '38.0': 0.6556186288248255, '39.0': 0.6610652955423103, '40.0': 0.6665517666861532, '41.0': 0.6720309934839159, '42.0': 0.6774559238812872, '43.0': 0.6827812084126957, '44.0': 0.6879647815348363, '45.0': 0.6929692003541853, '46.0': 0.6977626532189145, '47.0': 0.7023195907520895, '48.0': 0.7066209740913888, '49.0': 0.7106541723585318, '50.0': 0.7144125687631236, '51.0': 0.7178949500878783, '52.0': 0.7211047580523472, '53.0': 0.7240492754993083, '54.0': 0.726738808652069, '55.0': 0.7291859120292186, '56.0': 0.7314046876007199, '57.0': 0.7334101762424717, '58.0': 0.7352178484979118, '59.0': 0.736843193417767, '60.0': 0.7383013986909962, '61.0': 0.7396071120041955, '62.0': 0.7407742720697265, '63.0': 0.7418159975426416, '64.0': 0.7427445226640307, '65.0': 0.7435711695734426, '66.0': 0.7443063485665232, '67.0': 0.7449595789580661, '68.0': 0.7455395245327243, '69.0': 0.7460540387621538, '70.0': 0.7465102160092244, '71.0': 0.7469144458207273, '72.0': 0.7472724681370259, '73.0': 0.7475894278351752, '74.0': 0.7478699274892308, '75.0': 0.7481180775964259, '76.0': 0.7483375437982849, '77.0': 0.7485315908374294, '78.0': 0.7487031231475724, '79.0': 0.7488547220876095, '80.0': 0.7489886799103797, '81.0': 0.749107030610417, '82.0': 0.7492115778290938, '83.0': 0.7493039200149451, '84.0': 0.7493854730455537, '85.0': 0.7494574905181911, '86.0': 0.7495210819117731, '87.0': 0.74957722881437, '88.0': 0.7496267993998361, '89.0': 0.7496705613250895, '90.0': 0.7497091932068661, '91.0': 0.7497432948239782, '92.0': 0.7497733961785085, '93.0': 0.749799965537281, '94.0': 0.7498234165634896, '95.0': 0.7498441146376355, '96.0': 0.7498623824569933, '97.0': 0.7498785049936632, '98.0': 0.7498927338829061, '99.0': 0.7499052913058503, '100.0': 0.7499163734237451, '101.0': 0.7499261534147309, '102.0': 0.7499347841584755, '103.0': 0.7499424006090045, '104.0': 0.7499491218915448, '105.0': 0.7499550531551792, '106.0': 0.7499602872095027, '107.0': 0.7499649059702874, '108.0': 0.7499689817362878, '109.0': 0.7499725783168069, '110.0': 0.7499757520273717, '111.0': 0.7499785525688812, '112.0': 0.7499810238038066, '113.0': 0.7499832044414619, '114.0': 0.7499851286429543, '115.0': 0.7499868265551825, '116.0': 0.7499883247819369, '117.0': 0.7499896467974327, '118.0': 0.7499908132915062, '119.0': 0.7499918423023959, '120.0': 0.7499927477180894}</t>
+          <t>{'0.0': 0.534075738643978, '1.0': 0.5333915282021723, '2.0': 0.5327230015386873, '3.0': 0.5320707568967733, '4.0': 0.5314352699771807, '5.0': 0.5308168934797529, '6.0': 0.5302158573015988, '7.0': 0.5296322692821365, '8.0': 0.5290661163830207, '9.0': 0.5285172661910119, '10.0': 0.5279854686338631, '11.0': 0.5274703578029268, '12.0': 0.5269714537810621, '13.0': 0.5264881643801745, '14.0': 0.5260197866990303, '15.0': 0.5255655084185217, '16.0': 0.52512440875806, '17.0': 0.5246954590229632, '18.0': 0.5242775226784225, '19.0': 0.5238693548906452, '20.0': 0.523469601479986, '21.0': 0.5230767972341539, '22.0': 0.5226893635318364, '23.0': 0.5223056052282609, '24.0': 0.5219237067542517, '25.0': 0.5215417273792359, '26.0': 0.5211575955863574, '27.0': 0.5207691025044108, '28.0': 0.5203738943366732, '29.0': 0.5199694637209687, '30.0': 0.5195531399484387, '31.0': 0.5191220779606263, '32.0': 0.518673246035682, '33.0': 0.5182034120648983, '34.0': 0.5177091283106207, '35.0': 0.5171867145260745, '36.0': 0.5166322393072198, '37.0': 0.5160414995368873, '38.0': 0.5154099977728279, '39.0': 0.5147329174248829, '40.0': 0.5140050955633866, '41.0': 0.5132209932027658, '42.0': 0.5123746629130839, '43.0': 0.5114597136305722, '44.0': 0.5104692725692792, '45.0': 0.5093959441839132, '46.0': 0.508231766203855, '47.0': 0.5069681628563699, '48.0': 0.5055958955307556, '49.0': 0.5041050113134614, '50.0': 0.5024847900574984, '51.0': 0.500723690949585, '52.0': 0.4988092999185523, '53.0': 0.4967282797024433, '54.0': 0.4944663249733417, '55.0': 0.4920081256207591, '56.0': 0.4893373421255198, '57.0': 0.48643659791941074, '58.0': 0.48328749471422977, '59.0': 0.4798706579748346, '60.0': 0.47616582096051435, '61.0': 0.47215195699462376, '62.0': 0.4678074707342985, '63.0': 0.4631104600455826, '64.0': 0.45803906043911696, '65.0': 0.4525718836291011, '66.0': 0.44668856033671284, '67.0': 0.4403703946289972, '68.0': 0.4336011325233598, '69.0': 0.4263678410007283, '70.0': 0.4186618847773371, '71.0': 0.41047997720997137, '72.0': 0.4018252688796283, '73.0': 0.3927084234408235, '74.0': 0.38314861643389886, '75.0': 0.37317438061246816, '76.0': 0.36282421301625883, '77.0': 0.3521468568040964, '78.0': 0.34120117691341045, '79.0': 0.33005556453425694, '80.0': 0.3187868317391225, '81.0': 0.307478593483207, '82.0': 0.29621917694672856, '83.0': 0.2850991435177592, '84.0': 0.27420855104979824, '85.0': 0.26363411736157355, '86.0': 0.2534564648695546, '87.0': 0.24374762704280548, '88.0': 0.23456897889006512, '89.0': 0.22596971772982702, '90.0': 0.2179859716015025, '91.0': 0.21064055734981713, '92.0': 0.2039433559151733, '93.0': 0.19789222539883236, '94.0': 0.19247433808488948, '95.0': 0.18766780847948064, '96.0': 0.18344347575672945, '97.0': 0.17976671380761178, '98.0': 0.17659916192536743, '99.0': 0.173900294927302, '100.0': 0.1716287792087312, '101.0': 0.16974358751856414, '102.0': 0.1682048677833882, '103.0': 0.16697457878136013, '104.0': 0.16601691750530337, '105.0': 0.16529856999414025, '106.0': 0.1647888200449908, '107.0': 0.1644595495515964, '108.0': 0.16428516128056406, '109.0': 0.1642424506257796, '110.0': 0.164310448031975, '111.0': 0.16447024891484982, '112.0': 0.16470484340522693, '113.0': 0.1649989543278095, '114.0': 0.16533888858707232, '115.0': 0.1657124045814978, '116.0': 0.1661085963537752, '117.0': 0.16651779382801257, '118.0': 0.16693147759151852, '119.0': 0.16734220615375797, '120.0': 0.16774355337129407}</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.9560338125831673, '1.0': 0.9570780721444465, '2.0': 0.9580405126796698, '3.0': 0.9589326306861473, '4.0': 0.9597645556470267, '5.0': 0.9605452820810509, '6.0': 0.9612828705882055, '7.0': 0.9619846227571268, '8.0': 0.9626572339060471, '9.0': 0.9633069268449874, '10.0': 0.96393956914457, '11.0': 0.964560775749264, '12.0': 0.9651759981543955, '13.0': 0.9657906007522854, '14.0': 0.9664099243202888, '15.0': 0.9670393359515578, '16.0': 0.9676842640015011, '17.0': 0.9683502158304037, '18.0': 0.9690427752698899, '19.0': 0.969767575854094, '20.0': 0.9705302449954301, '21.0': 0.9713363135593771, '22.0': 0.972191084881235, '23.0': 0.9730994574374676, '24.0': 0.9740656965050116, '25.0': 0.9750931526837401, '26.0': 0.976183929652062, '27.0': 0.9773385104695462, '28.0': 0.9785553614101183, '29.0': 0.9798305444776199, '30.0': 0.9811573833270829, '31.0': 0.9825262399711987, '32.0': 0.9839244676888464, '33.0': 0.9853366041921876, '34.0': 0.986744853554006, '35.0': 0.9881298727290371, '36.0': 0.9894718300511247, '37.0': 0.9907516462891497, '38.0': 0.991952277185254, '39.0': 0.9930598663289032, '40.0': 0.9940646022686285, '41.0': 0.9949611580388893, '42.0': 0.9957486658329259, '43.0': 0.9964302643341832, '44.0': 0.9970123274732003, '45.0': 0.9975035229707749, '46.0': 0.997913850900312, '47.0': 0.9982537832174854, '48.0': 0.998533579172141, '49.0': 0.9987628041560467, '50.0': 0.998950041958784, '51.0': 0.9991027673726673, '52.0': 0.9992273369620013, '53.0': 0.9993290568915767, '54.0': 0.9994122935481473, '55.0': 0.9994806015752669, '56.0': 0.9995368524586313, '57.0': 0.9995833537503578, '58.0': 0.9996219540822009, '59.0': 0.9996541324573316, '60.0': 0.9996810722978076, '61.0': 0.9997037217558689, '62.0': 0.999722842208683, '63.0': 0.9997390469007355, '64.0': 0.9997528315484636, '65.0': 0.9997645984873531, '66.0': 0.9997746756865447, '67.0': 0.9997833317140549, '68.0': 0.9997907875224612, '69.0': 0.9997972257451011, '70.0': 0.9998027980455858, '71.0': 0.9998076309451907, '72.0': 0.9998118304590341, '73.0': 0.9998154857984651, '74.0': 0.9998186723397855, '75.0': 0.9998214540149368, '76.0': 0.9998238852453156, '77.0': 0.9998260125132102, '78.0': 0.9998278756447151, '79.0': 0.9998295088620038, '80.0': 0.9998309416504529, '81.0': 0.9998321994764898, '82.0': 0.9998333043845535, '83.0': 0.9998342754957105, '84.0': 0.9998351294259034, '85.0': 0.99983588063822, '86.0': 0.9998365417407493, '87.0': 0.9998371237393595, '88.0': 0.9998376362529708, '89.0': 0.9998380876974836, '90.0': 0.9998384854434064, '91.0': 0.9998388359513251, '92.0': 0.9998391448886328, '93.0': 0.9998394172303517, '94.0': 0.9998396573464094, '95.0': 0.9998398690773365, '96.0': 0.9998400558000453, '97.0': 0.9998402204850816, '98.0': 0.9998403657465293, '99.0': 0.9998404938855694, '100.0': 0.9998406069285473, '101.0': 0.9998407066602751, '102.0': 0.9998407946531964, '103.0': 0.9998408722929466, '104.0': 0.9998409408007742, '105.0': 0.9998410012532218, '106.0': 0.9998410545994119, '107.0': 0.9998411016762365, '108.0': 0.9998411432217145, '109.0': 0.9998411798867384, '110.0': 0.9998412122454093, '111.0': 0.9998412408041133, '112.0': 0.9998412660093239, '113.0': 0.9998412882528668, '114.0': 0.9998413078627395, '115.0': 0.9998413249764183, '116.0': 0.999841338411082, '117.0': 0.9998413359275427, '118.0': 0.9998412105848311, '119.0': 0.999840040145179, '120.0': 0.9998297160307379}</t>
+          <t>{'0.0': 0.9373365096902191, '1.0': 0.9366490698907243, '2.0': 0.9359499124095545, '3.0': 0.9352382808950142, '4.0': 0.9345133142295657, '5.0': 0.9337740445767378, '6.0': 0.9330193955087616, '7.0': 0.9322481801384626, '8.0': 0.9314590991801049, '9.0': 0.9306507388661573, '10.0': 0.929821568650074, '11.0': 0.9289699386288649, '12.0': 0.9280940766232939, '13.0': 0.9271920848576891, '14.0': 0.9262619361855151, '15.0': 0.9253014698107613, '16.0': 0.9243083864588755, '17.0': 0.9232802429542071, '18.0': 0.9222144461637671, '19.0': 0.9211082462694996, '20.0': 0.9199587293331741, '21.0': 0.9187628091195459, '22.0': 0.9175172181445416, '23.0': 0.9162184979160692, '24.0': 0.9148629883355959, '25.0': 0.9134468162291032, '26.0': 0.9119658829763884, '27.0': 0.910415851208175, '28.0': 0.9087921305411975, '29.0': 0.907089862322537, '30.0': 0.9053039033561935, '31.0': 0.9034288085874361, '32.0': 0.9014588127241261, '33.0': 0.8993878107793281, '34.0': 0.8972093375264969, '35.0': 0.8949165458678312, '36.0': 0.8925021841286294, '37.0': 0.8899585723063517, '38.0': 0.8872775773234423, '39.0': 0.8844505873588199, '40.0': 0.8814684853654877, '41.0': 0.8783216219223845, '42.0': 0.8749997876190378, '43.0': 0.8714921852337322, '44.0': 0.8677874020418925, '45.0': 0.8638733826837314, '46.0': 0.8597374031315064, '47.0': 0.8553660464299173, '48.0': 0.8507451810411379, '49.0': 0.8458599428116373, '50.0': 0.8406947217938945, '51.0': 0.8352331554043819, '52.0': 0.8294581296807959, '53.0': 0.8233517907159911, '54.0': 0.8168955686906969, '55.0': 0.8100702172962202, '56.0': 0.8028558717223091, '57.0': 0.7952321287694739, '58.0': 0.7871781530085609, '59.0': 0.7786728132249999, '60.0': 0.7696948536145588, '61.0': 0.7602231042960229, '62.0': 0.7502367356196029, '63.0': 0.7397155604148836, '64.0': 0.7286403876695176, '65.0': 0.7169934300872411, '66.0': 0.7047587664713384, '67.0': 0.6919228578578455, '68.0': 0.6784751137420351, '69.0': 0.6644085015946681, '70.0': 0.6497201891891662, '71.0': 0.6344122051542338, '72.0': 0.6184920987963192, '73.0': 0.6019735758491961, '74.0': 0.5848770827297988, '75.0': 0.5672303085070659, '76.0': 0.5490685715699468, '77.0': 0.5304350573723559, '78.0': 0.5113808750634738, '79.0': 0.4919649046154947, '80.0': 0.47225341241702024, '81.0': 0.4523194221742215, '82.0': 0.4322418390619893, '83.0': 0.412104337826525, '84.0': 0.391994039133583, '85.0': 0.3720000118541075, '86.0': 0.35221165104305313, '87.0': 0.33271699097197704, '88.0': 0.31360101874367174, '89.0': 0.2949440560464378, '90.0': 0.276820274172181, '91.0': 0.25929640063362674, '92.0': 0.24243066510802225, '93.0': 0.22627201891308008, '94.0': 0.21085964695077825, '95.0': 0.19622277532035465, '96.0': 0.18238076285757027, '97.0': 0.1693434517912975, '98.0': 0.1571117423396749, '99.0': 0.14567834888747444, '100.0': 0.13502869154453662, '101.0': 0.12514187622383466, '102.0': 0.11599171849128959, '103.0': 0.10754777075606853, '104.0': 0.09977631823618915, '105.0': 0.09264131589163405, '106.0': 0.08610524556498916, '107.0': 0.08012987940614286, '108.0': 0.07467694190261182, '109.0': 0.06970866823645244, '110.0': 0.06518826110551507, '111.0': 0.06108025154359287, '112.0': 0.057350771690579505, '113.0': 0.05396774899405221, '114.0': 0.05090103209454211, '115.0': 0.04812245879969235, '116.0': 0.045605876229923126, '117.0': 0.043327122553394715, '118.0': 0.04126397883886235, '119.0': 0.03939609854073761, '120.0': 0.03770492107107726}</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.8033839987789194, '1.0': 0.8086025631685287, '2.0': 0.813851420981834, '3.0': 0.8191255572834651, '4.0': 0.8244196825777524, '5.0': 0.8297282426331698, '6.0': 0.8350454309128172, '7.0': 0.8403652036950986, '8.0': 0.8456812979395185, '9.0': 0.8509872519193185, '10.0': 0.8562764286057943, '11.0': 0.8615420417490098, '12.0': 0.8667771845568173, '13.0': 0.8719748608293492, '14.0': 0.8771280183602601, '15.0': 0.8822295843699791, '16.0': 0.8872725026911141, '17.0': 0.8922497723830654, '18.0': 0.897154487413041, '19.0': 0.9019798770051778, '20.0': 0.9067193462295048, '21.0': 0.9113665163790947, '22.0': 0.9159152646678521, '23.0': 0.9203597627737723, '24.0': 0.9246945137537037, '25.0': 0.9289143868660223, '26.0': 0.9330146498572178, '27.0': 0.936990998297043, '28.0': 0.9408395815840747, '29.0': 0.9445570252885935, '30.0': 0.9481404495516069, '31.0': 0.9515874833164344, '32.0': 0.9548962742312115, '33.0': 0.9580654941254292, '34.0': 0.9610943400296924, '35.0': 0.9639825307736574, '36.0': 0.9667302992610702, '37.0': 0.9693383805815412, '38.0': 0.9718079961748272, '39.0': 0.9741408343138565, '40.0': 0.9763390272165777, '41.0': 0.9784051251332688, '42.0': 0.9803420677847583, '43.0': 0.982153153547888, '44.0': 0.9838420067974969, '45.0': 0.9854125438195052, '46.0': 0.9868689377077291, '47.0': 0.9882155826484919, '48.0': 0.9894570579825961, '49.0': 0.9905980924146656, '50.0': 0.9916435287160447, '51.0': 0.9925982892403316, '52.0': 0.9934673425410365, '53.0': 0.9942556713496883, '54.0': 0.9949682421407087, '55.0': 0.9956099764772592, '56.0': 0.9961857243006262, '57.0': 0.996700239295061, '58.0': 0.9971581564307115, '59.0': 0.9975639717596696, '60.0': 0.9979220245143816, '61.0': 0.9982364815338227, '62.0': 0.9985113240209098, '63.0': 0.9987503366145641, '64.0': 0.9989570987414805, '65.0': 0.9991349781958644, '66.0': 0.9992871268799488, '67.0': 0.9994164786237989, '68.0': 0.9995257489895508, '69.0': 0.99961743695265, '70.0': 0.999693828340706, '71.0': 0.9997570008992036, '72.0': 0.9998088308424695, '73.0': 0.9998510007380779, '74.0': 0.9998850085633946, '75.0': 0.9999121777644526, '76.0': 0.9999336681400883, '77.0': 0.9999504873686216, '78.0': 0.9999635029907257, '79.0': 0.9999734546609218, '80.0': 0.9999809664817854, '81.0': 0.9999865592398374, '82.0': 0.9999906623705146, '83.0': 0.999993625491768, '84.0': 0.9999957293617541, '85.0': 0.9999971961356036, '86.0': 0.9999981988190003, '87.0': 0.9999988698416962, '88.0': 0.999999308701276, '89.0': 0.9999995886554639, '90.0': 0.9999997624688541, '91.0': 0.9999998672458816, '92.0': 0.999999928404905, '93.0': 0.9999999628673016, '94.0': 0.9999999815495972, '95.0': 0.9999999912552986, '96.0': 0.9999999960660941, '97.0': 0.9999999983297501, '98.0': 0.9999999993350541, '99.0': 0.9999999997536428, '100.0': 0.9999999999157998, '101.0': 0.9999999999737227, '102.0': 0.9999999999926017, '103.0': 0.9999999999981475, '104.0': 0.9999999999995944, '105.0': 0.999999999999924, '106.0': 0.9999999999999881, '107.0': 0.9999999999999984, '108.0': 0.9999999999999999, '109.0': 1.0, '110.0': 1.0, '111.0': 1.0, '112.0': 1.0, '113.0': 1.0, '114.0': 1.0, '115.0': 1.0, '116.0': 1.0, '117.0': 1.0, '118.0': 1.0, '119.0': 1.0, '120.0': 1.0}</t>
+          <t>{'0.0': 0.5533843295962296, '1.0': 0.5482007916777496, '2.0': 0.5430567264289197, '3.0': 0.5379562904581359, '4.0': 0.5329033501025355, '5.0': 0.5279014826382472, '6.0': 0.5229539792078113, '7.0': 0.5180638492882009, '8.0': 0.513233826523352, '9.0': 0.5084663757480418, '10.0': 0.503763701034995, '11.0': 0.49912775460386677, '12.0': 0.49456024643892293, '13.0': 0.49006265447148883, '14.0': 0.4856362351932544, '15.0': 0.4812820345770559, '16.0': 0.47700089919255684, '17.0': 0.4727934874151051, '18.0': 0.46866028063679344, '19.0': 0.4646015943992227, '20.0': 0.4606175893775689, '21.0': 0.4567082821551602, '22.0': 0.4528735557368418, '23.0': 0.44911316975786264, '24.0': 0.44542677035284894, '25.0': 0.4418138996566107, '26.0': 0.4382740049150527, '27.0': 0.4348064471903473, '28.0': 0.4314105096497879, '29.0': 0.4280854054323953, '30.0': 0.4248302850914404, '31.0': 0.42164424361459507, '32.0': 0.4185263270264729, '33.0': 0.4154755385809097, '34.0': 0.4124908445524951, '35.0': 0.40957117963864675, '36.0': 0.40671545198494696, '37.0': 0.40392254784758, '38.0': 0.40119133590754924, '39.0': 0.3985206712519474, '40.0': 0.3959093990379385, '41.0': 0.39335635785529965, '42.0': 0.39086038280341284, '43.0': 0.38842030829848934, '44.0': 0.38603497062659853, '45.0': 0.383703210257759, '46.0': 0.38142387393596, '47.0': 0.37919581655953355, '48.0': 0.3770179028657896, '49.0': 0.3748890089332967, '50.0': 0.3728080235146206, '51.0': 0.3707738492117566, '52.0': 0.36878540350589467, '53.0': 0.36684161965256895, '54.0': 0.3649414474526465, '55.0': 0.3630838539090289, '56.0': 0.36126782377836714, '57.0': 0.35949236002653007, '58.0': 0.35775648419602635, '59.0': 0.35605923669305634, '60.0': 0.3543996770013654, '61.0': 0.3527768838295909, '62.0': 0.35118995519833196, '63.0': 0.3496380084727344, '64.0': 0.34812018034596665, '65.0': 0.346635626778569, '66.0': 0.34518352289828536, '67.0': 0.34376306286463687, '68.0': 0.3423734597021665, '69.0': 0.3410139451059729, '70.0': 0.3396837692228641, '71.0': 0.3383822004111858, '72.0': 0.3371085249821295, '73.0': 0.33586204692508637, '74.0': 0.3346420876193926, '75.0': 0.3334479855346087, '76.0': 0.33227909592128146, '77.0': 0.33113479049396494, '78.0': 0.33001445710810834, '79.0': 0.32891749943227216, '80.0': 0.3278433366169893, '81.0': 0.3267914029614621, '82.0': 0.32576114757916574, '83.0': 0.32475203406331743, '84.0': 0.32376354015307274, '85.0': 0.322795157401215, '86.0': 0.32184639084401934, '87.0': 0.3209167586738949, '88.0': 0.3200057919153385, '89.0': 0.31911303410466385, '90.0': 0.31823804097391495, '91.0': 0.317380380139316, '92.0': 0.3165396307945581, '93.0': 0.3157153834091831, '94.0': 0.31490723943227816, '95.0': 0.31411481100166083, '96.0': 0.3133377206587005, '97.0': 0.3125756010688892, '98.0': 0.3118280947482499, '99.0': 0.31109485379564406, '100.0': 0.31037553963101855, '101.0': 0.30966982273961075, '102.0': 0.3089773824221156, '103.0': 0.3082979065507988, '104.0': 0.307631091331529, '105.0': 0.3069766410716876, '106.0': 0.3063342679539052, '107.0': 0.3057036918155623, '108.0': 0.30508463993398377, '109.0': 0.30447684681725173, '110.0': 0.3038800540005502, '111.0': 0.3032940098479544, '112.0': 0.30271846935957003, '113.0': 0.3021531939839246, '114.0': 0.3015979514355105, '115.0': 0.3010525155173762, '116.0': 0.3005166659486601, '117.0': 0.29999018819696066, '118.0': 0.29947287331543415, '119.0': 0.2989645177845129, '120.0': 0.298464923358134}</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>{'0.0': 4.479474224285478e-07, '1.0': 0.09998924821278575, '2.0': 0.19997907327557632, '3.0': 0.2999697790950047, '4.0': 0.39996124911959413, '5.0': 0.49995338843315584, '6.0': 0.5999461193097709, '7.0': 0.6999393778094845, '8.0': 0.7999331111489519, '9.0': 0.8999272756531757, '10.0': 0.9999218351452979, '11.0': 1.09991675966761, '12.0': 1.1999120244528811, '13.0': 1.299907609083834, '14.0': 1.3999034967921933, '15.0': 1.4998996738587413, '16.0': 1.5998961290833145, '17.0': 1.699892853299569, '18.0': 1.7998898389142717, '19.0': 1.8998870794555074, '20.0': 1.9998845691189968, '21.0': 2.0998823023072197, '22.0': 2.1998802731625733, '23.0': 2.2998784751035113, '24.0': 2.3998769003814497, '25.0': 2.499875539685447, '26.0': 2.5998743818301553, '27.0': 2.699873413568186, '28.0': 2.799872619568363, '29.0': 2.8998719825935537, '30.0': 2.9998714838938922, '31.0': 3.0998711038032054, '32.0': 3.1998708224915697, '33.0': 3.299870620792248, '34.0': 3.3998704809968343, '35.0': 3.4998703875082255, '36.0': 3.5998703272627055, '37.0': 3.699870289877004, '38.0': 3.7998702675318152, '39.0': 3.8998702546526407, '40.0': 3.999870247476992, '41.0': 4.099870243597942, '42.0': 4.199870241552763, '43.0': 4.299870240494007, '44.0': 4.399870239951357, '45.0': 4.499870239673273, '46.0': 4.599870239529179, '47.0': 4.6998702394527525, '48.0': 4.799870239410732, '49.0': 4.899870239386501, '50.0': 4.999870239371701, '51.0': 5.099870239362068, '52.0': 5.1998702393553735, '53.0': 5.299870239350419, '54.0': 5.3998702393465345, '55.0': 5.499870239343334, '56.0': 5.5998702393405875, '57.0': 5.699870239338151, '58.0': 5.79987023933593, '59.0': 5.8998702393338665, '60.0': 5.9998702393319165, '61.0': 6.099870239330055, '62.0': 6.1998702393282565, '63.0': 6.29987023932651, '64.0': 6.3998702393248035, '65.0': 6.49987023932313, '66.0': 6.599870239321481, '67.0': 6.699870239319853, '68.0': 6.799870239318241, '69.0': 6.899870239316645, '70.0': 6.999870239315059, '71.0': 7.099870239313484, '72.0': 7.199870239311917, '73.0': 7.299870239310356, '74.0': 7.399870239308801, '75.0': 7.499870239307251, '76.0': 7.599870239305706, '77.0': 7.699870239304165, '78.0': 7.799870239302627, '79.0': 7.899870239301091, '80.0': 7.999870239299558, '81.0': 8.099870239298028, '82.0': 8.1998702392965, '83.0': 8.299870239294972, '84.0': 8.399870239293447, '85.0': 8.499870239291923, '86.0': 8.599870239290398, '87.0': 8.699870239288876, '88.0': 8.799870239287355, '89.0': 8.899870239285832, '90.0': 8.999870239284313, '91.0': 9.099870239282792, '92.0': 9.199870239281271, '93.0': 9.299870239279752, '94.0': 9.399870239278233, '95.0': 9.499870239276714, '96.0': 9.599870239275196, '97.0': 9.699870239273679, '98.0': 9.799870239272161, '99.0': 9.899870239270644, '100.0': 9.999870239269127, '101.0': 10.09987023926761, '102.0': 10.199870239266092, '103.0': 10.299870239264575, '104.0': 10.399870239263057, '105.0': 10.49987023926154, '106.0': 10.599870239260023, '107.0': 10.699870239258505, '108.0': 10.799870239256988, '109.0': 10.89987023925547, '110.0': 10.999870239253955, '111.0': 11.09987023925244, '112.0': 11.199870239250926, '113.0': 11.29987023924941, '114.0': 11.399870239247894, '115.0': 11.499870239246379, '116.0': 11.599870239244863, '117.0': 11.699870239243348, '118.0': 11.799870239241832, '119.0': 11.899870239240318, '120.0': 11.9998702392388}</t>
+          <t>{'0.0': 4.479474224285478e-07, '1.0': 4.479474224285478e-07, '2.0': 4.479474224285478e-07, '3.0': 4.479474224285478e-07, '4.0': 4.479474224285478e-07, '5.0': 4.479474224285478e-07, '6.0': 4.479474224285478e-07, '7.0': 4.479474224285478e-07, '8.0': 4.479474224285478e-07, '9.0': 4.479474224285478e-07, '10.0': 4.479474224285478e-07, '11.0': 4.479474224285478e-07, '12.0': 4.479474224285478e-07, '13.0': 4.479474224285478e-07, '14.0': 4.479474224285478e-07, '15.0': 4.479474224285478e-07, '16.0': 4.479474224285478e-07, '17.0': 4.479474224285478e-07, '18.0': 4.479474224285478e-07, '19.0': 4.479474224285478e-07, '20.0': 4.479474224285478e-07, '21.0': 4.479474224285478e-07, '22.0': 4.479474224285478e-07, '23.0': 4.479474224285478e-07, '24.0': 4.479474224285478e-07, '25.0': 4.479474224285478e-07, '26.0': 4.479474224285478e-07, '27.0': 4.479474224285478e-07, '28.0': 4.479474224285478e-07, '29.0': 4.479474224285478e-07, '30.0': 4.479474224285478e-07, '31.0': 4.479474224285478e-07, '32.0': 4.479474224285478e-07, '33.0': 4.479474224285478e-07, '34.0': 4.479474224285478e-07, '35.0': 4.479474224285478e-07, '36.0': 4.479474224285478e-07, '37.0': 4.479474224285478e-07, '38.0': 4.479474224285478e-07, '39.0': 4.479474224285478e-07, '40.0': 4.479474224285478e-07, '41.0': 4.479474224285478e-07, '42.0': 4.479474224285478e-07, '43.0': 4.479474224285478e-07, '44.0': 4.479474224285478e-07, '45.0': 4.479474224285478e-07, '46.0': 4.479474224285478e-07, '47.0': 4.479474224285478e-07, '48.0': 4.479474224285478e-07, '49.0': 4.479474224285478e-07, '50.0': 4.479474224285478e-07, '51.0': 4.479474224285478e-07, '52.0': 4.479474224285478e-07, '53.0': 4.479474224285478e-07, '54.0': 4.479474224285478e-07, '55.0': 4.479474224285478e-07, '56.0': 4.479474224285478e-07, '57.0': 4.479474224285478e-07, '58.0': 4.479474224285478e-07, '59.0': 4.479474224285478e-07, '60.0': 4.479474224285478e-07, '61.0': 4.479474224285478e-07, '62.0': 4.479474224285478e-07, '63.0': 4.479474224285478e-07, '64.0': 4.479474224285478e-07, '65.0': 4.479474224285478e-07, '66.0': 4.479474224285478e-07, '67.0': 4.479474224285478e-07, '68.0': 4.479474224285478e-07, '69.0': 4.479474224285478e-07, '70.0': 4.479474224285478e-07, '71.0': 4.479474224285478e-07, '72.0': 4.479474224285478e-07, '73.0': 4.479474224285478e-07, '74.0': 4.479474224285478e-07, '75.0': 4.479474224285478e-07, '76.0': 4.479474224285478e-07, '77.0': 4.479474224285478e-07, '78.0': 4.479474224285478e-07, '79.0': 4.479474224285478e-07, '80.0': 4.479474224285478e-07, '81.0': 4.479474224285478e-07, '82.0': 4.479474224285478e-07, '83.0': 4.479474224285478e-07, '84.0': 4.479474224285478e-07, '85.0': 4.479474224285478e-07, '86.0': 4.479474224285478e-07, '87.0': 4.479474224285478e-07, '88.0': 4.479474224285478e-07, '89.0': 4.479474224285478e-07, '90.0': 4.479474224285478e-07, '91.0': 4.479474224285478e-07, '92.0': 4.479474224285478e-07, '93.0': 4.479474224285478e-07, '94.0': 4.479474224285478e-07, '95.0': 4.479474224285478e-07, '96.0': 4.479474224285478e-07, '97.0': 4.479474224285478e-07, '98.0': 4.479474224285478e-07, '99.0': 4.479474224285478e-07, '100.0': 4.479474224285478e-07, '101.0': 4.479474224285478e-07, '102.0': 4.479474224285478e-07, '103.0': 4.479474224285478e-07, '104.0': 4.479474224285478e-07, '105.0': 4.479474224285478e-07, '106.0': 4.479474224285478e-07, '107.0': 4.479474224285478e-07, '108.0': 4.479474224285478e-07, '109.0': 4.479474224285478e-07, '110.0': 4.479474224285478e-07, '111.0': 4.479474224285478e-07, '112.0': 4.479474224285478e-07, '113.0': 4.479474224285478e-07, '114.0': 4.479474224285478e-07, '115.0': 4.479474224285478e-07, '116.0': 4.479474224285478e-07, '117.0': 4.479474224285478e-07, '118.0': 4.479474224285478e-07, '119.0': 4.479474224285478e-07, '120.0': 4.479474224285478e-07}</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.7878021202248422, '1.0': 0.7854094555334636, '2.0': 0.7829935498581877, '3.0': 0.7805510951546755, '4.0': 0.7780778503462746, '5.0': 0.7755685101410912, '6.0': 0.7730165635514481, '7.0': 0.7704141422923435, '8.0': 0.7677518595170609, '9.0': 0.7650186397233378, '10.0': 0.7622015411595935, '11.0': 0.7592855727108967, '12.0': 0.7562535080885513, '13.0': 0.7530857012318712, '14.0': 0.7497599082081361, '15.0': 0.7462511226222341, '16.0': 0.742531433675112, '17.0': 0.7385699185843034, '18.0': 0.7343325841226803, '19.0': 0.729782375524149, '20.0': 0.7248792748604108, '21.0': 0.7195805150210496, '22.0': 0.713840939293426, '23.0': 0.7076135397070474, '24.0': 0.7008502090055913, '25.0': 0.6935027402935605, '26.0': 0.6855241037663048, '27.0': 0.6768700199811242, '28.0': 0.667500832373622, '29.0': 0.6573836570008457, '30.0': 0.6464947544282308, '31.0': 0.6348220282765242, '32.0': 0.6223675101843795, '33.0': 0.6091496471783978, '34.0': 0.5952051723711673, '35.0': 0.5805903228082241, '36.0': 0.5653811783878564, '37.0': 0.5496729398704482, '38.0': 0.5335780437401165, '39.0': 0.5172231214947761, '40.0': 0.5007449373863669, '41.0': 0.4842855620652641, '42.0': 0.4679871380438806, '43.0': 0.45198664738727545, '44.0': 0.4364110915687855, '45.0': 0.42137343807770505, '46.0': 0.4069695892725862, '47.0': 0.39327650522973046, '48.0': 0.38035148592847934, '49.0': 0.368232508651558, '50.0': 0.35693943730807315, '51.0': 0.3464758769826559, '52.0': 0.33683143760188217, '53.0': 0.32798418831203346, '54.0': 0.3199031196935108, '55.0': 0.31255047499681393, '56.0': 0.30588385648429284, '57.0': 0.2998580533704191, '58.0': 0.2944265708280974, '59.0': 0.28954286409756613, '60.0': 0.2851612982989863, '61.0': 0.2812378642979654, '62.0': 0.2777306854092324, '63.0': 0.27460035034697516, '64.0': 0.27181010595287297, '65.0': 0.2693259399015131, '66.0': 0.2671165795717752, '67.0': 0.2651534291137763, '68.0': 0.26341046277038294, '69.0': 0.2618640889199546, '70.0': 0.26049299617957344, '71.0': 0.259277990264567, '72.0': 0.2582018281183771, '73.0': 0.25724905406222986, '74.0': 0.25640584131223887, '75.0': 0.2556598411166242, '76.0': 0.25500004092452655, '77.0': 0.254416632362867, '78.0': 0.2539008893275205, '79.0': 0.253445056154914, '80.0': 0.25304224560123245, '81.0': 0.2526863461952487, '82.0': 0.2523719384286334, '83.0': 0.2520942191895117, '84.0': 0.2518489338193248, '85.0': 0.2516323151706925, '86.0': 0.2514410290579226, '87.0': 0.2512721255168462, '88.0': 0.2511229953227232, '89.0': 0.25099133125113754, '90.0': 0.2508750936049231, '91.0': 0.250772479568638, '92.0': 0.250681895989901, '93.0': 0.25060193522322316, '94.0': 0.25053135370638663, '95.0': 0.2504690529716176, '96.0': 0.2504140628236582, '97.0': 0.2503655264443112, '98.0': 0.25032268720816286, '99.0': 0.2502848770170387, '100.0': 0.250251505981463, '101.0': 0.2502220532960877, '102.0': 0.2501960591728777, '103.0': 0.2501731177109463, '104.0': 0.2501528705954655, '105.0': 0.25013500153015744, '106.0': 0.2501192313186835, '107.0': 0.25010531351984744, '108.0': 0.25009303061010757, '109.0': 0.2500821905944989, '110.0': 0.25007262401382524, '111.0': 0.2500641813019977, '112.0': 0.2500567304527068, '113.0': 0.2500501549593442, '114.0': 0.250044351996273, '115.0': 0.25003923081324286, '116.0': 0.25003471131803046, '117.0': 0.25003072282528416, '118.0': 0.2500272029521209, '119.0': 0.2500240966432833, '120.0': 0.25002135531068825}</t>
+          <t>{'0.0': 0.9075172799762731, '1.0': 0.9099416026874203, '2.0': 0.9123246028969807, '3.0': 0.91466392831692, '4.0': 0.9169575061168369, '5.0': 0.9192035383506698, '6.0': 0.9214004951399459, '7.0': 0.9235471059022647, '8.0': 0.9256423489174821, '9.0': 0.9276854395211349, '10.0': 0.9296758172059341, '11.0': 0.9316131318986784, '12.0': 0.9334972296626614, '13.0': 0.9353281380555367, '14.0': 0.9371060513505727, '15.0': 0.9388313158060617, '16.0': 0.9405044151440938, '17.0': 0.9421259563765497, '18.0': 0.9436966560935414, '19.0': 0.9452173273080078, '20.0': 0.9466888669300911, '21.0': 0.9481122439264581, '22.0': 0.9494884882030548, '23.0': 0.9508186802349324, '24.0': 0.9521039414537789, '25.0': 0.9533454253925904, '26.0': 0.954544309577442, '27.0': 0.9557017881484628, '28.0': 0.9568190651857709, '29.0': 0.9578973487111296, '30.0': 0.9589378453323296, '31.0': 0.9599417554946054, '32.0': 0.9609102693016633, '33.0': 0.9618445628679643, '34.0': 0.9627457951636513, '35.0': 0.9636151053138406, '36.0': 0.9644536103147747, '37.0': 0.9652624031304939, '38.0': 0.9660425511351197, '39.0': 0.9667950948674978, '40.0': 0.9675210470667505, '41.0': 0.9682213919591828, '42.0': 0.9688970847689373, '43.0': 0.9695490514267491, '44.0': 0.9701781884530944, '45.0': 0.9707853629939291, '46.0': 0.9713714129890453, '47.0': 0.9719371474548382, '48.0': 0.9724833468649554, '49.0': 0.9730107636138741, '50.0': 0.9735201225499461, '51.0': 0.9740121215658282, '52.0': 0.9744874322355083, '53.0': 0.9749467004883206, '54.0': 0.9753905473114404, '55.0': 0.9758195694733494, '56.0': 0.9762343402616729, '57.0': 0.9766354102296289, '58.0': 0.9770233079460735, '59.0': 0.9773985407448137, '60.0': 0.9777615954694656, '61.0': 0.97811293921069, '62.0': 0.9784530200331231, '63.0': 0.9787822676897614, '64.0': 0.9791010943219486, '65.0': 0.9794098951434531, '66.0': 0.9797090491074338, '67.0': 0.9799989195553536, '68.0': 0.9802798548471394, '69.0': 0.980552188972088, '70.0': 0.9808162421401934, '71.0': 0.9810723213537313, '72.0': 0.9813207209590602, '73.0': 0.9815617231787133, '74.0': 0.9817955986239579, '75.0': 0.9820226067880687, '76.0': 0.9822429965206342, '77.0': 0.9824570064832738, '78.0': 0.9826648655871811, '79.0': 0.9828667934129484, '80.0': 0.9830630006131568, '81.0': 0.9832536892982344, '82.0': 0.9834390534061005, '83.0': 0.9836192790561257, '84.0': 0.9837945448879395, '85.0': 0.9839650223856222, '86.0': 0.9841308761878136, '87.0': 0.9842922643842664, '88.0': 0.9844493387993682, '89.0': 0.9846022452631431, '90.0': 0.9847511238702369, '91.0': 0.9848961092273771, '92.0': 0.9850373306897875, '93.0': 0.9851749125870186, '94.0': 0.9853089744386516, '95.0': 0.9854396311603077, '96.0': 0.9855669932603879, '97.0': 0.9856911670279502, '98.0': 0.9858122547121186, '99.0': 0.9859303546933997, '100.0': 0.9860455616472728, '101.0': 0.9861579667004027, '102.0': 0.98626765757981, '103.0': 0.9863747187553207, '104.0': 0.9864792315756019, '105.0': 0.9865812743980824, '106.0': 0.9866809227130353, '107.0': 0.9867782492620965, '108.0': 0.9868733241514744, '109.0': 0.9869662149601006, '110.0': 0.9870569868429522, '111.0': 0.9871457026297745, '112.0': 0.9872324229194168, '113.0': 0.9873172061699853, '114.0': 0.9874001087850088, '115.0': 0.9874811851958032, '116.0': 0.9875604879402118, '117.0': 0.9876380677378895, '118.0': 0.9877139735622932, '119.0': 0.9877882527095309, '120.0': 0.9878609508642151}</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>{'0.0': 1.1231322816218636e-09, '1.0': 1.1231322816218636e-09, '2.0': 1.1231322816218636e-09, '3.0': 1.1231322816218636e-09, '4.0': 1.1231322816218636e-09, '5.0': 1.1231322816218636e-09, '6.0': 1.1231322816218636e-09, '7.0': 1.1231322816218636e-09, '8.0': 1.1231322816218636e-09, '9.0': 1.1231322816218636e-09, '10.0': 1.1231322816218636e-09, '11.0': 1.1231322816218636e-09, '12.0': 1.1231322816218636e-09, '13.0': 1.1231322816218636e-09, '14.0': 1.1231322816218636e-09, '15.0': 1.1231322816218636e-09, '16.0': 1.1231322816218636e-09, '17.0': 1.1231322816218636e-09, '18.0': 1.1231322816218636e-09, '19.0': 1.1231322816218636e-09, '20.0': 1.1231322816218636e-09, '21.0': 1.1231322816218636e-09, '22.0': 1.1231322816218636e-09, '23.0': 1.1231322816218636e-09, '24.0': 1.1231322816218636e-09, '25.0': 1.1231322816218636e-09, '26.0': 1.1231322816218636e-09, '27.0': 1.1231322816218636e-09, '28.0': 1.1231322816218636e-09, '29.0': 1.1231322816218636e-09, '30.0': 1.1231322816218636e-09, '31.0': 1.1231322816218636e-09, '32.0': 1.1231322816218636e-09, '33.0': 1.1231322816218636e-09, '34.0': 1.1231322816218636e-09, '35.0': 1.1231322816218636e-09, '36.0': 1.1231322816218636e-09, '37.0': 1.1231322816218636e-09, '38.0': 1.1231322816218636e-09, '39.0': 1.1231322816218636e-09, '40.0': 1.1231322816218636e-09, '41.0': 1.1231322816218636e-09, '42.0': 1.1231322816218636e-09, '43.0': 1.1231322816218636e-09, '44.0': 1.1231322816218636e-09, '45.0': 1.1231322816218636e-09, '46.0': 1.1231322816218636e-09, '47.0': 1.1231322816218636e-09, '48.0': 1.1231322816218636e-09, '49.0': 1.1231322816218636e-09, '50.0': 1.1231322816218636e-09, '51.0': 1.1231322816218636e-09, '52.0': 1.1231322816218636e-09, '53.0': 1.1231322816218636e-09, '54.0': 1.1231322816218636e-09, '55.0': 1.1231322816218636e-09, '56.0': 1.1231322816218636e-09, '57.0': 1.1231322816218636e-09, '58.0': 1.1231322816218636e-09, '59.0': 1.1231322816218636e-09, '60.0': 1.1231322816218636e-09, '61.0': 1.1231322816218636e-09, '62.0': 1.1231322816218636e-09, '63.0': 1.1231322816218636e-09, '64.0': 1.1231322816218636e-09, '65.0': 1.1231322816218636e-09, '66.0': 1.1231322816218636e-09, '67.0': 1.1231322816218636e-09, '68.0': 1.1231322816218636e-09, '69.0': 1.1231322816218636e-09, '70.0': 1.1231322816218636e-09, '71.0': 1.1231322816218636e-09, '72.0': 1.1231322816218636e-09, '73.0': 1.1231322816218636e-09, '74.0': 1.1231322816218636e-09, '75.0': 1.1231322816218636e-09, '76.0': 1.1231322816218636e-09, '77.0': 1.1231322816218636e-09, '78.0': 1.1231322816218636e-09, '79.0': 1.1231322816218636e-09, '80.0': 1.1231322816218636e-09, '81.0': 1.1231322816218636e-09, '82.0': 1.1231322816218636e-09, '83.0': 1.1231322816218636e-09, '84.0': 1.1231322816218636e-09, '85.0': 1.1231322816218636e-09, '86.0': 1.1231322816218636e-09, '87.0': 1.1231322816218636e-09, '88.0': 1.1231322816218636e-09, '89.0': 1.1231322816218636e-09, '90.0': 1.1231322816218636e-09, '91.0': 1.1231322816218636e-09, '92.0': 1.1231322816218636e-09, '93.0': 1.1231322816218636e-09, '94.0': 1.1231322816218636e-09, '95.0': 1.1231322816218636e-09, '96.0': 1.1231322816218636e-09, '97.0': 1.1231322816218636e-09, '98.0': 1.1231322816218636e-09, '99.0': 1.1231322816218636e-09, '100.0': 1.1231322816218636e-09, '101.0': 1.1231322816218636e-09, '102.0': 1.1231322816218636e-09, '103.0': 1.1231322816218636e-09, '104.0': 1.1231322816218636e-09, '105.0': 1.1231322816218636e-09, '106.0': 1.1231322816218636e-09, '107.0': 1.1231322816218636e-09, '108.0': 1.1231322816218636e-09, '109.0': 1.1231322816218636e-09, '110.0': 1.1231322816218636e-09, '111.0': 1.1231322816218636e-09, '112.0': 1.1231322816218636e-09, '113.0': 1.1231322816218636e-09, '114.0': 1.1231322816218636e-09, '115.0': 1.1231322816218636e-09, '116.0': 1.1231322816218636e-09, '117.0': 1.1231322816218636e-09, '118.0': 1.1231322816218636e-09, '119.0': 1.1231322816218636e-09, '120.0': 1.1231322816218636e-09}</t>
+          <t>{'0.0': 0.5000000011222521, '1.0': 0.5000000011222521, '2.0': 0.5000000011222521, '3.0': 0.5000000011222521, '4.0': 0.5000000011222521, '5.0': 0.5000000011222521, '6.0': 0.5000000011222521, '7.0': 0.5000000011222521, '8.0': 0.5000000011222521, '9.0': 0.5000000011222521, '10.0': 0.5000000011222521, '11.0': 0.5000000011222521, '12.0': 0.5000000011222521, '13.0': 0.5000000011222521, '14.0': 0.5000000011222521, '15.0': 0.5000000011222521, '16.0': 0.5000000011222521, '17.0': 0.5000000011222521, '18.0': 0.5000000011222521, '19.0': 0.5000000011222521, '20.0': 0.5000000011222521, '21.0': 0.5000000011222521, '22.0': 0.5000000011222521, '23.0': 0.5000000011222521, '24.0': 0.5000000011222521, '25.0': 0.5000000011222521, '26.0': 0.5000000011222521, '27.0': 0.5000000011222521, '28.0': 0.5000000011222521, '29.0': 0.5000000011222521, '30.0': 0.5000000011222521, '31.0': 0.5000000011222521, '32.0': 0.5000000011222521, '33.0': 0.5000000011222521, '34.0': 0.5000000011222521, '35.0': 0.5000000011222521, '36.0': 0.5000000011222521, '37.0': 0.5000000011222521, '38.0': 0.5000000011222521, '39.0': 0.5000000011222521, '40.0': 0.5000000011222521, '41.0': 0.5000000011222521, '42.0': 0.5000000011222521, '43.0': 0.5000000011222521, '44.0': 0.5000000011222521, '45.0': 0.5000000011222521, '46.0': 0.5000000011222521, '47.0': 0.5000000011222521, '48.0': 0.5000000011222521, '49.0': 0.5000000011222521, '50.0': 0.5000000011222521, '51.0': 0.5000000011222521, '52.0': 0.5000000011222521, '53.0': 0.5000000011222521, '54.0': 0.5000000011222521, '55.0': 0.5000000011222521, '56.0': 0.5000000011222521, '57.0': 0.5000000011222521, '58.0': 0.5000000011222521, '59.0': 0.5000000011222521, '60.0': 0.5000000011222521, '61.0': 0.5000000011222521, '62.0': 0.5000000011222521, '63.0': 0.5000000011222521, '64.0': 0.5000000011222521, '65.0': 0.5000000011222521, '66.0': 0.5000000011222521, '67.0': 0.5000000011222521, '68.0': 0.5000000011222521, '69.0': 0.5000000011222521, '70.0': 0.5000000011222521, '71.0': 0.5000000011222521, '72.0': 0.5000000011222521, '73.0': 0.5000000011222521, '74.0': 0.5000000011222521, '75.0': 0.5000000011222521, '76.0': 0.5000000011222521, '77.0': 0.5000000011222521, '78.0': 0.5000000011222521, '79.0': 0.5000000011222521, '80.0': 0.5000000011222521, '81.0': 0.5000000011222521, '82.0': 0.5000000011222521, '83.0': 0.5000000011222521, '84.0': 0.5000000011222521, '85.0': 0.5000000011222521, '86.0': 0.5000000011222521, '87.0': 0.5000000011222521, '88.0': 0.5000000011222521, '89.0': 0.5000000011222521, '90.0': 0.5000000011222521, '91.0': 0.5000000011222521, '92.0': 0.5000000011222521, '93.0': 0.5000000011222521, '94.0': 0.5000000011222521, '95.0': 0.5000000011222521, '96.0': 0.5000000011222521, '97.0': 0.5000000011222521, '98.0': 0.5000000011222521, '99.0': 0.5000000011222521, '100.0': 0.5000000011222521, '101.0': 0.5000000011222521, '102.0': 0.5000000011222521, '103.0': 0.5000000011222521, '104.0': 0.5000000011222521, '105.0': 0.5000000011222521, '106.0': 0.5000000011222521, '107.0': 0.5000000011222521, '108.0': 0.5000000011222521, '109.0': 0.5000000011222521, '110.0': 0.5000000011222521, '111.0': 0.5000000011222521, '112.0': 0.5000000011222521, '113.0': 0.5000000011222521, '114.0': 0.5000000011222521, '115.0': 0.5000000011222521, '116.0': 0.5000000011222521, '117.0': 0.5000000011222521, '118.0': 0.5000000011222521, '119.0': 0.5000000011222521, '120.0': 0.5000000011222521}</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
@@ -1326,22 +1326,22 @@
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.006595568240938154, '1.0': 0.0058866467575766634, '2.0': 0.005258629470801801, '3.0': 0.004701556799554252, '4.0': 0.004206798281542468, '5.0': 0.0037668626832271235, '6.0': 0.0033752362854603812, '7.0': 0.0030262452080678237, '8.0': 0.0027149381874733147, '9.0': 0.0024369867218921315, '10.0': 0.0021885999444355986, '11.0': 0.001966451975892902, '12.0': 0.0017676198488313921, '13.0': 0.0015895303872699995, '14.0': 0.0014299146764357173, '15.0': 0.0012867689700429286, '16.0': 0.0011583210629766416, '17.0': 0.0010430013097100232, '18.0': 0.0009394175972805563, '19.0': 0.0008463336897746587, '20.0': 0.0007626504521519029, '21.0': 0.0006873895375730243, '22.0': 0.0006196791864900852, '23.0': 0.0005587418395796573, '24.0': 0.0005038833118063413, '25.0': 0.0004544833129028758, '26.0': 0.00040998713151557675, '27.0': 0.0003698983271771539, '28.0': 0.0003337722969616874, '29.0': 0.00030121060283266887, '30.0': 0.00027185596189316374, '31.0': 0.0002453878154682898, '32.0': 0.00022151840458756178, '33.0': 0.00019998928933273596, '34.0': 0.00018056825794188214, '35.0': 0.00016304657875471085, '36.0': 0.00014723655423437565, '37.0': 0.00013296934157308593, '38.0': 0.00012009300891691055, '39.0': 0.00010847080014186883, '40.0': 9.79795844758824e-05, '41.0': 8.850847016683705e-05, '42.0': 7.995756391465658e-05, '43.0': 7.223685997137519e-05, '44.0': 6.526524471461848e-05, '45.0': 5.896960415635588e-05, '46.0': 5.328402329868309e-05, '47.0': 4.814906751260395e-05, '48.0': 4.3511137229390595e-05, '49.0': 3.932188820660043e-05, '50.0': 3.553771049230603e-05, '51.0': 3.211925996454701e-05, '52.0': 2.9031036992532844e-05, '53.0': 2.624100735537649e-05, '54.0': 2.372026107666514e-05, '55.0': 2.144270529597092e-05, '56.0': 1.93847877090203e-05, '57.0': 1.7525247474781125e-05, '58.0': 1.584489080974638e-05, '59.0': 1.432638878151593e-05, '60.0': 1.2954095070405458e-05, '61.0': 1.1713881696850947e-05, '62.0': 1.0592990919822132e-05, '63.0': 9.579901693035353e-06, '64.0': 8.664209230513364e-06, '65.0': 7.836516380477221e-06, '66.0': 7.088335637284171e-06, '67.0': 6.412000739419721e-06, '68.0': 5.800586906690164e-06, '69.0': 5.247838865574117e-06, '70.0': 4.748105896235089e-06, '71.0': 4.296283210025731e-06, '72.0': 3.887759037479732e-06, '73.0': 3.518366865629119e-06, '74.0': 3.184342321271849e-06, '75.0': 2.882284245109279e-06, '76.0': 2.6091195473587625e-06, '77.0': 2.36207147574774e-06, '78.0': 2.1386309623783184e-06, '79.0': 1.936530750201726e-06, '80.0': 1.7537220274865817e-06, '81.0': 1.5883533266980443e-06, '82.0': 1.4387514674085722e-06, '83.0': 1.3034043441217946e-06, '84.0': 1.1809453802635872e-06, '85.0': 1.0701394866363678e-06, '86.0': 9.698703773985962e-07, '87.0': 8.791291128407153e-07, '88.0': 7.970037498306048e-07, '89.0': 7.226699920703794e-07, '90.0': 6.553827437971727e-07, '91.0': 5.944684789427335e-07, '92.0': 5.393183475921326e-07, '93.0': 4.893819475215722e-07, '94.0': 4.441616970884965e-07, '95.0': 4.0320775063218406e-07, '96.0': 3.661134049259829e-07, '97.0': 3.3251094838648854e-07, '98.0': 3.0206791035158886e-07, '99.0': 2.7448367218019243e-07, '100.0': 2.494864049240597e-07, '101.0': 2.268303021524254e-07, '102.0': 2.062930791191242e-07, '103.0': 1.8767371312566894e-07, '104.0': 1.7079040137701895e-07, '105.0': 1.5547871551335746e-07, '106.0': 1.4158993361101935e-07, '107.0': 1.2898953294371296e-07, '108.0': 1.1755582790540231e-07, '109.0': 1.0717873843990589e-07, '110.0': 9.775867754191481e-08, '111.0': 8.920554545044368e-08, '112.0': 8.143782048719572e-08, '113.0': 7.438173749152455e-08, '114.0': 6.797054519225298e-08, '115.0': 6.21438346337655e-08, '116.0': 5.684693260565865e-08, '117.0': 5.2030352915011235e-08, '118.0': 4.7649300505270276e-08, '119.0': 4.366322337023831e-08, '120.0': 4.003540704511366e-08}</t>
+          <t>{'0.0': 0.006595568240938154, '1.0': 0.0068987897322617675, '2.0': 0.007217038091586803, '3.0': 0.007551130931248207, '4.0': 0.007901934579975123, '5.0': 0.008270367154672331, '6.0': 0.00865740182275615, '7.0': 0.009064070264891477, '8.0': 0.009491466348099498, '9.0': 0.00994075001925937, '10.0': 0.010413151428983525, '11.0': 0.010909975295695762, '12.0': 0.011432605519457573, '13.0': 0.011982510054649176, '14.0': 0.012561246049988928, '15.0': 0.013170465263537545, '16.0': 0.013811919759247948, '17.0': 0.014487467890248185, '18.0': 0.015199080572339152, '19.0': 0.015948847849109604, '20.0': 0.01673898574755711, '21.0': 0.017571843420106592, '22.0': 0.018449910565371708, '23.0': 0.01937582511584357, '24.0': 0.02035238117585003, '25.0': 0.021382537187518535, '26.0': 0.02246942429604537, '27.0': 0.023616354878208012, '28.0': 0.024826831189711462, '29.0': 0.02610455407752371, '30.0': 0.027453431692772534, '31.0': 0.028877588127962206, '32.0': 0.030381371889170006, '33.0': 0.031969364099443454, '34.0': 0.03364638631380912, '35.0': 0.03541750780912312, '36.0': 0.037288052193446386, '37.0': 0.039263603159797156, '38.0': 0.041350009188107384, '39.0': 0.043553386977152386, '40.0': 0.04588012336537861, '41.0': 0.04833687547619664, '42.0': 0.05093056879985741, '43.0': 0.05366839290095815, '44.0': 0.05655779441854114, '45.0': 0.05960646700537292, '46.0': 0.06282233783517238, '47.0': 0.06621355029227033, '48.0': 0.06978844244857546, '49.0': 0.07355552092900308, '50.0': 0.07752342977012577, '51.0': 0.08170091388917361, '52.0': 0.08609677680323763, '53.0': 0.09071983227323249, '54.0': 0.09557884959546781, '55.0': 0.10068249232709264, '56.0': 0.10603925031166916, '57.0': 0.11165736496884182, '58.0': 0.11754474792837122, '59.0': 0.12370889322409678, '60.0': 0.1301567834175048, '61.0': 0.13689479019267858, '62.0': 0.14392857015274063, '63.0': 0.15126295674994722, '64.0': 0.1589018494935931, '65.0': 0.16684810179716436, '66.0': 0.17510340904280736, '67.0': 0.18366819865020112, '68.0': 0.19254152413034203, '69.0': 0.20172096527374006, '70.0': 0.2112025367576893, '71.0': 0.22098060754889792, '72.0': 0.2310478335163711, '73.0': 0.24139510564608413, '74.0': 0.2520115161560367, '75.0': 0.26288434464169275, '76.0': 0.27399906613403224, '77.0': 0.28533938262466707, '78.0': 0.2968872792071733, '79.0': 0.30862310550723415, '80.0': 0.3205256825361482, '81.0': 0.3325724345165305, '82.0': 0.34473954461259926, '83.0': 0.3570021328703689, '84.0': 0.36933445405745535, '85.0': 0.3817101125114285, '86.0': 0.39410229058301727, '87.0': 0.4064839868182151, '88.0': 0.41882825968117204, '89.0': 0.4311084723937988, '90.0': 0.4432985343697935, '91.0': 0.45537313475638747, '92.0': 0.467307963766762, '93.0': 0.4790799177840585, '94.0': 0.490667284632758, '95.0': 0.5020499059284348, '96.0': 0.5132093140117702, '97.0': 0.5241288416236571, '98.0': 0.5347937031599572, '99.0': 0.5451910470314161, '100.0': 0.555309979322139, '101.0': 0.5651415595666083, '102.0': 0.5746787700318826, '103.0': 0.5839164603834486, '104.0': 0.5928512700198312, '105.0': 0.6014815306766914, '106.0': 0.6098071521240888, '107.0': 0.6178294939132111, '108.0': 0.6255512261767409, '109.0': 0.6329761824581969, '110.0': 0.6401092074500241, '111.0': 0.6469560023687004, '112.0': 0.6535229704989673, '113.0': 0.6598170652094207, '114.0': 0.6658456424883544, '115.0': 0.671616319781137, '116.0': 0.6771368426365871, '117.0': 0.6824149603964298, '118.0': 0.6874583118944905, '119.0': 0.6922743218750891, '120.0': 0.6968701085964463}</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.051759759299910356, '1.0': 0.04889325973594163, '2.0': 0.0462068201807902, '3.0': 0.043686839653122624, '4.0': 0.041320938843417844, '5.0': 0.03909784303343502, '6.0': 0.03700727468667423, '7.0': 0.03503985551708699, '8.0': 0.033187017646478856, '9.0': 0.03144092333449557, '10.0': 0.029794392691445033, '11.0': 0.028240838749656733, '12.0': 0.026774209262721522, '13.0': 0.025388934615340142, '14.0': 0.024079881253152875, '15.0': 0.022842310076950256, '16.0': 0.0216718392854295, '17.0': 0.020564411192537158, '18.0': 0.01951626258752744, '19.0': 0.01852389824688418, '20.0': 0.017584067246336765, '21.0': 0.016693741757823604, '22.0': 0.01585009805013547, '23.0': 0.015050499442986143, '24.0': 0.014292480992426101, '25.0': 0.013573735710919244, '26.0': 0.012892102148194343, '27.0': 0.012245553179331922, '28.0': 0.01163218586465059, '29.0': 0.011050212262008474, '30.0': 0.01049795108633341, '31.0': 0.009973820123722813, '32.0': 0.009476329318491497, '33.0': 0.009004074461253527, '34.0': 0.008555731414654025, '35.0': 0.00813005082085407, '36.0': 0.007725853241441076, '37.0': 0.007342024686196084, '38.0': 0.006977512492199338, '39.0': 0.006631321519181221, '40.0': 0.006302510630905996, '41.0': 0.005990189435778041, '42.0': 0.005693515262845468, '43.0': 0.005411690351994865, '44.0': 0.0051439592394318945, '45.0': 0.004889606321564562, '46.0': 0.004647953582184616, '47.0': 0.004418358469408357, '48.0': 0.004200211910220371, '49.0': 0.0039929364516803996, '50.0': 0.003795984518932205, '51.0': 0.0036088367811055364, '52.0': 0.0034310006170474674, '53.0': 0.003262008673568887, '54.0': 0.003101417509558798, '55.0': 0.0029488063199129924, '56.0': 0.002803775733753159, '57.0': 0.0026659466818862074, '58.0': 0.0025349593288775396, '59.0': 0.0024104720654924048, '60.0': 0.002292160557601841, '61.0': 0.0021797168479570175, '62.0': 0.0020728485075147685, '63.0': 0.001971277833247594, '64.0': 0.0018747410896001737, '65.0': 0.0017829877909604035, '66.0': 0.0016957800227018205, '67.0': 0.0016128917985255102, '68.0': 0.0015341084519864083, '69.0': 0.0014592260602320772, '70.0': 0.0013880508981137796, '71.0': 0.001320398920950187, '72.0': 0.0012560952743348452, '73.0': 0.0011949738294817491, '74.0': 0.0011368767426967279, '75.0': 0.0010816540376506663, '76.0': 0.0010291632092108889, '77.0': 0.0009792688476625844, '78.0': 0.0009318422822210589, '79.0': 0.0008867612428016813, '80.0': 0.000843909539073151, '81.0': 0.0008031767558775252, '82.0': 0.0007644579641518286, '83.0': 0.0007276534465357476, '84.0': 0.0006926684368956751, '85.0': 0.0006594128730383712, '86.0': 0.0006278011619276214, '87.0': 0.0005977519567553954, '88.0': 0.0005691879452543643, '89.0': 0.0005420356486715942, '90.0': 0.0005162252308552051, '91.0': 0.0004916903169350043, '92.0': 0.00046836782110550496, '93.0': 0.00044619778304647956, '94.0': 0.000425123212540605, '95.0': 0.00040508994187073616, '96.0': 0.00038604648560180976, '97.0': 0.00036794390737251065, '98.0': 0.0003507356933419488, '99.0': 0.00033437763195454107, '100.0': 0.000318827699704131, '101.0': 0.00030404595259468187, '102.0': 0.0002899944230106792, '103.0': 0.0002766370217246091, '104.0': 0.00026393944478397824, '105.0': 0.00025186908503197863, '106.0': 0.00024039494803005748, '107.0': 0.00022948757216130952, '108.0': 0.00021911895270526616, '109.0': 0.00020926246968570408, '110.0': 0.00019989281930221647, '111.0': 0.0001909859487671343, '112.0': 0.0001825189943768605, '113.0': 0.0001744702226570971, '114.0': 0.00016681897442790325, '115.0': 0.00015954561164338577, '116.0': 0.00015263146686776233, '117.0': 0.00014605879525610618, '118.0': 0.00013981072891572355, '119.0': 0.00013387123352912958, '120.0': 0.00012822506712626783}</t>
+          <t>{'0.0': 0.051759759299910356, '1.0': 0.05293884873154118, '2.0': 0.05414901209123505, '3.0': 0.05539125454540226, '4.0': 0.05666661932659545, '5.0': 0.05797618911575414, '6.0': 0.059321087446616814, '7.0': 0.0607024801285869, '8.0': 0.062121576683711856, '9.0': 0.063579631792745, '10.0': 0.06507794674449839, '11.0': 0.06661787088186759, '12.0': 0.06820080303699975, '13.0': 0.06982819294709075, '14.0': 0.07150154264122628, '15.0': 0.07322240778752022, '16.0': 0.07499239898855502, '17.0': 0.0768131830117841, '18.0': 0.07868648394011318, '19.0': 0.08061408422633927, '20.0': 0.08259782563349187, '21.0': 0.08463961004137993, '22.0': 0.0867414000978277, '23.0': 0.08890521969114958, '24.0': 0.09113315421842234, '25.0': 0.09342735062201345, '26.0': 0.09579001716468882, '27.0': 0.0982234229114076, '28.0': 0.10072989688368322, '29.0': 0.10331182685012759, '30.0': 0.10597165771455946, '31.0': 0.10871188946084827, '32.0': 0.11153507461154329, '33.0': 0.11444381515532094, '34.0': 0.11744075889643256, '35.0': 0.12052859517770215, '36.0': 0.12371004992725744, '37.0': 0.12698787997815805, '38.0': 0.13036486660947635, '39.0': 0.13384380825726833, '40.0': 0.13742751234434641, '41.0': 0.1411187861789001, '42.0': 0.14492042687393847, '43.0': 0.14883521024232196, '44.0': 0.1528658786259515, '45.0': 0.15701512762257563, '46.0': 0.16128559167980025, '47.0': 0.165679828533324, '48.0': 0.17020030247532913, '49.0': 0.17484936644936777, '50.0': 0.1796292429801646, '51.0': 0.18454200396051693, '52.0': 0.18958954933300434, '53.0': 0.19477358472154557, '54.0': 0.200095598086951, '55.0': 0.20555683550147572, '56.0': 0.21115827615990637, '57.0': 0.2169006067687802, '58.0': 0.2227841954807316, '59.0': 0.22880906556746541, '60.0': 0.2349748690521165, '61.0': 0.24128086054942247, '62.0': 0.24772587158967782, '63.0': 0.25430828572939396, '64.0': 0.2610260147772639, '65.0': 0.267876476487777, '66.0': 0.2748565740958782, '67.0': 0.2819626780835927, '68.0': 0.28919061058269685, '69.0': 0.29653563282540724, '70.0': 0.3039924360568133, '71.0': 0.3115551363174935, '72.0': 0.3192172734916394, '73.0': 0.32697181499429856, '74.0': 0.33481116444042774, '75.0': 0.34272717559783517, '76.0': 0.3507111718755079, '77.0': 0.3587539715382315, '78.0': 0.36684591876796024, '79.0': 0.3749769206126721, '80.0': 0.3831364897751688, '81.0': 0.39131379309866937, '82.0': 0.3994977055045326, '83.0': 0.4076768690318682, '84.0': 0.41583975652126576, '85.0': 0.4239747393777968, '86.0': 0.43207015874445154, '87.0': 0.44011439931904356, '88.0': 0.44809596495826365, '89.0': 0.45600355513482255, '90.0': 0.4638261412503153, '91.0': 0.4715530417601108, '92.0': 0.4791739950395055, '93.0': 0.48667922891439797, '94.0': 0.4940595257962299, '95.0': 0.5013062824005992, '96.0': 0.5084115630919045, '97.0': 0.5153681459820086, '98.0': 0.5221695610179188, '99.0': 0.5288101194197921, '100.0': 0.5352849339736051, '101.0': 0.5415899298391851, '102.0': 0.5477218457003336, '103.0': 0.5536782252552853, '104.0': 0.5594573992183771, '105.0': 0.5650584581731298, '106.0': 0.5704812167785802, '107.0': 0.575726169980508, '108.0': 0.5807944420134308, '109.0': 0.5856877290946193, '110.0': 0.5904082368053062, '111.0': 0.5949586132247496, '112.0': 0.5993418789286987, '113.0': 0.6035613549846452, '114.0': 0.6076205900723791, '115.0': 0.6115232878307758, '116.0': 0.6152732354821874, '117.0': 0.6188742347164161, '118.0': 0.6223300357297583, '119.0': 0.6256442752139775, '120.0': 0.6288204189784946}</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>{'0.0': 1, '1.0': 1, '2.0': 1, '3.0': 1, '4.0': 1, '5.0': 1, '6.0': 1, '7.0': 1, '8.0': 1, '9.0': 1, '10.0': 1, '11.0': 1, '12.0': 1, '13.0': 1, '14.0': 1, '15.0': 1, '16.0': 1, '17.0': 1, '18.0': 1, '19.0': 1, '20.0': 1, '21.0': 1, '22.0': 1, '23.0': 1, '24.0': 1, '25.0': 1, '26.0': 1, '27.0': 1, '28.0': 1, '29.0': 1, '30.0': 1, '31.0': 1, '32.0': 1, '33.0': 1, '34.0': 1, '35.0': 1, '36.0': 1, '37.0': 1, '38.0': 1, '39.0': 1, '40.0': 1, '41.0': 1, '42.0': 1, '43.0': 1, '44.0': 1, '45.0': 1, '46.0': 1, '47.0': 1, '48.0': 1, '49.0': 1, '50.0': 1, '51.0': 1, '52.0': 1, '53.0': 1, '54.0': 1, '55.0': 1, '56.0': 1, '57.0': 1, '58.0': 1, '59.0': 1, '60.0': 1, '61.0': 1, '62.0': 1, '63.0': 1, '64.0': 1, '65.0': 1, '66.0': 1, '67.0': 1, '68.0': 1, '69.0': 1, '70.0': 1, '71.0': 1, '72.0': 1, '73.0': 1, '74.0': 1, '75.0': 1, '76.0': 1, '77.0': 1, '78.0': 1, '79.0': 1, '80.0': 1, '81.0': 1, '82.0': 1, '83.0': 1, '84.0': 1, '85.0': 1, '86.0': 1, '87.0': 1, '88.0': 1, '89.0': 1, '90.0': 1, '91.0': 1, '92.0': 1, '93.0': 1, '94.0': 1, '95.0': 1, '96.0': 1, '97.0': 1, '98.0': 1, '99.0': 1, '100.0': 1, '101.0': 1, '102.0': 1, '103.0': 1, '104.0': 1, '105.0': 1, '106.0': 1, '107.0': 1, '108.0': 1, '109.0': 1, '110.0': 1, '111.0': 1, '112.0': 1, '113.0': 1, '114.0': 1, '115.0': 1, '116.0': 1, '117.0': 1, '118.0': 1, '119.0': 1, '120.0': 1}</t>
+          <t>{'0.0': 0, '1.0': 0, '2.0': 0, '3.0': 0, '4.0': 0, '5.0': 0, '6.0': 0, '7.0': 0, '8.0': 0, '9.0': 0, '10.0': 0, '11.0': 0, '12.0': 0, '13.0': 0, '14.0': 0, '15.0': 0, '16.0': 0, '17.0': 0, '18.0': 0, '19.0': 0, '20.0': 0, '21.0': 0, '22.0': 0, '23.0': 0, '24.0': 0, '25.0': 0, '26.0': 0, '27.0': 0, '28.0': 0, '29.0': 0, '30.0': 0, '31.0': 0, '32.0': 0, '33.0': 0, '34.0': 0, '35.0': 0, '36.0': 0, '37.0': 0, '38.0': 0, '39.0': 0, '40.0': 0, '41.0': 0, '42.0': 0, '43.0': 0, '44.0': 0, '45.0': 0, '46.0': 0, '47.0': 0, '48.0': 0, '49.0': 0, '50.0': 0, '51.0': 0, '52.0': 0, '53.0': 0, '54.0': 0, '55.0': 0, '56.0': 0, '57.0': 0, '58.0': 0, '59.0': 0, '60.0': 0, '61.0': 0, '62.0': 0, '63.0': 0, '64.0': 0, '65.0': 0, '66.0': 0, '67.0': 0, '68.0': 0, '69.0': 0, '70.0': 0, '71.0': 0, '72.0': 0, '73.0': 0, '74.0': 0, '75.0': 0, '76.0': 0, '77.0': 0, '78.0': 0, '79.0': 0, '80.0': 0, '81.0': 0, '82.0': 0, '83.0': 0, '84.0': 0, '85.0': 0, '86.0': 0, '87.0': 0, '88.0': 0, '89.0': 0, '90.0': 0, '91.0': 0, '92.0': 0, '93.0': 0, '94.0': 0, '95.0': 0, '96.0': 0, '97.0': 0, '98.0': 0, '99.0': 0, '100.0': 0, '101.0': 0, '102.0': 0, '103.0': 0, '104.0': 0, '105.0': 0, '106.0': 0, '107.0': 0, '108.0': 0, '109.0': 0, '110.0': 0, '111.0': 0, '112.0': 0, '113.0': 0, '114.0': 0, '115.0': 0, '116.0': 0, '117.0': 0, '118.0': 0, '119.0': 0, '120.0': 0}</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.30476715458111775, '1.0': 0.30662608858354434, '2.0': 0.30849545287580316, '3.0': 0.31037772958250953, '4.0': 0.31227607755417297, '5.0': 0.31419441912186646, '6.0': 0.3161375324185656, '7.0': 0.31811114879388475, '8.0': 0.32012205457847853, '9.0': 0.32217819610904075, '10.0': 0.3242887864885143, '11.0': 0.3264644120110936, '12.0': 0.32871713550926024, '13.0': 0.3310605930624552, '14.0': 0.33351007952889744, '15.0': 0.33608261721467425, '16.0': 0.33879700067983576, '17.0': 0.34167380921981017, '18.0': 0.344735376998109, '19.0': 0.3480057092253748, '20.0': 0.3515103313104468, '21.0': 0.35527605674067847, '22.0': 0.3593306588394016, '23.0': 0.36370243182929524, '24.0': 0.36841962819939517, '25.0': 0.37350976267306185, '26.0': 0.3789987785464753, '27.0': 0.38491008018022144, '28.0': 0.3912634461702687, '29.0': 0.3980738510807325, '30.0': 0.4053502390219379, '31.0': 0.413094308665291, '32.0': 0.421299384732869, '33.0': 0.4299494632398246, '34.0': 0.4390185240961393, '35.0': 0.4484702024230383, '36.0': 0.45825789703546377, '37.0': 0.4683253701341095, '38.0': 0.4786078572546361, '39.0': 0.4890336638996058, '40.0': 0.49952617988692866, '41.0': 0.5100062003861923, '42.0': 0.5203944101450557, '43.0': 0.5306138696886872, '44.0': 0.5405923422218725, '45.0': 0.5502643175818664, '46.0': 0.5595726219746351, '47.0': 0.568469544226749, '48.0': 0.5769174546358561, '49.0': 0.5848889351004751, '50.0': 0.5923664741912128, '51.0': 0.5993418052223886, '52.0': 0.6058149782760623, '53.0': 0.6117932593705161, '54.0': 0.6172899436270445, '55.0': 0.6223231570427089, '56.0': 0.6269147060299738, '57.0': 0.6310890175827621, '58.0': 0.6348721975415453, '59.0': 0.63829122109592, '60.0': 0.6413732589490496, '61.0': 0.6441451345924352, '62.0': 0.6466329027112405, '63.0': 0.6488615354909345, '64.0': 0.6508547020821039, '65.0': 0.6526346262580384, '66.0': 0.6542220079694813, '67.0': 0.6556359957299176, '68.0': 0.6568941982929565, '69.0': 0.6580127257196384, '70.0': 0.6590062515462497, '71.0': 0.6598880892687804, '72.0': 0.6606702777114783, '73.0': 0.6613636710233438, '74.0': 0.6619780300452948, '75.0': 0.6625221126208999, '76.0': 0.6630037611004512, '77.0': 0.6634299858302369, '78.0': 0.6638070438454738, '79.0': 0.6641405123150852, '80.0': 0.6644353565364088, '81.0': 0.6646959924631317, '82.0': 0.6649263438832568, '83.0': 0.6651298944567259, '84.0': 0.6653097348835527, '85.0': 0.6654686055103798, '86.0': 0.6656089347022803, '87.0': 0.6657328733121266, '88.0': 0.6658423255756967, '89.0': 0.6659389767498167, '90.0': 0.6660243177954549, '91.0': 0.6660996673895243, '92.0': 0.6661661915294564, '93.0': 0.6662249209743384, '94.0': 0.6662767667462158, '95.0': 0.6663225338955371, '96.0': 0.6663629337159575, '97.0': 0.6663985945760552, '98.0': 0.6664300715190138, '99.0': 0.6664578547660939, '100.0': 0.6664823772457124, '101.0': 0.6665040212571668, '102.0': 0.6665231243664307, '103.0': 0.666539984620932, '104.0': 0.6665548651607419, '105.0': 0.666567998295082, '106.0': 0.6665795891053946, '107.0': 0.6665898186293832, '108.0': 0.6665988466742988, '109.0': 0.6666068143022917, '110.0': 0.6666138460257806, '111.0': 0.6666200517464574, '112.0': 0.6666255284677011, '113.0': 0.6666303618067474, '114.0': 0.6666346273299304, '115.0': 0.6666383917316184, '116.0': 0.6666417138750811, '117.0': 0.6666446457114076, '118.0': 0.6666472330907277, '119.0': 0.666649516478331, '120.0': 0.6666515315868052}</t>
+          <t>{'0.0': 0.19671805926247168, '1.0': 0.19403847572022973, '2.0': 0.19137270452278696, '3.0': 0.18872374598464434, '4.0': 0.18609443324277675, '5.0': 0.18348742633607873, '6.0': 0.18090520805113278, '7.0': 0.1783500814378242, '8.0': 0.1758241688830232, '9.0': 0.17332941261897397, '10.0': 0.17086757653501647, '11.0': 0.16844024915651992, '12.0': 0.1660488476531323, '13.0': 0.16369462273929003, '14.0': 0.1613786643330092, '15.0': 0.15910190784394, '16.0': 0.156865140968129, '17.0': 0.15466901087457416, '18.0': 0.1525140316771322, '19.0': 0.150400592094384, '20.0': 0.14832896320940575, '21.0': 0.14629930625081264, '22.0': 0.1443116803257616, '23.0': 0.14236605004465092, '24.0': 0.14046229298592383, '25.0': 0.13860020695757208, '26.0': 0.13677951701958185, '27.0': 0.1349998822386098, '28.0': 0.13326090215261607, '29.0': 0.1315621229289842, '30.0': 0.12990304320484553, '31.0': 0.1282831196029088, '32.0': 0.1267017719200975, '33.0': 0.12515838798974926, '34.0': 0.12365232822107769, '35.0': 0.12218292982206508, '36.0': 0.12074951071399, '37.0': 0.11935137314743792, '38.0': 0.11798780703094254, '39.0': 0.11665809298437697, '40.0': 0.1153615051299291, '41.0': 0.11409731363395753, '42.0': 0.11286478701328471, '43.0': 0.11166319421956793, '44.0': 0.11049180651532185, '45.0': 0.10934989915497591, '46.0': 0.10823675288405697, '47.0': 0.10715165526921809, '48.0': 0.10609390187138766, '49.0': 0.10506279727383522, '50.0': 0.10405765597642135, '51.0': 0.10307780316675606, '52.0': 0.10212257537842716, '53.0': 0.10119132104589451, '54.0': 0.10028340096508187, '55.0': 0.09939818866813556, '56.0': 0.09853507072027713, '57.0': 0.09769344694613863, '58.0': 0.09687273059245964, '59.0': 0.09607234843352973, '60.0': 0.09529174082528435, '61.0': 0.0945303617135166, '62.0': 0.09378767860123677, '63.0': 0.09306317247981201, '64.0': 0.09235633772813516, '65.0': 0.09166668198371797, '66.0': 0.09099372598927001, '67.0': 0.09033700341801104, '68.0': 0.08969606068067743, '69.0': 0.08907045671690968, '70.0': 0.08845976277346267, '71.0': 0.08786356217144159, '72.0': 0.08728145006456224, '73.0': 0.08671303319022537, '74.0': 0.0861579296150245, '75.0': 0.08561576847613005, '76.0': 0.08508618971984733, '77.0': 0.08456884383849778, '78.0': 0.08406339160665292, '79.0': 0.08356950381762453, '80.0': 0.08308686102101556, '81.0': 0.08261515326203307, '82.0': 0.0821540798231792, '83.0': 0.08170334896885427, '84.0': 0.08126267769333516, '85.0': 0.08083179147252402, '86.0': 0.08041042401980462, '87.0': 0.07999831704628964, '88.0': 0.07959522002569265, '89.0': 0.07920088996401788, '90.0': 0.07881509117421966, '91.0': 0.07843759505594958, '92.0': 0.07806817988047847, '93.0': 0.07770663058085299, '94.0': 0.07735273854732112, '95.0': 0.07700630142804042, '96.0': 0.07666712293506343, '97.0': 0.07633501265557731, '98.0': 0.07600978586835981, '99.0': 0.0756912633654047, '100.0': 0.07537927127865086, '101.0': 0.07507364091174853, '102.0': 0.07477420857678316, '103.0': 0.07448081543586961, '104.0': 0.07419330734752859, '105.0': 0.07391153471774677, '106.0': 0.07363535235562238, '107.0': 0.07336461933349354, '108.0': 0.07309919885144352, '109.0': 0.07283895810607809, '110.0': 0.07258376816346487, '111.0': 0.072333503836129, '112.0': 0.07208804356399487, '113.0': 0.07184726929916681, '114.0': 0.07161106639444066, '115.0': 0.07137932349544078, '116.0': 0.07115193243627509, '117.0': 0.07092878813860541, '118.0': 0.07070978851403106, '119.0': 0.07049483436968283, '120.0': 0.07028382931693038}</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="CI2" t="inlineStr">
         <is>
-          <t>{'0.0': 688894.9650735206, '1.0': 694329.9648525, '2.0': 699629.089637005, '3.0': 704795.7363018973, '4.0': 709833.2168001673, '5.0': 714744.7602859807, '6.0': 719533.5151846486, '7.0': 724202.5512108498, '8.0': 728754.861336396, '9.0': 733193.3637088035, '10.0': 737520.9035219009, '11.0': 741740.2548396708, '12.0': 745854.1223744965, '13.0': 749865.1432209515, '14.0': 753775.8885462452, '15.0': 757588.8652384065, '16.0': 761306.5175132637, '17.0': 764931.2284812497, '18.0': 768465.3216750359, '19.0': 771911.0625389775, '20.0': 775270.6598813205, '21.0': 778546.267290105, '22.0': 781739.9845136699, '23.0': 784853.8588066456, '24.0': 787889.8862422969, '25.0': 790850.0129920569, '26.0': 793736.136573073, '27.0': 796550.1070645637, '28.0': 799293.7282937671, '29.0': 801968.7589922404, '30.0': 804576.9139232519, '31.0': 807119.8649809881, '32.0': 809599.2422622809, '33.0': 812016.6351115414, '34.0': 814373.5931395703, '35.0': 816671.6272168985, '36.0': 818912.2104422934, '37.0': 821096.7790870536, '38.0': 823226.7335156947, '39.0': 825303.4390836199, '40.0': 827328.2270123468, '41.0': 829302.3952428557, '42.0': 831227.2092676017, '43.0': 833103.9029417292, '44.0': 834933.6792740034, '45.0': 836717.7111979708, '46.0': 838457.142323839, '47.0': 840153.0876715605, '48.0': 841806.6343855889, '49.0': 843418.8424317667, '50.0': 844990.74527679, '51.0': 846523.3505506878, '52.0': 848017.640692738, '53.0': 849474.573581237, '54.0': 850895.0831475236, '55.0': 852280.079974653, '56.0': 853630.4518811041, '57.0': 854947.064489894, '58.0': 856230.7617834641, '59.0': 857482.3666446949, '60.0': 858702.681384395, '61.0': 859892.4882556025, '62.0': 861052.54995503, '63.0': 862183.6101119717, '64.0': 863286.3937649899, '65.0': 864361.6078266826, '66.0': 865409.9415368331, '67.0': 866432.0669042297, '68.0': 867428.6391374414, '69.0': 868400.2970648229, '70.0': 869347.6635440198, '71.0': 870271.3458612368, '72.0': 871171.9361205234, '73.0': 872050.0116233277, '74.0': 872906.135238562, '75.0': 873740.8557634155, '76.0': 874554.7082751476, '77.0': 875348.2144740864, '78.0': 876121.8830180517, '79.0': 876876.2098484179, '80.0': 877611.6785080249, '81.0': 878328.7604511417, '82.0': 879027.9153456807, '83.0': 879709.5913678561, '84.0': 880374.2254894772, '85.0': 881022.2437580577, '86.0': 881654.0615699238, '87.0': 882270.0839364931, '88.0': 882870.7057438983, '89.0': 883456.3120061184, '90.0': 884027.2781117829, '91.0': 884583.9700648057, '92.0': 885126.744719003, '93.0': 885655.9500068454, '94.0': 886171.9251624917, '95.0': 886675.000939247, '96.0': 887165.4998215833, '97.0': 887643.7362318612, '98.0': 888110.0167318821, '99.0': 888564.6402194025, '100.0': 889007.898119735, '101.0': 889440.0745725591, '102.0': 889861.4466140626, '103.0': 890272.2843545285, '104.0': 890672.8511514828, '105.0': 891063.4037785132, '106.0': 891444.1925898679, '107.0': 891815.4616809386, '108.0': 892177.4490447326, '109.0': 892530.3867244318, '110.0': 892874.5009621384, '111.0': 893210.0123439024, '112.0': 893537.1359411223, '113.0': 893856.0814484117, '114.0': 894167.0533180189, '115.0': 894470.250890886, '116.0': 894765.8685244313, '117.0': 895054.0957171379, '118.0': 895335.117230027, '119.0': 895609.1132050938, '120.0': 895876.2592807839}</t>
+          <t>{'0.0': 688894.9650735206, '1.0': 686720.9651619288, '2.0': 684525.2252512211, '3.0': 682307.5279414064, '4.0': 680067.6536584934, '5.0': 677805.3806327514, '6.0': 675520.4848767519, '7.0': 673212.7401631924, '8.0': 670881.9180024973, '9.0': 668527.7876201953, '10.0': 666150.1159340703, '11.0': 663748.667531084, '12.0': 661323.2046440679, '13.0': 658873.4871281816, '14.0': 656399.2724371365, '15.0': 653900.3155991809, '16.0': 651376.3691928457, '17.0': 648827.1833224471, '18.0': 646252.5055933446, '19.0': 643652.0810869511, '20.0': 641025.6523354936, '21.0': 638372.9592965215, '22.0': 635693.7393271597, '23.0': 632987.7271581043, '24.0': 630254.6548673584, '25.0': 627494.251853705, '26.0': 624706.2448099151, '27.0': 621890.3576956872, '28.0': 619046.3117103172, '29.0': 616173.8252650934, '30.0': 613272.6139554173, '31.0': 610342.3905326445, '32.0': 607382.864875644, '33.0': 604393.7439620735, '34.0': 601374.7318393672, '35.0': 598325.5295954339, '36.0': 595245.8353290613, '37.0': 592135.3441200249, '38.0': 588993.7479988982, '39.0': 585820.7359165602, '40.0': 582615.9937133988, '41.0': 579379.2040882058, '42.0': 576110.0465667609, '43.0': 572808.1974701015, '44.0': 569473.3298824755, '45.0': 566105.1136189733, '46.0': 562703.215192836, '47.0': 559267.2977824374, '48.0': 555797.0211979348, '49.0': 552292.0418475871, '50.0': 548752.012703736, '51.0': 545176.5832684464, '52.0': 541565.3995388038, '53.0': 537918.1039718649, '54.0': 534234.3354492566, '55.0': 530513.7292414221, '56.0': 526755.9169715093, '57.0': 522960.52657889744, '58.0': 519127.1822823594, '59.0': 515255.504542856, '60.0': 511345.1100259576, '61.0': 507395.6115638902, '62.0': 503406.6181172021, '63.0': 499377.7347360471, '64.0': 495308.5625210806, '65.0': 491198.69858396443, '66.0': 487047.7360074771, '67.0': 482855.2638052249, '68.0': 478620.86688095017, '69.0': 474344.12598743266, '70.0': 470024.61768498, '71.0': 465661.9142995028, '72.0': 461255.58388017083, '73.0': 456805.19015664555, '74.0': 452310.292495885, '75.0': 447770.44585851685, '76.0': 443185.200754775, '77.0': 438554.10319999576, '78.0': 433876.69466966874, '79.0': 429152.51205403847, '80.0': 424381.08761225187, '81.0': 419561.9489260474, '82.0': 414694.6188529809, '83.0': 409778.61547918373, '84.0': 404813.45207164856, '85.0': 399798.63703003805, '86.0': 394733.67383801145, '87.0': 389618.0610140646, '88.0': 384451.29206187825, '89.0': 379232.85542017006, '90.0': 373962.23441204475, '91.0': 368638.9071938382, '92.0': 363262.3467034496, '93.0': 357832.02060815715, '94.0': 352347.39125191176, '95.0': 346807.91560210387, '96.0': 341213.0451957979, '97.0': 335562.2260854289, '98.0': 329854.8987839562, '99.0': 324090.4982094688, '100.0': 318268.4536292365, '101.0': 312388.1886032019, '102.0': 306449.12092690694, '103.0': 300450.662573849, '104.0': 294392.21963726054, '105.0': 288273.1922713062, '106.0': 282092.9746316923, '107.0': 275850.9548156822, '108.0': 269546.514801512, '109.0': 263179.0303872001, '110.0': 256747.87112874514, '111.0': 250252.4002777056, '112.0': 243691.97471815566, '113.0': 237065.94490301024, '114.0': 230373.65478971336, '115.0': 223614.4417752835, '116.0': 216787.63663070937, '117.0': 209892.56343468948, '118.0': 202928.53950670938, '119.0': 195894.8753394495, '120.0': 188790.874530517}</t>
         </is>
       </c>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>{'0.0': 217399.99115917776, '1.0': 211964.9913801983, '2.0': 206665.86659569334, '3.0': 201499.21993080102, '4.0': 196461.739432531, '5.0': 191550.19594671772, '6.0': 186761.44104804978, '7.0': 182092.40502184854, '8.0': 177540.09489630233, '9.0': 173101.59252389477, '10.0': 168774.0527107974, '11.0': 164554.70139302747, '12.0': 160440.83385820178, '13.0': 156429.81301174674, '14.0': 152519.06768645305, '15.0': 148706.09099429174, '16.0': 144988.43871943443, '17.0': 141363.72775144858, '18.0': 137829.63455766236, '19.0': 134383.8936937208, '20.0': 131024.29635137778, '21.0': 127748.68894259333, '22.0': 124554.9717190285, '23.0': 121441.09742605279, '24.0': 118405.06999040146, '25.0': 115444.94324064143, '26.0': 112558.81965962538, '27.0': 109744.84916813475, '28.0': 107001.22793893138, '29.0': 104326.19724045809, '30.0': 101718.04230944664, '31.0': 99175.09125171047, '32.0': 96695.71397041771, '33.0': 94278.32112115726, '34.0': 91921.36309312833, '35.0': 89623.32901580012, '36.0': 87382.74579040511, '37.0': 85198.17714564498, '38.0': 83068.22271700385, '39.0': 80991.51714907876, '40.0': 78966.72922035179, '41.0': 76992.560989843, '42.0': 75067.74696509693, '43.0': 73191.0532909695, '44.0': 71361.27695869526, '45.0': 69577.24503472788, '46.0': 67837.81390885968, '47.0': 66141.8685611382, '48.0': 64488.32184710974, '49.0': 62876.113800932, '50.0': 61304.2109559087, '51.0': 59771.60568201098, '52.0': 58277.315539960706, '53.0': 56820.38265146169, '54.0': 55399.873085175146, '55.0': 54014.87625804577, '56.0': 52664.50435159462, '57.0': 51347.89174280476, '58.0': 50064.19444923464, '59.0': 48812.58958800377, '60.0': 47592.27484830368, '61.0': 46402.46797709609, '62.0': 45242.406277668684, '63.0': 44111.346120726965, '64.0': 43008.56246770879, '65.0': 41933.34840601607, '66.0': 40885.01469586567, '67.0': 39862.88932846903, '68.0': 38866.3170952573, '69.0': 37894.65916787586, '70.0': 36947.292688678965, '71.0': 36023.61037146199, '72.0': 35123.020112175436, '73.0': 34244.94460937105, '74.0': 33388.820994136775, '75.0': 32554.100469283356, '76.0': 31740.247957551273, '77.0': 30946.74175861249, '78.0': 30173.07321464718, '79.0': 29418.746384281, '80.0': 28683.277724673975, '81.0': 27966.195781557126, '82.0': 27267.040887018196, '83.0': 26585.36486484274, '84.0': 25920.730743221673, '85.0': 25272.712474641132, '86.0': 24640.894662775103, '87.0': 24024.872296205725, '88.0': 23424.250488800582, '89.0': 22838.644226580567, '90.0': 22267.678120916054, '91.0': 21710.986167893152, '92.0': 21168.211513695824, '93.0': 20639.006225853427, '94.0': 20123.031070207093, '95.0': 19619.955293451916, '96.0': 19129.456411115618, '97.0': 18651.220000837726, '98.0': 18184.93950081678, '99.0': 17730.31601329636, '100.0': 17287.05811296395, '101.0': 16854.88166013985, '102.0': 16433.509618636355, '103.0': 16022.671878170446, '104.0': 15622.105081216185, '105.0': 15231.55245418578, '106.0': 14850.763642831134, '107.0': 14479.494551760356, '108.0': 14117.507187966346, '109.0': 13764.569508267188, '110.0': 13420.45527056051, '111.0': 13084.943888796497, '112.0': 12757.820291576585, '113.0': 12438.87478428717, '114.0': 12127.902914679991, '115.0': 11824.70534181299, '116.0': 11529.087708267665, '117.0': 11240.860515560973, '118.0': 10959.839002671948, '119.0': 10685.84302760515, '120.0': 10418.69695191502}</t>
+          <t>{'0.0': 217399.99115917776, '1.0': 219573.99107076955, '2.0': 221769.73098147725, '3.0': 223987.42829129202, '4.0': 226227.30257420495, '5.0': 228489.575599947, '6.0': 230774.47135594647, '7.0': 233082.21606950593, '8.0': 235413.038230201, '9.0': 237767.168612503, '10.0': 240144.84029862803, '11.0': 242546.2887016143, '12.0': 244971.75158863046, '13.0': 247421.46910451676, '14.0': 249895.68379556193, '15.0': 252394.64063351756, '16.0': 254918.58703985272, '17.0': 257467.77291025125, '18.0': 260042.45063935377, '19.0': 262642.8751457473, '20.0': 265269.3038972048, '21.0': 267921.99693617685, '22.0': 270601.21690553863, '23.0': 273307.22907459404, '24.0': 276040.30136533995, '25.0': 278800.70437899337, '26.0': 281588.7114227833, '27.0': 284404.59853701113, '28.0': 287248.64452238125, '29.0': 290121.13096760504, '30.0': 293022.3422772811, '31.0': 295952.56570005394, '32.0': 298912.0913570545, '33.0': 301901.21227062505, '34.0': 304920.22439333133, '35.0': 307969.42663726467, '36.0': 311049.1209036373, '37.0': 314159.6121126737, '38.0': 317301.2082338004, '39.0': 320474.2203161384, '40.0': 323678.9625192998, '41.0': 326915.7521444928, '42.0': 330184.90966593777, '43.0': 333486.75876259716, '44.0': 336821.62635022314, '45.0': 340189.8426137254, '46.0': 343591.7410398627, '47.0': 347027.6584502613, '48.0': 350497.9350347639, '49.0': 354002.91438511154, '50.0': 357542.94352896267, '51.0': 361118.3729642523, '52.0': 364729.55669389485, '53.0': 368376.8522608338, '54.0': 372060.6207834421, '55.0': 375781.22699127655, '56.0': 379539.0392611893, '57.0': 383334.4296538012, '58.0': 387167.77395033924, '59.0': 391039.4516898426, '60.0': 394949.84620674106, '61.0': 398899.34466880845, '62.0': 402888.33811549656, '63.0': 406917.22149665153, '64.0': 410986.39371161803, '65.0': 415096.2576487342, '66.0': 419247.22022522154, '67.0': 423439.6924274737, '68.0': 427674.08935174847, '69.0': 431950.83024526597, '70.0': 436270.33854771865, '71.0': 440633.04193319584, '72.0': 445039.3723525278, '73.0': 449489.7660760531, '74.0': 453984.66373681364, '75.0': 458524.5103741818, '76.0': 463109.7554779236, '77.0': 467740.8530327029, '78.0': 472418.2615630299, '79.0': 477142.44417866017, '80.0': 481913.86862044677, '81.0': 486733.0073066512, '82.0': 491600.33737971773, '83.0': 496516.3407535149, '84.0': 501481.5041610501, '85.0': 506496.3192026606, '86.0': 511561.2823946872, '87.0': 516676.89521863405, '88.0': 521843.6641708204, '89.0': 527062.1008125286, '90.0': 532332.7218206539, '91.0': 537656.0490388604, '92.0': 543032.609529249, '93.0': 548462.9356245415, '94.0': 553947.5649807869, '95.0': 559487.0406305947, '96.0': 565081.9110369007, '97.0': 570732.7301472697, '98.0': 576440.0574487423, '99.0': 582204.4580232297, '100.0': 588026.5026034621, '101.0': 593906.7676294968, '102.0': 599845.8353057917, '103.0': 605844.2936588497, '104.0': 611902.7365954382, '105.0': 618021.7639613926, '106.0': 624201.9816010065, '107.0': 630444.0014170165, '108.0': 636748.4414311866, '109.0': 643115.9258454985, '110.0': 649547.0851039535, '111.0': 656042.555954993, '112.0': 662602.981514543, '113.0': 669229.0113296884, '114.0': 675921.3014429852, '115.0': 682680.5144574151, '116.0': 689507.3196019892, '117.0': 696402.3927980091, '118.0': 703366.4167259892, '119.0': 710400.0808932491, '120.0': 717504.0817021816}</t>
         </is>
       </c>
       <c r="CK2" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="CL2" t="inlineStr">
         <is>
-          <t>{'0.0': 9374.001, '1.0': 9373.963637303508, '2.0': 9373.925467577255, '3.0': 9373.88647577167, '4.0': 9373.8466455628, '5.0': 9373.80595899188, '6.0': 9373.764396045093, '7.0': 9373.721934167377, '8.0': 9373.678547703725, '9.0': 9373.634207261219, '10.0': 9373.588878984774, '11.0': 9373.542523739468, '12.0': 9373.495096192424, '13.0': 9373.446543787524, '14.0': 9373.396805607044, '15.0': 9373.345811115614, '16.0': 9373.293478784222, '17.0': 9373.239714595435, '18.0': 9373.184410436232, '19.0': 9373.127442392402, '20.0': 9373.068668968996, '21.0': 9373.007929275862, '22.0': 9372.945041236688, '23.0': 9372.879799905086, '24.0': 9372.81197600292, '25.0': 9372.741314834235, '26.0': 9372.66753577192, '27.0': 9372.590332560903, '28.0': 9372.509374725889, '29.0': 9372.424310404633, '30.0': 9372.334770937014, '31.0': 9372.24037750904, '32.0': 9372.140750061388, '33.0': 9372.035518507491, '34.0': 9371.924336058652, '35.0': 9371.806894131343, '36.0': 9371.682937947931, '37.0': 9371.552281596973, '38.0': 9371.414821076967, '39.0': 9371.270543796492, '40.0': 9371.119533209847, '41.0': 9370.961967742753, '42.0': 9370.798113846253, '43.0': 9370.62831377999, '44.0': 9370.452969404796, '45.0': 9370.272523711428, '46.0': 9370.087441943188, '47.0': 9369.89819398797, '48.0': 9369.705239299903, '49.0': 9369.509015084352, '50.0': 9369.309927964478, '51.0': 9369.108348931335, '52.0': 9368.904611105323, '53.0': 9368.699009704875, '54.0': 9368.491803601668, '55.0': 9368.28321790199, '56.0': 9368.073447094286, '57.0': 9367.862658414651, '58.0': 9367.650995186415, '59.0': 9367.438579977548, '60.0': 9367.225517487275, '61.0': 9367.011897122064, '62.0': 9366.797795253959, '63.0': 9366.583277174706, '64.0': 9366.368398770524, '65.0': 9366.153207947626, '66.0': 9365.937745839832, '67.0': 9365.722047828469, '68.0': 9365.506144402236, '69.0': 9365.290061881684, '70.0': 9365.073823029748, '71.0': 9364.8574475667, '72.0': 9364.640952605076, '73.0': 9364.42435301769, '74.0': 9364.207661749637, '75.0': 9363.990890083433, '76.0': 9363.774047864843, '77.0': 9363.557143695709, '78.0': 9363.340185098981, '79.0': 9363.123178660311, '80.0': 9362.906130149811, '81.0': 9362.689044626986, '82.0': 9362.471926531365, '83.0': 9362.254779760926, '84.0': 9362.037607740096, '85.0': 9361.820413478801, '86.0': 9361.603199623834, '87.0': 9361.385968503608, '88.0': 9361.168722167182, '89.0': 9360.95146241836, '90.0': 9360.734190845495, '91.0': 9360.516908847578, '92.0': 9360.299617657087, '93.0': 9360.082318360024, '94.0': 9359.86501191349, '95.0': 9359.647699161122, '96.0': 9359.430380846636, '97.0': 9359.213057625751, '98.0': 9358.995730076665, '99.0': 9358.77839870926, '100.0': 9358.561063973219, '101.0': 9358.343726265159, '102.0': 9358.126385934918, '103.0': 9357.909043291094, '104.0': 9357.691698605915, '105.0': 9357.474352119536, '106.0': 9357.257004043833, '107.0': 9357.039654565733, '108.0': 9356.822303850158, '109.0': 9356.604952042626, '110.0': 9356.387599271526, '111.0': 9356.170245650146, '112.0': 9355.952891278448, '113.0': 9355.735536244636, '114.0': 9355.518180626541, '115.0': 9355.300824492842, '116.0': 9355.083467904144, '117.0': 9354.866110913923, '118.0': 9354.648753569372, '119.0': 9354.431395912135, '120.0': 9354.21403797896}</t>
+          <t>{'0.0': 9374.001, '1.0': 9373.993651728368, '2.0': 9373.986680940636, '3.0': 9373.980071708529, '4.0': 9373.973808228307, '5.0': 9373.967874890935, '6.0': 9373.96225634458, '7.0': 9373.956937549456, '8.0': 9373.95190382513, '9.0': 9373.947140890528, '10.0': 9373.942634896977, '11.0': 9373.938372454651, '12.0': 9373.934340652902, '13.0': 9373.93052707492, '14.0': 9373.926919807256, '15.0': 9373.923507444712, '16.0': 9373.920279091093, '17.0': 9373.917224356352, '18.0': 9373.914333350574, '19.0': 9373.911596675292, '20.0': 9373.909005412532, '21.0': 9373.906551111995, '22.0': 9373.904225776754, '23.0': 9373.90202184777, '24.0': 9373.899932187544, '25.0': 9373.897950063141, '26.0': 9373.896069128858, '27.0': 9373.894283408692, '28.0': 9373.892587278806, '29.0': 9373.890975450135, '30.0': 9373.88944295125, '31.0': 9373.887985111576, '32.0': 9373.886597545068, '33.0': 9373.885276134373, '34.0': 9373.884017015565, '35.0': 9373.882816563459, '36.0': 9373.88167137754, '37.0': 9373.880578268532, '38.0': 9373.879534245594, '39.0': 9373.878536504155, '40.0': 9373.877582414374, '41.0': 9373.876669510224, '42.0': 9373.875795479176, '43.0': 9373.874958152468, '44.0': 9373.874155495938, '45.0': 9373.8733856014, '46.0': 9373.87264667855, '47.0': 9373.871937047354, '48.0': 9373.871255130916, '49.0': 9373.870599448803, '50.0': 9373.869968610781, '51.0': 9373.869361310964, '52.0': 9373.868776322339, '53.0': 9373.868212491645, '54.0': 9373.867668734594, '55.0': 9373.867144031406, '56.0': 9373.866637422636, '57.0': 9373.86614800528, '58.0': 9373.86567492915, '59.0': 9373.865217393477, '60.0': 9373.864774643751, '61.0': 9373.86434596877, '62.0': 9373.863930697888, '63.0': 9373.863528198446, '64.0': 9373.863137873377, '65.0': 9373.862759158972, '66.0': 9373.862391522794, '67.0': 9373.86203446173, '68.0': 9373.861687500179, '69.0': 9373.861350188354, '70.0': 9373.8610221007, '71.0': 9373.860702834418, '72.0': 9373.860392008082, '73.0': 9373.860089260355, '74.0': 9373.859794248778, '75.0': 9373.859506648649, '76.0': 9373.859226151972, '77.0': 9373.858952466468, '78.0': 9373.858685314657, '79.0': 9373.858424433, '80.0': 9373.858169571085, '81.0': 9373.857920490886, '82.0': 9373.857676966041, '83.0': 9373.8574387812, '84.0': 9373.857205731403, '85.0': 9373.856977621495, '86.0': 9373.856754265586, '87.0': 9373.856535486533, '88.0': 9373.856321115469, '89.0': 9373.85611099134, '90.0': 9373.855904960496, '91.0': 9373.85570287628, '92.0': 9373.855504598669, '93.0': 9373.855309993905, '94.0': 9373.855118934182, '95.0': 9373.854931297323, '96.0': 9373.854746966495, '97.0': 9373.854565829932, '98.0': 9373.854387780671, '99.0': 9373.854212716316, '100.0': 9373.8540405388, '101.0': 9373.853871154171, '102.0': 9373.85370447239, '103.0': 9373.853540407135, '104.0': 9373.853378875618, '105.0': 9373.853219798413, '106.0': 9373.853063099297, '107.0': 9373.852908705094, '108.0': 9373.852756545524, '109.0': 9373.852606553079, '110.0': 9373.852458662877, '111.0': 9373.852312812554, '112.0': 9373.852168942138, '113.0': 9373.852026993942, '114.0': 9373.851886912458, '115.0': 9373.851748644262, '116.0': 9373.851612137914, '117.0': 9373.851477343878, '118.0': 9373.851344214429, '119.0': 9373.851212703576, '120.0': 9373.851082766987}</t>
         </is>
       </c>
       <c r="CM2" t="inlineStr">
         <is>
-          <t>{'0.0': 0.0001, '1.0': 22.321648302091763, '2.0': 44.64342538045858, '3.0': 66.96539907936472, '4.0': 89.28754337980192, '5.0': 111.60983709263414, '6.0': 133.9322628662895, '7.0': 156.25480642678147, '8.0': 178.57745599073058, '9.0': 200.90020180810913, '10.0': 223.22303580277787, '11.0': 245.54595128696337, '12.0': 267.868942731617, '13.0': 290.1920055787758, '14.0': 312.515136085082, '15.0': 334.83833118785066, '16.0': 357.1615883867519, '17.0': 379.48490563548654, '18.0': 401.8082812389377, '19.0': 424.13171375231184, '20.0': 446.45520187985875, '21.0': 468.77874437198545, '22.0': 491.10233992103764, '23.0': 513.425987057748, '24.0': 535.7496840523186, '25.0': 558.0734288261705, '26.0': 580.3972188822812, '27.0': 602.7210512632972, '28.0': 625.0449225466793, '29.0': 647.3688288844018, '30.0': 669.6927660907353, '31.0': 692.0167297753939, '32.0': 714.3407155115357, '33.0': 736.6647190203693, '34.0': 758.9887363486612, '35.0': 781.3127640145068, '36.0': 803.6367991015557, '37.0': 825.9608392918415, '38.0': 848.2848828397787, '39.0': 870.6089285009135, '40.0': 892.9329754353062, '41.0': 915.2570231056333, '42.0': 937.5810711853545, '43.0': 959.9051194852852, '44.0': 982.2291679004318, '45.0': 1004.5532163746401, '46.0': 1026.8772648787606, '47.0': 1049.201313397987, '48.0': 1071.5253619248945, '49.0': 1093.8494104557728, '50.0': 1116.173458988757, '51.0': 1138.4975075228945, '52.0': 1160.821556057688, '53.0': 1183.1456045928699, '54.0': 1205.4696531282907, '55.0': 1227.7937016638643, '56.0': 1250.1177501995392, '57.0': 1272.441798735283, '58.0': 1294.7658472710755, '59.0': 1317.0898958069026, '60.0': 1339.4139443427555, '61.0': 1361.7379928786277, '62.0': 1384.0620414145144, '63.0': 1406.3860899504125, '64.0': 1428.7101384863195, '65.0': 1451.0341870222337, '66.0': 1473.3582355581536, '67.0': 1495.682284094078, '68.0': 1518.0063326300065, '69.0': 1540.330381165938, '70.0': 1562.654429701872, '71.0': 1584.9784782378083, '72.0': 1607.3025267737464, '73.0': 1629.6265753096861, '74.0': 1651.950623845627, '75.0': 1674.274672381569, '76.0': 1696.598720917512, '77.0': 1718.9227694534559, '78.0': 1741.2468179894006, '79.0': 1763.5708665253458, '80.0': 1785.8949150612916, '81.0': 1808.218963597238, '82.0': 1830.5430121331847, '83.0': 1852.8670606691317, '84.0': 1875.191109205079, '85.0': 1897.5151577410268, '86.0': 1919.8392062769747, '87.0': 1942.1632548129228, '88.0': 1964.487303348871, '89.0': 1986.8113518848193, '90.0': 2009.1354004207678, '91.0': 2031.4594489567164, '92.0': 2053.783497492665, '93.0': 2076.107546028614, '94.0': 2098.4315945645626, '95.0': 2120.7556431005114, '96.0': 2143.0796916364607, '97.0': 2165.40374017241, '98.0': 2187.727788708359, '99.0': 2210.0518372443084, '100.0': 2232.3758857802577, '101.0': 2254.699934316207, '102.0': 2277.023982852156, '103.0': 2299.3480313881055, '104.0': 2321.6720799240547, '105.0': 2343.996128460004, '106.0': 2366.3201769959533, '107.0': 2388.6442255319025, '108.0': 2410.968274067852, '109.0': 2433.292322603801, '110.0': 2455.6163711397508, '111.0': 2477.9404196757005, '112.0': 2500.26446821165, '113.0': 2522.5885167476, '114.0': 2544.9125652835496, '115.0': 2567.2366138194993, '116.0': 2589.560662355449, '117.0': 2611.8847108913988, '118.0': 2634.2087594273485, '119.0': 2656.532807963298, '120.0': 2678.8568564992474}</t>
+          <t>{'0.0': 0.0001, '1.0': 0.0001, '2.0': 0.0001, '3.0': 0.0001, '4.0': 0.0001, '5.0': 0.0001, '6.0': 0.0001, '7.0': 0.0001, '8.0': 0.0001, '9.0': 0.0001, '10.0': 0.0001, '11.0': 0.0001, '12.0': 0.0001, '13.0': 0.0001, '14.0': 0.0001, '15.0': 0.0001, '16.0': 0.0001, '17.0': 0.0001, '18.0': 0.0001, '19.0': 0.0001, '20.0': 0.0001, '21.0': 0.0001, '22.0': 0.0001, '23.0': 0.0001, '24.0': 0.0001, '25.0': 0.0001, '26.0': 0.0001, '27.0': 0.0001, '28.0': 0.0001, '29.0': 0.0001, '30.0': 0.0001, '31.0': 0.0001, '32.0': 0.0001, '33.0': 0.0001, '34.0': 0.0001, '35.0': 0.0001, '36.0': 0.0001, '37.0': 0.0001, '38.0': 0.0001, '39.0': 0.0001, '40.0': 0.0001, '41.0': 0.0001, '42.0': 0.0001, '43.0': 0.0001, '44.0': 0.0001, '45.0': 0.0001, '46.0': 0.0001, '47.0': 0.0001, '48.0': 0.0001, '49.0': 0.0001, '50.0': 0.0001, '51.0': 0.0001, '52.0': 0.0001, '53.0': 0.0001, '54.0': 0.0001, '55.0': 0.0001, '56.0': 0.0001, '57.0': 0.0001, '58.0': 0.0001, '59.0': 0.0001, '60.0': 0.0001, '61.0': 0.0001, '62.0': 0.0001, '63.0': 0.0001, '64.0': 0.0001, '65.0': 0.0001, '66.0': 0.0001, '67.0': 0.0001, '68.0': 0.0001, '69.0': 0.0001, '70.0': 0.0001, '71.0': 0.0001, '72.0': 0.0001, '73.0': 0.0001, '74.0': 0.0001, '75.0': 0.0001, '76.0': 0.0001, '77.0': 0.0001, '78.0': 0.0001, '79.0': 0.0001, '80.0': 0.0001, '81.0': 0.0001, '82.0': 0.0001, '83.0': 0.0001, '84.0': 0.0001, '85.0': 0.0001, '86.0': 0.0001, '87.0': 0.0001, '88.0': 0.0001, '89.0': 0.0001, '90.0': 0.0001, '91.0': 0.0001, '92.0': 0.0001, '93.0': 0.0001, '94.0': 0.0001, '95.0': 0.0001, '96.0': 0.0001, '97.0': 0.0001, '98.0': 0.0001, '99.0': 0.0001, '100.0': 0.0001, '101.0': 0.0001, '102.0': 0.0001, '103.0': 0.0001, '104.0': 0.0001, '105.0': 0.0001, '106.0': 0.0001, '107.0': 0.0001, '108.0': 0.0001, '109.0': 0.0001, '110.0': 0.0001, '111.0': 0.0001, '112.0': 0.0001, '113.0': 0.0001, '114.0': 0.0001, '115.0': 0.0001, '116.0': 0.0001, '117.0': 0.0001, '118.0': 0.0001, '119.0': 0.0001, '120.0': 0.0001}</t>
         </is>
       </c>
       <c r="CN2" t="inlineStr">
         <is>
-          <t>{'0.0': 5959.0, '1.0': 5911.00329564698, '2.0': 5863.006591293961, '3.0': 5815.009886940941, '4.0': 5767.013182587922, '5.0': 5719.016478234902, '6.0': 5671.019773881882, '7.0': 5623.023069528863, '8.0': 5575.026365175843, '9.0': 5527.029660822824, '10.0': 5479.032956469804, '11.0': 5431.036252116784, '12.0': 5383.039547763765, '13.0': 5335.042843410745, '14.0': 5287.046139057726, '15.0': 5239.049434704706, '16.0': 5191.0527303516865, '17.0': 5143.056025998667, '18.0': 5095.059321645647, '19.0': 5047.062617292628, '20.0': 4999.065912939608, '21.0': 4951.0692085865885, '22.0': 4903.072504233569, '23.0': 4855.075799880549, '24.0': 4807.07909552753, '25.0': 4759.08239117451, '26.0': 4711.0856868214905, '27.0': 4663.088982468471, '28.0': 4615.092278115451, '29.0': 4567.095573762432, '30.0': 4519.098869409412, '31.0': 4471.102165056393, '32.0': 4423.105460703373, '33.0': 4375.108756350353, '34.0': 4327.112051997334, '35.0': 4279.115347644314, '36.0': 4231.118643291295, '37.0': 4183.121938938275, '38.0': 4135.125234585255, '39.0': 4087.1285302322362, '40.0': 4039.131825879217, '41.0': 3991.135121526198, '42.0': 3943.138417173179, '43.0': 3895.1417128201597, '44.0': 3847.1450084671405, '45.0': 3799.1483041141214, '46.0': 3751.1515997611023, '47.0': 3703.154895408083, '48.0': 3655.158191055064, '49.0': 3607.161486702045, '50.0': 3559.1647823490257, '51.0': 3511.1680779960066, '52.0': 3463.1713736429874, '53.0': 3415.1746692899683, '54.0': 3367.177964936949, '55.0': 3319.18126058393, '56.0': 3271.184556230911, '57.0': 3223.1878518778917, '58.0': 3175.1911475248726, '59.0': 3127.1944431718534, '60.0': 3079.1977388188343, '61.0': 3031.201034465815, '62.0': 2983.204330112796, '63.0': 2935.207625759777, '64.0': 2887.2109214067577, '65.0': 2839.2142170537386, '66.0': 2791.2175127007195, '67.0': 2743.2208083477003, '68.0': 2695.224103994681, '69.0': 2647.227399641662, '70.0': 2599.230695288643, '71.0': 2551.2339909356238, '72.0': 2503.2372865826046, '73.0': 2455.2405822295855, '74.0': 2407.2438778765663, '75.0': 2359.247173523547, '76.0': 2311.250469170528, '77.0': 2263.253764817509, '78.0': 2215.2570604644898, '79.0': 2167.2603561114706, '80.0': 2119.2636517584515, '81.0': 2071.2669474054323, '82.0': 2023.2702430524132, '83.0': 1975.273538699394, '84.0': 1927.276834346375, '85.0': 1879.2801299933558, '86.0': 1831.2834256403366, '87.0': 1783.2867212873175, '88.0': 1735.2900169342984, '89.0': 1687.2933125812792, '90.0': 1639.29660822826, '91.0': 1591.299903875241, '92.0': 1543.3031995222218, '93.0': 1495.3064951692027, '94.0': 1447.3097908161835, '95.0': 1399.3130864631644, '96.0': 1351.3163821101452, '97.0': 1303.319677757126, '98.0': 1255.322973404107, '99.0': 1207.3262690510878, '100.0': 1159.3295646980687, '101.0': 1111.3328603450495, '102.0': 1063.3361559920304, '103.0': 1015.3394516390113, '104.0': 967.3427472859921, '105.0': 919.346042932973, '106.0': 871.3493385799538, '107.0': 823.3526342269347, '108.0': 775.3559298739156, '109.0': 727.3592255208964, '110.0': 679.3625211678773, '111.0': 631.3658168148581, '112.0': 583.369112461839, '113.0': 535.3724081088199, '114.0': 487.37570375580066, '115.0': 439.37899940278146, '116.0': 391.38229504976226, '117.0': 343.38559069674307, '118.0': 295.38888634372387, '119.0': 247.3921819907047, '120.0': 199.39547763768553}</t>
+          <t>{'0.0': 5959.0, '1.0': 6006.99670435302, '2.0': 6054.993408706039, '3.0': 6102.990113059059, '4.0': 6150.986817412078, '5.0': 6198.983521765098, '6.0': 6246.980226118118, '7.0': 6294.976930471137, '8.0': 6342.973634824157, '9.0': 6390.970339177176, '10.0': 6438.967043530196, '11.0': 6486.963747883216, '12.0': 6534.960452236235, '13.0': 6582.957156589255, '14.0': 6630.953860942274, '15.0': 6678.950565295294, '16.0': 6726.9472696483135, '17.0': 6774.943974001333, '18.0': 6822.940678354353, '19.0': 6870.937382707372, '20.0': 6918.934087060392, '21.0': 6966.9307914134115, '22.0': 7014.927495766431, '23.0': 7062.924200119451, '24.0': 7110.92090447247, '25.0': 7158.91760882549, '26.0': 7206.9143131785095, '27.0': 7254.911017531529, '28.0': 7302.907721884549, '29.0': 7350.904426237568, '30.0': 7398.901130590588, '31.0': 7446.897834943607, '32.0': 7494.894539296627, '33.0': 7542.891243649647, '34.0': 7590.887948002666, '35.0': 7638.884652355686, '36.0': 7686.881356708705, '37.0': 7734.878061061725, '38.0': 7782.874765414745, '39.0': 7830.871469767764, '40.0': 7878.868174120784, '41.0': 7926.864878473803, '42.0': 7974.861582826823, '43.0': 8022.858287179843, '44.0': 8070.854991532862, '45.0': 8118.851695885882, '46.0': 8166.848400238901, '47.0': 8214.845104591921, '48.0': 8262.84180894494, '49.0': 8310.83851329796, '50.0': 8358.83521765098, '51.0': 8406.831922004, '52.0': 8454.828626357019, '53.0': 8502.825330710039, '54.0': 8550.822035063058, '55.0': 8598.818739416078, '56.0': 8646.815443769097, '57.0': 8694.812148122117, '58.0': 8742.808852475137, '59.0': 8790.805556828156, '60.0': 8838.802261181176, '61.0': 8886.798965534195, '62.0': 8934.795669887215, '63.0': 8982.792374240234, '64.0': 9030.789078593254, '65.0': 9078.785782946274, '66.0': 9126.782487299293, '67.0': 9174.779191652313, '68.0': 9222.775896005332, '69.0': 9270.772600358352, '70.0': 9318.769304711372, '71.0': 9366.766009064391, '72.0': 9414.76271341741, '73.0': 9462.75941777043, '74.0': 9510.75612212345, '75.0': 9558.75282647647, '76.0': 9606.74953082949, '77.0': 9654.746235182509, '78.0': 9702.742939535528, '79.0': 9750.739643888548, '80.0': 9798.736348241568, '81.0': 9846.733052594587, '82.0': 9894.729756947607, '83.0': 9942.726461300626, '84.0': 9990.723165653646, '85.0': 10038.719870006666, '86.0': 10086.716574359685, '87.0': 10134.713278712705, '88.0': 10182.709983065724, '89.0': 10230.706687418744, '90.0': 10278.703391771764, '91.0': 10326.700096124783, '92.0': 10374.696800477803, '93.0': 10422.693504830822, '94.0': 10470.690209183842, '95.0': 10518.686913536862, '96.0': 10566.683617889881, '97.0': 10614.6803222429, '98.0': 10662.67702659592, '99.0': 10710.67373094894, '100.0': 10758.67043530196, '101.0': 10806.66713965498, '102.0': 10854.663844007999, '103.0': 10902.660548361018, '104.0': 10950.657252714038, '105.0': 10998.653957067057, '106.0': 11046.650661420077, '107.0': 11094.647365773097, '108.0': 11142.644070126116, '109.0': 11190.640774479136, '110.0': 11238.637478832155, '111.0': 11286.634183185175, '112.0': 11334.630887538195, '113.0': 11382.627591891214, '114.0': 11430.624296244234, '115.0': 11478.621000597253, '116.0': 11526.617704950273, '117.0': 11574.614409303293, '118.0': 11622.611113656312, '119.0': 11670.607818009332, '120.0': 11718.604522362351}</t>
         </is>
       </c>
       <c r="CO2" t="inlineStr">
